--- a/Economy/ССВ_.xlsx
+++ b/Economy/ССВ_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikhail\Documents\GitProjects\Diplom\Economy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikhail\Desktop\Diplom\Diplom\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154BA4E4-9B06-421A-8B68-7176AFAD2AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F400BEA7-81C3-4FBB-A011-FEA28C925C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7884" yWindow="8016" windowWidth="14856" windowHeight="9768" xr2:uid="{DD22D69B-F449-4465-9E58-C9AF3D6A9AD0}"/>
+    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{DD22D69B-F449-4465-9E58-C9AF3D6A9AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="246">
   <si>
     <t>Таблица 1 - Расходы на оборудование</t>
   </si>
@@ -564,18 +564,6 @@
     <t>1.Расходы на этапе разработки</t>
   </si>
   <si>
-    <t>1.1 Расходы на оборудование, руб.</t>
-  </si>
-  <si>
-    <t>1.3 Административные расходы, руб.</t>
-  </si>
-  <si>
-    <t>1.4 Расходы на операции ИС, руб.</t>
-  </si>
-  <si>
-    <t>1.5 Расходы на связь и коммуникации, руб.</t>
-  </si>
-  <si>
     <t>2.Расходы на этапе эксплуатации</t>
   </si>
   <si>
@@ -630,9 +618,6 @@
     <t>Эмес</t>
   </si>
   <si>
-    <t>Командировочные расходы</t>
-  </si>
-  <si>
     <t>До внедрения продукта, руб</t>
   </si>
   <si>
@@ -660,19 +645,10 @@
     <t>Отклонение 10 сотрудников</t>
   </si>
   <si>
-    <t>Статья затрат</t>
-  </si>
-  <si>
     <t>Печатные материалы</t>
   </si>
   <si>
     <t>Контроль и проверка заданий вручную</t>
-  </si>
-  <si>
-    <t>Потери времени на повторяющиеся вводные</t>
-  </si>
-  <si>
-    <t>Участие в промежуточной аттестации</t>
   </si>
   <si>
     <t>Таблица 15.2 – Эгод (косв)</t>
@@ -824,36 +800,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.2 Расходы на  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">программное обеспечение </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, руб.</t>
-    </r>
-  </si>
-  <si>
     <t>Таблица 15.1 косвенные затраты на 1 преподавателя (мес)</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>0.94</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Статья затрат(р/мес)</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>ССВ на 1 рабочее место</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2228,278 +2190,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2511,12 +2205,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2538,13 +2226,286 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2861,31 +2822,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216BCC7E-ABEC-4E19-9E5C-E8459FAD83F9}">
-  <dimension ref="A1:R251"/>
+  <dimension ref="A1:R249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E246" sqref="E246"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="30.109375" style="11" customWidth="1"/>
-    <col min="10" max="12" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="11"/>
+    <col min="1" max="1" width="35.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="11" customWidth="1"/>
+    <col min="10" max="12" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2897,7 +2858,7 @@
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -2923,31 +2884,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="216" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="218"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="204"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="210"/>
-    </row>
-    <row r="5" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="184"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="186"/>
+    </row>
+    <row r="5" spans="1:8" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2975,29 +2936,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="216" t="s">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="217"/>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
-      <c r="H6" s="218"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="204"/>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="208"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="210"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="186"/>
     </row>
     <row r="8" spans="1:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
@@ -3024,20 +2985,20 @@
         <v>1.5</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="208"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="210"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="186"/>
     </row>
     <row r="10" spans="1:8" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
@@ -3057,7 +3018,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G10" s="15">
         <v>1.4999999999999999E-2</v>
@@ -3066,34 +3027,34 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="211" t="s">
+      <c r="A13" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="213" t="s">
+      <c r="C13" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="213" t="s">
+      <c r="D13" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="213" t="s">
+      <c r="E13" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="214"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="212"/>
-      <c r="B14" s="219"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="219"/>
+      <c r="F13" s="200"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="181"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
       <c r="E14" s="15" t="s">
         <v>22</v>
       </c>
@@ -3101,27 +3062,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="216" t="s">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="217"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="218"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="208"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="210"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="184"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="186"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>11</v>
       </c>
@@ -3143,27 +3104,27 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="216" t="s">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="217"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="218"/>
-    </row>
-    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="203"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="204"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="208"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="210"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="184"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="186"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>15</v>
       </c>
@@ -3185,17 +3146,17 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="208"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="210"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="184"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="186"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
         <v>17</v>
       </c>
@@ -3217,7 +3178,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>25</v>
       </c>
@@ -3226,20 +3187,20 @@
       <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="211" t="s">
+      <c r="A25" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="213" t="s">
+      <c r="B25" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="213" t="s">
+      <c r="C25" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="214"/>
-    </row>
-    <row r="26" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="212"/>
-      <c r="B26" s="219"/>
+      <c r="D25" s="200"/>
+    </row>
+    <row r="26" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="181"/>
+      <c r="B26" s="183"/>
       <c r="C26" s="15" t="s">
         <v>27</v>
       </c>
@@ -3247,7 +3208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>29</v>
       </c>
@@ -3261,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>30</v>
       </c>
@@ -3275,7 +3236,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>31</v>
       </c>
@@ -3292,7 +3253,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>32</v>
       </c>
@@ -3306,7 +3267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>33</v>
       </c>
@@ -3320,7 +3281,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>34</v>
       </c>
@@ -3337,7 +3298,7 @@
         <v>0.58320000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>35</v>
       </c>
@@ -3347,7 +3308,7 @@
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
     </row>
-    <row r="35" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>36</v>
       </c>
@@ -3367,27 +3328,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="201" t="s">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="203"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="198"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="208"/>
-      <c r="C37" s="209"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="209"/>
-      <c r="F37" s="210"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="184"/>
+      <c r="C37" s="185"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="186"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>44</v>
       </c>
@@ -3407,7 +3368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="28.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="49" t="s">
         <v>45</v>
       </c>
@@ -3427,27 +3388,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="201" t="s">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="202"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="203"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="197"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="197"/>
+      <c r="F40" s="198"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="208"/>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
-      <c r="E41" s="209"/>
-      <c r="F41" s="210"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="184"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="185"/>
+      <c r="F41" s="186"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="s">
         <v>43</v>
       </c>
@@ -3467,7 +3428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>46</v>
       </c>
@@ -3478,56 +3439,56 @@
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="211" t="s">
+      <c r="A45" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="213" t="s">
+      <c r="B45" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="213" t="s">
+      <c r="C45" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="213" t="s">
+      <c r="D45" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="213"/>
-      <c r="F45" s="214" t="s">
+      <c r="E45" s="182"/>
+      <c r="F45" s="200" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="222"/>
-      <c r="B46" s="225"/>
-      <c r="C46" s="225"/>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="172"/>
+      <c r="B46" s="199"/>
+      <c r="C46" s="199"/>
       <c r="D46" s="36" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="226"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="201" t="s">
+      <c r="F46" s="201"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="202"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="202"/>
-      <c r="F47" s="203"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="198"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="208"/>
-      <c r="C48" s="209"/>
-      <c r="D48" s="209"/>
-      <c r="E48" s="209"/>
-      <c r="F48" s="210"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="184"/>
+      <c r="C48" s="185"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="185"/>
+      <c r="F48" s="186"/>
+    </row>
+    <row r="49" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>44</v>
       </c>
@@ -3547,7 +3508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
         <v>45</v>
       </c>
@@ -3567,7 +3528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
         <v>49</v>
       </c>
@@ -3576,52 +3537,52 @@
       <c r="D52" s="28"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="211" t="s">
+      <c r="A53" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="213" t="s">
+      <c r="B53" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="213"/>
-      <c r="D53" s="214" t="s">
+      <c r="C53" s="182"/>
+      <c r="D53" s="200" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="212"/>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="181"/>
       <c r="B54" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="215"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="201" t="s">
+      <c r="D54" s="205"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="202"/>
-      <c r="C55" s="202"/>
-      <c r="D55" s="203"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="197"/>
+      <c r="C55" s="197"/>
+      <c r="D55" s="198"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="208"/>
-      <c r="C56" s="209"/>
-      <c r="D56" s="210"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="201" t="s">
+      <c r="B56" s="184"/>
+      <c r="C56" s="185"/>
+      <c r="D56" s="186"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="202"/>
-      <c r="C57" s="202"/>
-      <c r="D57" s="203"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="197"/>
+      <c r="C57" s="197"/>
+      <c r="D57" s="198"/>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>52</v>
       </c>
@@ -3635,7 +3596,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>53</v>
       </c>
@@ -3658,63 +3619,63 @@
       <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="246"/>
-      <c r="C63" s="246"/>
-      <c r="D63" s="246"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="246"/>
-      <c r="B64" s="246"/>
-      <c r="C64" s="246"/>
-      <c r="D64" s="246"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="246"/>
-      <c r="B65" s="246"/>
-      <c r="C65" s="246"/>
-      <c r="D65" s="246"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="246"/>
-      <c r="B66" s="246"/>
-      <c r="C66" s="246"/>
-      <c r="D66" s="246"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="246"/>
-      <c r="B67" s="246"/>
-      <c r="C67" s="246"/>
-      <c r="D67" s="246"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="246"/>
-      <c r="B68" s="246"/>
-      <c r="C68" s="246"/>
-      <c r="D68" s="246"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="246"/>
-      <c r="B69" s="246"/>
-      <c r="C69" s="246"/>
-      <c r="D69" s="246"/>
-    </row>
-    <row r="70" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="247" t="s">
+    <row r="63" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="B63" s="156"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+    </row>
+    <row r="64" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A64" s="156"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+    </row>
+    <row r="65" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A65" s="156"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+    </row>
+    <row r="66" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A66" s="156"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+    </row>
+    <row r="67" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A67" s="156"/>
+      <c r="B67" s="156"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="156"/>
+    </row>
+    <row r="68" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A68" s="156"/>
+      <c r="B68" s="156"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+    </row>
+    <row r="69" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A69" s="156"/>
+      <c r="B69" s="156"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="156"/>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="247" t="s">
+      <c r="B70" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="247" t="s">
+      <c r="C70" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="247" t="s">
+      <c r="D70" s="157" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="222" t="s">
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="172" t="s">
         <v>89</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -3728,8 +3689,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="223"/>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="173"/>
       <c r="B72" s="3" t="s">
         <v>69</v>
       </c>
@@ -3741,8 +3702,8 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="223"/>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="173"/>
       <c r="B73" s="3" t="s">
         <v>70</v>
       </c>
@@ -3754,8 +3715,8 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="223"/>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="173"/>
       <c r="B74" s="6" t="s">
         <v>71</v>
       </c>
@@ -3767,8 +3728,8 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="223"/>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="173"/>
       <c r="B75" s="7" t="s">
         <v>73</v>
       </c>
@@ -3780,8 +3741,8 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="223"/>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="173"/>
       <c r="B76" s="8" t="s">
         <v>72</v>
       </c>
@@ -3793,8 +3754,8 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="223"/>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="173"/>
       <c r="B77" s="8" t="s">
         <v>74</v>
       </c>
@@ -3806,8 +3767,8 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="223"/>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="173"/>
       <c r="B78" s="9" t="s">
         <v>77</v>
       </c>
@@ -3820,7 +3781,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="223"/>
+      <c r="A79" s="173"/>
       <c r="B79" s="11" t="s">
         <v>78</v>
       </c>
@@ -3833,7 +3794,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="224"/>
+      <c r="A80" s="174"/>
       <c r="B80" s="13" t="s">
         <v>75</v>
       </c>
@@ -3845,7 +3806,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>34</v>
       </c>
@@ -3875,12 +3836,12 @@
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
@@ -3890,7 +3851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="23" t="s">
         <v>62</v>
       </c>
@@ -3925,11 +3886,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="220" t="s">
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="B88" s="221"/>
+      <c r="B88" s="192"/>
       <c r="C88" s="15">
         <v>1</v>
       </c>
@@ -3938,7 +3899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="27" t="s">
         <v>79</v>
       </c>
@@ -3947,7 +3908,7 @@
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
     </row>
-    <row r="91" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="29" t="s">
         <v>80</v>
       </c>
@@ -3964,142 +3925,142 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="216" t="s">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="217"/>
-      <c r="C92" s="217"/>
-      <c r="D92" s="217"/>
-      <c r="E92" s="218"/>
-    </row>
-    <row r="93" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="250" t="s">
+      <c r="B92" s="203"/>
+      <c r="C92" s="203"/>
+      <c r="D92" s="203"/>
+      <c r="E92" s="204"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="248" t="s">
+      <c r="B93" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="C93" s="227">
+      <c r="C93" s="219">
         <v>1</v>
       </c>
-      <c r="D93" s="227">
+      <c r="D93" s="219">
         <f>E93*132</f>
         <v>24816</v>
       </c>
-      <c r="E93" s="229">
+      <c r="E93" s="175">
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="250" t="s">
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="B94" s="249"/>
-      <c r="C94" s="228"/>
-      <c r="D94" s="228"/>
-      <c r="E94" s="230"/>
-    </row>
-    <row r="95" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="250" t="s">
+      <c r="B94" s="218"/>
+      <c r="C94" s="220"/>
+      <c r="D94" s="220"/>
+      <c r="E94" s="176"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="249"/>
-      <c r="C95" s="228"/>
-      <c r="D95" s="228"/>
-      <c r="E95" s="230"/>
-    </row>
-    <row r="96" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="251" t="s">
+      <c r="B95" s="218"/>
+      <c r="C95" s="220"/>
+      <c r="D95" s="220"/>
+      <c r="E95" s="176"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="B96" s="249"/>
-      <c r="C96" s="228"/>
-      <c r="D96" s="228"/>
-      <c r="E96" s="230"/>
-    </row>
-    <row r="97" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="252" t="s">
+      <c r="B96" s="218"/>
+      <c r="C96" s="220"/>
+      <c r="D96" s="220"/>
+      <c r="E96" s="176"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="B97" s="249"/>
-      <c r="C97" s="228"/>
-      <c r="D97" s="228"/>
-      <c r="E97" s="230"/>
-    </row>
-    <row r="98" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="253" t="s">
+      <c r="B97" s="218"/>
+      <c r="C97" s="220"/>
+      <c r="D97" s="220"/>
+      <c r="E97" s="176"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="B98" s="249"/>
-      <c r="C98" s="228"/>
-      <c r="D98" s="228"/>
-      <c r="E98" s="230"/>
-    </row>
-    <row r="99" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="253" t="s">
+      <c r="B98" s="218"/>
+      <c r="C98" s="220"/>
+      <c r="D98" s="220"/>
+      <c r="E98" s="176"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="249"/>
-      <c r="C99" s="228"/>
-      <c r="D99" s="228"/>
-      <c r="E99" s="230"/>
-    </row>
-    <row r="100" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="254" t="s">
+      <c r="B99" s="218"/>
+      <c r="C99" s="220"/>
+      <c r="D99" s="220"/>
+      <c r="E99" s="176"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="B100" s="249"/>
-      <c r="C100" s="228"/>
-      <c r="D100" s="228"/>
-      <c r="E100" s="230"/>
-    </row>
-    <row r="101" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="255" t="s">
+      <c r="B100" s="218"/>
+      <c r="C100" s="220"/>
+      <c r="D100" s="220"/>
+      <c r="E100" s="176"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="B101" s="249"/>
-      <c r="C101" s="228"/>
-      <c r="D101" s="228"/>
-      <c r="E101" s="230"/>
-    </row>
-    <row r="102" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="256" t="s">
+      <c r="B101" s="218"/>
+      <c r="C101" s="220"/>
+      <c r="D101" s="220"/>
+      <c r="E101" s="176"/>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="B102" s="249"/>
-      <c r="C102" s="228"/>
-      <c r="D102" s="228"/>
-      <c r="E102" s="230"/>
-    </row>
-    <row r="103" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="255" t="s">
+      <c r="B102" s="218"/>
+      <c r="C102" s="220"/>
+      <c r="D102" s="220"/>
+      <c r="E102" s="176"/>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="B103" s="249"/>
-      <c r="C103" s="228"/>
-      <c r="D103" s="228"/>
-      <c r="E103" s="230"/>
-    </row>
-    <row r="104" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="255" t="s">
+      <c r="B103" s="218"/>
+      <c r="C103" s="220"/>
+      <c r="D103" s="220"/>
+      <c r="E103" s="176"/>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="249"/>
-      <c r="C104" s="228"/>
-      <c r="D104" s="228"/>
-      <c r="E104" s="230"/>
-    </row>
-    <row r="105" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="256" t="s">
+      <c r="B104" s="218"/>
+      <c r="C104" s="220"/>
+      <c r="D104" s="220"/>
+      <c r="E104" s="176"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="B105" s="249"/>
-      <c r="C105" s="228"/>
-      <c r="D105" s="228"/>
-      <c r="E105" s="230"/>
-    </row>
-    <row r="106" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="218"/>
+      <c r="C105" s="220"/>
+      <c r="D105" s="220"/>
+      <c r="E105" s="176"/>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
         <v>34</v>
       </c>
@@ -4108,30 +4069,30 @@
       <c r="D106" s="30"/>
       <c r="E106" s="31"/>
     </row>
-    <row r="107" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="216" t="s">
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="217"/>
-      <c r="C107" s="217"/>
-      <c r="D107" s="217"/>
-      <c r="E107" s="218"/>
+      <c r="B107" s="203"/>
+      <c r="C107" s="203"/>
+      <c r="D107" s="203"/>
+      <c r="E107" s="204"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="208"/>
-      <c r="C108" s="209"/>
-      <c r="D108" s="209"/>
-      <c r="E108" s="210"/>
+      <c r="B108" s="184"/>
+      <c r="C108" s="185"/>
+      <c r="D108" s="185"/>
+      <c r="E108" s="186"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
         <v>86</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C109" s="4">
         <v>10</v>
@@ -4167,12 +4128,12 @@
       <c r="A111" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="234"/>
-      <c r="C111" s="235"/>
-      <c r="D111" s="235"/>
-      <c r="E111" s="236"/>
-    </row>
-    <row r="112" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="187"/>
+      <c r="C111" s="188"/>
+      <c r="D111" s="188"/>
+      <c r="E111" s="189"/>
+    </row>
+    <row r="112" spans="1:5" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="40" t="s">
         <v>43</v>
       </c>
@@ -4189,7 +4150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="27" t="s">
         <v>90</v>
       </c>
@@ -4201,7 +4162,7 @@
       <c r="G114" s="28"/>
       <c r="H114" s="28"/>
     </row>
-    <row r="115" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="29" t="s">
         <v>81</v>
       </c>
@@ -4227,7 +4188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="59" t="s">
         <v>98</v>
       </c>
@@ -4270,13 +4231,13 @@
         <v>32310.432000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="220" t="s">
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="237"/>
-      <c r="C118" s="237"/>
-      <c r="D118" s="221"/>
+      <c r="B118" s="191"/>
+      <c r="C118" s="191"/>
+      <c r="D118" s="192"/>
       <c r="E118" s="36">
         <f>SUM(E117:E117)</f>
         <v>132</v>
@@ -4294,7 +4255,7 @@
         <v>32310.432000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="59" t="s">
         <v>100</v>
       </c>
@@ -4337,13 +4298,13 @@
         <v>32310.432000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="231" t="s">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="177" t="s">
         <v>101</v>
       </c>
-      <c r="B121" s="232"/>
-      <c r="C121" s="232"/>
-      <c r="D121" s="233"/>
+      <c r="B121" s="178"/>
+      <c r="C121" s="178"/>
+      <c r="D121" s="179"/>
       <c r="E121" s="36">
         <f>SUM(E120:E120)</f>
         <v>132</v>
@@ -4361,7 +4322,7 @@
         <v>32310.432000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="59" t="s">
         <v>102</v>
       </c>
@@ -4405,12 +4366,12 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="238" t="s">
+      <c r="A124" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="B124" s="239"/>
-      <c r="C124" s="239"/>
-      <c r="D124" s="240"/>
+      <c r="B124" s="194"/>
+      <c r="C124" s="194"/>
+      <c r="D124" s="195"/>
       <c r="E124" s="4">
         <f>SUM(E123:E123)</f>
         <v>19.899999999999999</v>
@@ -4428,14 +4389,14 @@
         <v>4871.0424000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="231" t="s">
+    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="B125" s="232"/>
-      <c r="C125" s="232"/>
-      <c r="D125" s="232"/>
-      <c r="E125" s="233"/>
+      <c r="B125" s="178"/>
+      <c r="C125" s="178"/>
+      <c r="D125" s="178"/>
+      <c r="E125" s="179"/>
       <c r="F125" s="36">
         <f>F118+F121+F124</f>
         <v>53373.2</v>
@@ -4449,7 +4410,7 @@
         <v>69491.906400000007</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="59" t="s">
         <v>104</v>
       </c>
@@ -4461,7 +4422,7 @@
       <c r="G126" s="60"/>
       <c r="H126" s="61"/>
     </row>
-    <row r="127" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="44" t="s">
         <v>105</v>
       </c>
@@ -4475,7 +4436,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B128" s="4">
         <v>10</v>
@@ -4548,7 +4509,7 @@
       <c r="G130" s="57"/>
       <c r="H130" s="58"/>
     </row>
-    <row r="131" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="23" t="s">
         <v>34</v>
       </c>
@@ -4563,7 +4524,7 @@
         <v>25630.935272727274</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="27" t="s">
         <v>107</v>
       </c>
@@ -4573,21 +4534,21 @@
       <c r="E133" s="28"/>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="211" t="s">
+      <c r="A134" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="B134" s="213" t="s">
+      <c r="B134" s="182" t="s">
         <v>108</v>
       </c>
-      <c r="C134" s="208" t="s">
+      <c r="C134" s="184" t="s">
         <v>109</v>
       </c>
-      <c r="D134" s="209"/>
-      <c r="E134" s="210"/>
+      <c r="D134" s="185"/>
+      <c r="E134" s="186"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="212"/>
-      <c r="B135" s="219"/>
+      <c r="A135" s="181"/>
+      <c r="B135" s="183"/>
       <c r="C135" s="15" t="s">
         <v>110</v>
       </c>
@@ -4603,7 +4564,7 @@
         <v>113</v>
       </c>
       <c r="B136" s="67">
-        <f>SUM(C136:E136)</f>
+        <f t="shared" ref="B136:B149" si="1">SUM(C136:E136)</f>
         <v>77544.002399999998</v>
       </c>
       <c r="C136" s="67">
@@ -4624,7 +4585,7 @@
         <v>114</v>
       </c>
       <c r="B137" s="69">
-        <f>SUM(C137:E137)</f>
+        <f t="shared" si="1"/>
         <v>8052.0960000000005</v>
       </c>
       <c r="C137" s="69">
@@ -4640,12 +4601,12 @@
         <v>2538.88</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B138" s="69">
-        <f>SUM(C138:E138)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C138" s="69">
@@ -4661,12 +4622,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B139" s="69">
-        <f>SUM(C139:E139)</f>
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="C139" s="4">
@@ -4682,12 +4643,12 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B140" s="69">
-        <f>SUM(C140:E140)</f>
+        <f t="shared" si="1"/>
         <v>552.096</v>
       </c>
       <c r="C140" s="4">
@@ -4703,12 +4664,12 @@
         <v>38.879999999999995</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="71" t="s">
         <v>117</v>
       </c>
       <c r="B141" s="72">
-        <f>SUM(C141:E141)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C141" s="72">
@@ -4724,12 +4685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="44" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B142" s="67">
-        <f>SUM(C142:E142)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C142" s="67">
@@ -4745,12 +4706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
         <v>118</v>
       </c>
       <c r="B143" s="69">
-        <f>SUM(C143:E143)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C143" s="4">
@@ -4766,12 +4727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B144" s="74">
-        <f>SUM(C144:E144)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C144" s="15">
@@ -4787,12 +4748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="75" t="s">
         <v>120</v>
       </c>
       <c r="B145" s="76">
-        <f>SUM(C145:E145)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C145" s="76">
@@ -4813,7 +4774,7 @@
         <v>121</v>
       </c>
       <c r="B146" s="67">
-        <f>SUM(C146:E146)</f>
+        <f t="shared" si="1"/>
         <v>69491.906400000007</v>
       </c>
       <c r="C146" s="67">
@@ -4829,12 +4790,12 @@
         <v>4871.0424000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B147" s="74">
-        <f>SUM(C147:E147)</f>
+        <f t="shared" si="1"/>
         <v>69491.906400000007</v>
       </c>
       <c r="C147" s="15">
@@ -4850,12 +4811,12 @@
         <v>4871.0424000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="44" t="s">
         <v>123</v>
       </c>
       <c r="B148" s="67">
-        <f>SUM(C148:E148)</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="C148" s="67">
@@ -4871,12 +4832,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="78" t="s">
         <v>124</v>
       </c>
       <c r="B149" s="74">
-        <f>SUM(C149:E149)</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="C149" s="79">
@@ -4889,7 +4850,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="27" t="s">
         <v>125</v>
       </c>
@@ -4907,33 +4868,33 @@
       <c r="M151" s="28"/>
       <c r="N151" s="28"/>
     </row>
-    <row r="152" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="81" t="s">
         <v>126</v>
       </c>
       <c r="B152" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="C152" s="196" t="s">
+      <c r="C152" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="D152" s="197"/>
-      <c r="E152" s="197"/>
-      <c r="F152" s="197"/>
-      <c r="G152" s="197"/>
-      <c r="H152" s="197"/>
-      <c r="I152" s="197"/>
-      <c r="J152" s="197"/>
-      <c r="K152" s="197"/>
-      <c r="L152" s="198"/>
-      <c r="M152" s="204" t="s">
+      <c r="D152" s="207"/>
+      <c r="E152" s="207"/>
+      <c r="F152" s="207"/>
+      <c r="G152" s="207"/>
+      <c r="H152" s="207"/>
+      <c r="I152" s="207"/>
+      <c r="J152" s="207"/>
+      <c r="K152" s="207"/>
+      <c r="L152" s="208"/>
+      <c r="M152" s="209" t="s">
         <v>128</v>
       </c>
-      <c r="N152" s="206" t="s">
+      <c r="N152" s="211" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="83"/>
       <c r="B153" s="84"/>
       <c r="C153" s="72" t="s">
@@ -4966,55 +4927,55 @@
       <c r="L153" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="M153" s="205"/>
-      <c r="N153" s="207"/>
-    </row>
-    <row r="154" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M153" s="210"/>
+      <c r="N153" s="212"/>
+    </row>
+    <row r="154" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="85" t="s">
         <v>140</v>
       </c>
       <c r="B154" s="30">
-        <f t="shared" ref="B154:N154" si="1">B155+B159+B160+B162+B163</f>
+        <f t="shared" ref="B154:N154" si="2">B155+B159+B160+B162+B163</f>
         <v>985245.42400000012</v>
       </c>
       <c r="C154" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>268703.29745454545</v>
       </c>
       <c r="D154" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29855.921939393942</v>
       </c>
       <c r="E154" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29855.921939393942</v>
       </c>
       <c r="F154" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29855.921939393942</v>
       </c>
       <c r="G154" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29855.921939393942</v>
       </c>
       <c r="H154" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29855.921939393942</v>
       </c>
       <c r="I154" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29855.921939393942</v>
       </c>
       <c r="J154" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29855.921939393942</v>
       </c>
       <c r="K154" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29855.921939393942</v>
       </c>
       <c r="L154" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29855.921939393942</v>
       </c>
       <c r="M154" s="30">
@@ -5022,7 +4983,7 @@
         <v>358271.0632727273</v>
       </c>
       <c r="N154" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>358271.0632727273</v>
       </c>
     </row>
@@ -5031,11 +4992,11 @@
         <v>114</v>
       </c>
       <c r="B155" s="18">
-        <f>SUM(C155,M155:P155)</f>
+        <f t="shared" ref="B155:B162" si="3">SUM(C155,M155:P155)</f>
         <v>139424.56</v>
       </c>
       <c r="C155" s="18">
-        <f>SUM(D155:L155)</f>
+        <f t="shared" ref="C155:C163" si="4">SUM(D155:L155)</f>
         <v>38024.879999999997</v>
       </c>
       <c r="D155" s="18">
@@ -5047,52 +5008,52 @@
         <v>4224.9866666666667</v>
       </c>
       <c r="F155" s="18">
-        <f t="shared" ref="F155:N155" si="2">SUM(F156:F158)</f>
+        <f t="shared" ref="F155:N155" si="5">SUM(F156:F158)</f>
         <v>4224.9866666666667</v>
       </c>
       <c r="G155" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4224.9866666666667</v>
       </c>
       <c r="H155" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4224.9866666666667</v>
       </c>
       <c r="I155" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4224.9866666666667</v>
       </c>
       <c r="J155" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4224.9866666666667</v>
       </c>
       <c r="K155" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4224.9866666666667</v>
       </c>
       <c r="L155" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4224.9866666666667</v>
       </c>
       <c r="M155" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50699.839999999997</v>
       </c>
       <c r="N155" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50699.839999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="87" t="s">
         <v>141</v>
       </c>
       <c r="B156" s="4">
-        <f>SUM(C156,M156:P156)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C156" s="4">
-        <f>SUM(D156:L156)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D156" s="4">
@@ -5129,16 +5090,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="87" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B157" s="4">
-        <f>SUM(C157,M157:P157)</f>
+        <f t="shared" si="3"/>
         <v>137500</v>
       </c>
       <c r="C157" s="69">
-        <f>SUM(D157:L157)</f>
+        <f t="shared" si="4"/>
         <v>37500</v>
       </c>
       <c r="D157" s="69">
@@ -5146,35 +5107,35 @@
         <v>4166.666666666667</v>
       </c>
       <c r="E157" s="69">
-        <f t="shared" ref="E157:L157" si="3">$E$20</f>
+        <f t="shared" ref="E157:L157" si="6">$E$20</f>
         <v>4166.666666666667</v>
       </c>
       <c r="F157" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4166.666666666667</v>
       </c>
       <c r="G157" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4166.666666666667</v>
       </c>
       <c r="H157" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4166.666666666667</v>
       </c>
       <c r="I157" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4166.666666666667</v>
       </c>
       <c r="J157" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4166.666666666667</v>
       </c>
       <c r="K157" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4166.666666666667</v>
       </c>
       <c r="L157" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4166.666666666667</v>
       </c>
       <c r="M157" s="69">
@@ -5186,16 +5147,16 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="23" t="s">
         <v>142</v>
       </c>
       <c r="B158" s="15">
-        <f>SUM(C158,M158:P158)</f>
+        <f t="shared" si="3"/>
         <v>1924.5600000000004</v>
       </c>
       <c r="C158" s="74">
-        <f>SUM(D158:L158)</f>
+        <f t="shared" si="4"/>
         <v>524.88000000000011</v>
       </c>
       <c r="D158" s="15">
@@ -5203,35 +5164,35 @@
         <v>58.320000000000014</v>
       </c>
       <c r="E158" s="15">
-        <f t="shared" ref="E158:L158" si="4">SUM($C$32)</f>
+        <f t="shared" ref="E158:L158" si="7">SUM($C$32)</f>
         <v>58.320000000000014</v>
       </c>
       <c r="F158" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>58.320000000000014</v>
       </c>
       <c r="G158" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>58.320000000000014</v>
       </c>
       <c r="H158" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>58.320000000000014</v>
       </c>
       <c r="I158" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>58.320000000000014</v>
       </c>
       <c r="J158" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>58.320000000000014</v>
       </c>
       <c r="K158" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>58.320000000000014</v>
       </c>
       <c r="L158" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>58.320000000000014</v>
       </c>
       <c r="M158" s="15">
@@ -5243,16 +5204,16 @@
         <v>699.84000000000015</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="88" t="s">
         <v>143</v>
       </c>
       <c r="B159" s="30">
-        <f>SUM(C159,M159:P159)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C159" s="76">
-        <f>SUM(D159:L159)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D159" s="76">
@@ -5294,11 +5255,11 @@
         <v>120</v>
       </c>
       <c r="B160" s="18">
-        <f>SUM(C160,M160:P160)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C160" s="67">
-        <f>SUM(D160:L160)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D160" s="67">
@@ -5310,52 +5271,52 @@
         <v>0</v>
       </c>
       <c r="F160" s="67">
-        <f t="shared" ref="F160:N160" si="5">SUM(F161)</f>
+        <f t="shared" ref="F160:N160" si="8">SUM(F161)</f>
         <v>0</v>
       </c>
       <c r="G160" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H160" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I160" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J160" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K160" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L160" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M160" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N160" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="89" t="s">
         <v>144</v>
       </c>
       <c r="B161" s="4">
-        <f>SUM(C161,M161:P161)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C161" s="69">
-        <f>SUM(D161:L161)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D161" s="69">
@@ -5363,35 +5324,35 @@
         <v>0</v>
       </c>
       <c r="E161" s="69">
-        <f t="shared" ref="E161:L161" si="6">$H$136</f>
+        <f t="shared" ref="E161:L161" si="9">$H$136</f>
         <v>0</v>
       </c>
       <c r="F161" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G161" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H161" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I161" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J161" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K161" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L161" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M161" s="69">
@@ -5403,16 +5364,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="90" t="s">
         <v>145</v>
       </c>
       <c r="B162" s="15">
-        <f>SUM(C162,M162:P162)</f>
+        <f t="shared" si="3"/>
         <v>845820.86400000006</v>
       </c>
       <c r="C162" s="74">
-        <f>SUM(D162:L162)</f>
+        <f t="shared" si="4"/>
         <v>230678.41745454547</v>
       </c>
       <c r="D162" s="74">
@@ -5420,35 +5381,35 @@
         <v>25630.935272727274</v>
       </c>
       <c r="E162" s="74">
-        <f t="shared" ref="E162:L162" si="7">$H$131</f>
+        <f t="shared" ref="E162:L162" si="10">$H$131</f>
         <v>25630.935272727274</v>
       </c>
       <c r="F162" s="74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25630.935272727274</v>
       </c>
       <c r="G162" s="74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25630.935272727274</v>
       </c>
       <c r="H162" s="74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25630.935272727274</v>
       </c>
       <c r="I162" s="74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25630.935272727274</v>
       </c>
       <c r="J162" s="74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25630.935272727274</v>
       </c>
       <c r="K162" s="74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25630.935272727274</v>
       </c>
       <c r="L162" s="74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25630.935272727274</v>
       </c>
       <c r="M162" s="74">
@@ -5460,7 +5421,7 @@
         <v>307571.22327272728</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="88" t="s">
         <v>146</v>
       </c>
@@ -5469,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="C163" s="76">
-        <f>SUM(D163:L163)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D163" s="76">
@@ -5506,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="27" t="s">
         <v>147</v>
       </c>
@@ -5534,25 +5495,25 @@
       <c r="C166" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="D166" s="196" t="s">
+      <c r="D166" s="206" t="s">
         <v>149</v>
       </c>
-      <c r="E166" s="197"/>
-      <c r="F166" s="197"/>
-      <c r="G166" s="197"/>
-      <c r="H166" s="197"/>
-      <c r="I166" s="197"/>
-      <c r="J166" s="197"/>
-      <c r="K166" s="197"/>
-      <c r="L166" s="198"/>
-      <c r="M166" s="194" t="s">
+      <c r="E166" s="207"/>
+      <c r="F166" s="207"/>
+      <c r="G166" s="207"/>
+      <c r="H166" s="207"/>
+      <c r="I166" s="207"/>
+      <c r="J166" s="207"/>
+      <c r="K166" s="207"/>
+      <c r="L166" s="208"/>
+      <c r="M166" s="213" t="s">
         <v>150</v>
       </c>
-      <c r="N166" s="199" t="s">
+      <c r="N166" s="215" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="91"/>
       <c r="B167" s="92"/>
       <c r="C167" s="92"/>
@@ -5583,133 +5544,133 @@
       <c r="L167" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="M167" s="195"/>
-      <c r="N167" s="200"/>
-    </row>
-    <row r="168" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="M167" s="214"/>
+      <c r="N167" s="216"/>
+    </row>
+    <row r="168" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="93" t="s">
         <v>160</v>
       </c>
       <c r="B168" s="18">
         <f>B169*0.001</f>
-        <v>100.2292456</v>
+        <v>1.2292456</v>
       </c>
       <c r="C168" s="18">
-        <f t="shared" ref="C168:N168" si="8">C169*0.001</f>
-        <v>27.335248799999995</v>
+        <f t="shared" ref="C168:N168" si="11">C169*0.001</f>
+        <v>0.33524879999999996</v>
       </c>
       <c r="D168" s="18">
         <f>D169*0.001</f>
-        <v>3.0372498666666665</v>
+        <v>3.7249866666666666E-2</v>
       </c>
       <c r="E168" s="18">
-        <f t="shared" si="8"/>
-        <v>3.0372498666666665</v>
+        <f t="shared" si="11"/>
+        <v>3.7249866666666666E-2</v>
       </c>
       <c r="F168" s="18">
-        <f t="shared" si="8"/>
-        <v>3.0372498666666665</v>
+        <f t="shared" si="11"/>
+        <v>3.7249866666666666E-2</v>
       </c>
       <c r="G168" s="18">
-        <f t="shared" si="8"/>
-        <v>3.0372498666666665</v>
+        <f t="shared" si="11"/>
+        <v>3.7249866666666666E-2</v>
       </c>
       <c r="H168" s="18">
-        <f t="shared" si="8"/>
-        <v>3.0372498666666665</v>
+        <f t="shared" si="11"/>
+        <v>3.7249866666666666E-2</v>
       </c>
       <c r="I168" s="18">
-        <f t="shared" si="8"/>
-        <v>3.0372498666666665</v>
+        <f t="shared" si="11"/>
+        <v>3.7249866666666666E-2</v>
       </c>
       <c r="J168" s="18">
-        <f t="shared" si="8"/>
-        <v>3.0372498666666665</v>
+        <f t="shared" si="11"/>
+        <v>3.7249866666666666E-2</v>
       </c>
       <c r="K168" s="18">
-        <f t="shared" si="8"/>
-        <v>3.0372498666666665</v>
+        <f t="shared" si="11"/>
+        <v>3.7249866666666666E-2</v>
       </c>
       <c r="L168" s="18">
-        <f t="shared" si="8"/>
-        <v>3.0372498666666665</v>
+        <f t="shared" si="11"/>
+        <v>3.7249866666666666E-2</v>
       </c>
       <c r="M168" s="18">
         <f>M169*0.001</f>
-        <v>36.446998399999998</v>
+        <v>0.44699840000000002</v>
       </c>
       <c r="N168" s="19">
-        <f t="shared" si="8"/>
-        <v>36.446998399999998</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0.44699840000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="94" t="s">
         <v>161</v>
       </c>
       <c r="B169" s="4">
-        <f>SUM(C169,M169,N169)</f>
-        <v>100229.24559999999</v>
+        <f t="shared" ref="B169:B176" si="12">SUM(C169,M169,N169)</f>
+        <v>1229.2456</v>
       </c>
       <c r="C169" s="4">
-        <f>SUM(D169:L169)</f>
-        <v>27335.248799999994</v>
+        <f t="shared" ref="C169:C175" si="13">SUM(D169:L169)</f>
+        <v>335.24879999999996</v>
       </c>
       <c r="D169" s="4">
         <f>D170+D173+D174+D175+D176</f>
-        <v>3037.2498666666665</v>
+        <v>37.249866666666662</v>
       </c>
       <c r="E169" s="4">
-        <f t="shared" ref="E169:L169" si="9">E170+E173+E174+E175+E176</f>
-        <v>3037.2498666666665</v>
+        <f t="shared" ref="E169:L169" si="14">E170+E173+E174+E175+E176</f>
+        <v>37.249866666666662</v>
       </c>
       <c r="F169" s="4">
-        <f t="shared" si="9"/>
-        <v>3037.2498666666665</v>
+        <f t="shared" si="14"/>
+        <v>37.249866666666662</v>
       </c>
       <c r="G169" s="4">
-        <f t="shared" si="9"/>
-        <v>3037.2498666666665</v>
+        <f t="shared" si="14"/>
+        <v>37.249866666666662</v>
       </c>
       <c r="H169" s="4">
-        <f t="shared" si="9"/>
-        <v>3037.2498666666665</v>
+        <f t="shared" si="14"/>
+        <v>37.249866666666662</v>
       </c>
       <c r="I169" s="4">
-        <f t="shared" si="9"/>
-        <v>3037.2498666666665</v>
+        <f t="shared" si="14"/>
+        <v>37.249866666666662</v>
       </c>
       <c r="J169" s="4">
-        <f t="shared" si="9"/>
-        <v>3037.2498666666665</v>
+        <f t="shared" si="14"/>
+        <v>37.249866666666662</v>
       </c>
       <c r="K169" s="4">
-        <f t="shared" si="9"/>
-        <v>3037.2498666666665</v>
+        <f t="shared" si="14"/>
+        <v>37.249866666666662</v>
       </c>
       <c r="L169" s="4">
-        <f t="shared" si="9"/>
-        <v>3037.2498666666665</v>
+        <f t="shared" si="14"/>
+        <v>37.249866666666662</v>
       </c>
       <c r="M169" s="4">
         <f>M170+M173+M174+M175+M176</f>
-        <v>36446.998399999997</v>
+        <v>446.9984</v>
       </c>
       <c r="N169" s="5">
         <f>N170+N173+N174+N175+N176</f>
-        <v>36446.998399999997</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+        <v>446.9984</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="87" t="s">
         <v>162</v>
       </c>
       <c r="B170" s="4">
-        <f>SUM(C170,M170,N170)</f>
+        <f t="shared" si="12"/>
         <v>1229.2456</v>
       </c>
       <c r="C170" s="4">
-        <f>SUM(D170:L170)</f>
+        <f t="shared" si="13"/>
         <v>335.24879999999996</v>
       </c>
       <c r="D170" s="4">
@@ -5717,35 +5678,35 @@
         <v>37.249866666666662</v>
       </c>
       <c r="E170" s="4">
-        <f t="shared" ref="E170:L170" si="10">SUM(E171:E172)</f>
+        <f t="shared" ref="E170:L170" si="15">SUM(E171:E172)</f>
         <v>37.249866666666662</v>
       </c>
       <c r="F170" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>37.249866666666662</v>
       </c>
       <c r="G170" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>37.249866666666662</v>
       </c>
       <c r="H170" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>37.249866666666662</v>
       </c>
       <c r="I170" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>37.249866666666662</v>
       </c>
       <c r="J170" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>37.249866666666662</v>
       </c>
       <c r="K170" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>37.249866666666662</v>
       </c>
       <c r="L170" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>37.249866666666662</v>
       </c>
       <c r="M170" s="4">
@@ -5757,16 +5718,16 @@
         <v>446.9984</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="95" t="s">
         <v>163</v>
       </c>
       <c r="B171" s="4">
-        <f>SUM(C171,M171,N171)</f>
+        <f t="shared" si="12"/>
         <v>1210</v>
       </c>
       <c r="C171" s="4">
-        <f>SUM(D171:L171)</f>
+        <f t="shared" si="13"/>
         <v>330</v>
       </c>
       <c r="D171" s="4">
@@ -5774,35 +5735,35 @@
         <v>36.666666666666664</v>
       </c>
       <c r="E171" s="4">
-        <f t="shared" ref="E171:L171" si="11">$E$22</f>
+        <f t="shared" ref="E171:L171" si="16">$E$22</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F171" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.666666666666664</v>
       </c>
       <c r="G171" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.666666666666664</v>
       </c>
       <c r="H171" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.666666666666664</v>
       </c>
       <c r="I171" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.666666666666664</v>
       </c>
       <c r="J171" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.666666666666664</v>
       </c>
       <c r="K171" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.666666666666664</v>
       </c>
       <c r="L171" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.666666666666664</v>
       </c>
       <c r="M171" s="4">
@@ -5814,16 +5775,16 @@
         <v>440</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="94" t="s">
         <v>164</v>
       </c>
       <c r="B172" s="4">
-        <f>SUM(C172,M172,N172)</f>
+        <f t="shared" si="12"/>
         <v>19.2456</v>
       </c>
       <c r="C172" s="4">
-        <f>SUM(D172:L172)</f>
+        <f t="shared" si="13"/>
         <v>5.2488000000000001</v>
       </c>
       <c r="D172" s="4">
@@ -5831,35 +5792,35 @@
         <v>0.58320000000000005</v>
       </c>
       <c r="E172" s="4">
-        <f t="shared" ref="E172:L172" si="12">$D$32</f>
+        <f t="shared" ref="E172:L172" si="17">$D$32</f>
         <v>0.58320000000000005</v>
       </c>
       <c r="F172" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.58320000000000005</v>
       </c>
       <c r="G172" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.58320000000000005</v>
       </c>
       <c r="H172" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.58320000000000005</v>
       </c>
       <c r="I172" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.58320000000000005</v>
       </c>
       <c r="J172" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.58320000000000005</v>
       </c>
       <c r="K172" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.58320000000000005</v>
       </c>
       <c r="L172" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.58320000000000005</v>
       </c>
       <c r="M172" s="4">
@@ -5871,16 +5832,16 @@
         <v>6.9984000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="94" t="s">
         <v>165</v>
       </c>
       <c r="B173" s="4">
-        <f>SUM(C173,M173,N173)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C173" s="4">
-        <f>SUM(D173:L173)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D173" s="4">
@@ -5888,56 +5849,56 @@
         <v>0</v>
       </c>
       <c r="E173" s="4">
-        <f t="shared" ref="E173:N175" si="13">SUM(F173,P173,Q173)</f>
+        <f t="shared" ref="E173:N175" si="18">SUM(F173,P173,Q173)</f>
         <v>0</v>
       </c>
       <c r="F173" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G173" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H173" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I173" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J173" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K173" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L173" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M173" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N173" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="94" t="s">
         <v>166</v>
       </c>
       <c r="B174" s="4">
-        <f>SUM(C174,M174,N174)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C174" s="4">
-        <f>SUM(D174:L174)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D174" s="4">
@@ -5945,56 +5906,56 @@
         <v>0</v>
       </c>
       <c r="E174" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F174" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G174" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H174" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I174" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J174" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K174" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L174" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M174" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N174" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="94" t="s">
         <v>167</v>
       </c>
       <c r="B175" s="4">
-        <f>SUM(C175,M175,N175)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C175" s="4">
-        <f>SUM(D175:L175)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D175" s="4">
@@ -6002,95 +5963,92 @@
         <v>0</v>
       </c>
       <c r="E175" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F175" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G175" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H175" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I175" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J175" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K175" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L175" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M175" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N175" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="96" t="s">
         <v>168</v>
       </c>
       <c r="B176" s="15">
-        <f>SUM(C176,M176,N176)</f>
-        <v>99000</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="C176" s="4">
-        <f>SUM(D176:L176)</f>
-        <v>27000</v>
-      </c>
-      <c r="D176" s="15">
-        <v>3000</v>
-      </c>
-      <c r="E176" s="15">
-        <v>3000</v>
-      </c>
-      <c r="F176" s="15">
-        <v>3000</v>
-      </c>
-      <c r="G176" s="15">
-        <v>3000</v>
-      </c>
-      <c r="H176" s="15">
-        <v>3000</v>
-      </c>
-      <c r="I176" s="15">
-        <v>3000</v>
-      </c>
-      <c r="J176" s="15">
-        <v>3000</v>
-      </c>
-      <c r="K176" s="15">
-        <v>3000</v>
-      </c>
-      <c r="L176" s="15">
-        <v>3000</v>
-      </c>
-      <c r="M176" s="15">
-        <f>3000*12</f>
-        <v>36000</v>
-      </c>
-      <c r="N176" s="16">
-        <f>3000*12</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D176" s="4">
+        <v>0</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0</v>
+      </c>
+      <c r="F176" s="4">
+        <v>0</v>
+      </c>
+      <c r="G176" s="4">
+        <v>0</v>
+      </c>
+      <c r="H176" s="4">
+        <v>0</v>
+      </c>
+      <c r="I176" s="4">
+        <v>0</v>
+      </c>
+      <c r="J176" s="4">
+        <v>0</v>
+      </c>
+      <c r="K176" s="4">
+        <v>0</v>
+      </c>
+      <c r="L176" s="4">
+        <v>0</v>
+      </c>
+      <c r="M176" s="4">
+        <v>0</v>
+      </c>
+      <c r="N176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="27" t="s">
         <v>169</v>
       </c>
@@ -6111,744 +6069,567 @@
       <c r="P178" s="28"/>
       <c r="Q178" s="28"/>
     </row>
-    <row r="179" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="257" t="s">
+    <row r="179" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="221" t="s">
         <v>126</v>
       </c>
-      <c r="B179" s="257" t="s">
+      <c r="B179" s="221" t="s">
         <v>108</v>
       </c>
-      <c r="C179" s="257" t="s">
+      <c r="C179" s="221" t="s">
         <v>149</v>
       </c>
-      <c r="D179" s="257"/>
-      <c r="E179" s="257"/>
-      <c r="F179" s="257"/>
-      <c r="G179" s="257"/>
-      <c r="H179" s="257"/>
-      <c r="I179" s="257"/>
-      <c r="J179" s="257"/>
-      <c r="K179" s="257"/>
-      <c r="L179" s="257"/>
-      <c r="M179" s="257"/>
-      <c r="N179" s="257"/>
-      <c r="O179" s="257"/>
-      <c r="P179" s="257" t="s">
+      <c r="D179" s="221"/>
+      <c r="E179" s="221"/>
+      <c r="F179" s="221"/>
+      <c r="G179" s="221"/>
+      <c r="H179" s="221"/>
+      <c r="I179" s="221"/>
+      <c r="J179" s="221"/>
+      <c r="K179" s="221"/>
+      <c r="L179" s="221"/>
+      <c r="M179" s="221"/>
+      <c r="N179" s="221"/>
+      <c r="O179" s="221"/>
+      <c r="P179" s="221" t="s">
         <v>150</v>
       </c>
-      <c r="Q179" s="257" t="s">
+      <c r="Q179" s="221" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="257"/>
-      <c r="B180" s="257"/>
-      <c r="C180" s="258" t="s">
+    <row r="180" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="221"/>
+      <c r="B180" s="221"/>
+      <c r="C180" s="165" t="s">
         <v>170</v>
       </c>
-      <c r="D180" s="258" t="s">
+      <c r="D180" s="165" t="s">
         <v>171</v>
       </c>
-      <c r="E180" s="258" t="s">
+      <c r="E180" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="F180" s="258" t="s">
+      <c r="F180" s="165" t="s">
         <v>173</v>
       </c>
-      <c r="G180" s="258" t="s">
+      <c r="G180" s="165" t="s">
         <v>151</v>
       </c>
-      <c r="H180" s="258" t="s">
+      <c r="H180" s="165" t="s">
         <v>152</v>
       </c>
-      <c r="I180" s="258" t="s">
+      <c r="I180" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="J180" s="258" t="s">
+      <c r="J180" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="K180" s="258" t="s">
+      <c r="K180" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="L180" s="258" t="s">
+      <c r="L180" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="M180" s="258" t="s">
+      <c r="M180" s="165" t="s">
         <v>157</v>
       </c>
-      <c r="N180" s="258" t="s">
+      <c r="N180" s="165" t="s">
         <v>158</v>
       </c>
-      <c r="O180" s="258" t="s">
+      <c r="O180" s="165" t="s">
         <v>159</v>
       </c>
-      <c r="P180" s="257"/>
-      <c r="Q180" s="257"/>
-    </row>
-    <row r="181" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="250" t="s">
+      <c r="P180" s="221"/>
+      <c r="Q180" s="221"/>
+    </row>
+    <row r="181" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="158" t="s">
         <v>174</v>
       </c>
-      <c r="B181" s="258">
-        <f>SUM(C181,P181:Q181)</f>
-        <v>1062889.6556456001</v>
-      </c>
-      <c r="C181" s="258">
+      <c r="B181" s="165">
+        <f t="shared" ref="B181:B190" si="19">SUM(C181,P181:Q181)</f>
+        <v>1063572.1205984</v>
+      </c>
+      <c r="C181" s="165">
         <f>SUM(C182,C188)</f>
-        <v>346274.63510334544</v>
-      </c>
-      <c r="D181" s="258">
-        <f t="shared" ref="D181:Q181" si="14">SUM(D182,D188)</f>
+        <v>346582.54865454539</v>
+      </c>
+      <c r="D181" s="165">
+        <f ca="1">SUM(D182,D188)</f>
         <v>35067.040000000001</v>
       </c>
-      <c r="E181" s="258">
-        <f t="shared" si="14"/>
+      <c r="E181" s="165">
+        <f>SUM(E182,E188)</f>
         <v>35067.040000000001</v>
       </c>
-      <c r="F181" s="258">
-        <f t="shared" si="14"/>
+      <c r="F181" s="165">
+        <f ca="1">SUM(F182,F188)</f>
         <v>7409.9224000000004</v>
       </c>
-      <c r="G181" s="258">
-        <f t="shared" si="14"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="H181" s="258">
-        <f t="shared" si="14"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="I181" s="258">
-        <f t="shared" si="14"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="J181" s="258">
-        <f t="shared" si="14"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="K181" s="258">
-        <f t="shared" si="14"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="L181" s="258">
-        <f t="shared" si="14"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="M181" s="258">
-        <f t="shared" si="14"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="N181" s="258">
-        <f t="shared" si="14"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="O181" s="258">
-        <f t="shared" si="14"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="P181" s="258">
-        <f t="shared" si="14"/>
-        <v>358307.51027112728</v>
-      </c>
-      <c r="Q181" s="258">
-        <f t="shared" si="14"/>
-        <v>358307.51027112728</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="250" t="s">
+      <c r="G181" s="165">
+        <f>SUM(G182,G188)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="H181" s="165">
+        <f>SUM(H182,H188)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="I181" s="165">
+        <f>SUM(I182,I188)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="J181" s="165">
+        <f>SUM(J182,J188)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="K181" s="165">
+        <f>SUM(K182,K188)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="L181" s="165">
+        <f>SUM(L182,L188)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="M181" s="165">
+        <f>SUM(M182,M188)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="N181" s="165">
+        <f>SUM(N182,N188)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="O181" s="165">
+        <f>SUM(O182,O188)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="P181" s="165">
+        <f>SUM(P182,P188)</f>
+        <v>358718.06167272729</v>
+      </c>
+      <c r="Q181" s="165">
+        <f>SUM(Q182,Q188)</f>
+        <v>358271.51027112728</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="158" t="s">
         <v>175</v>
       </c>
-      <c r="B182" s="258">
-        <f>SUM(C182,P182:Q182)</f>
+      <c r="B182" s="165">
+        <f t="shared" si="19"/>
         <v>77544.002399999998</v>
       </c>
-      <c r="C182" s="258">
-        <f>SUM(D182:F182)</f>
+      <c r="C182" s="165">
+        <f t="shared" ref="C182" si="20">SUM(D182:F182)</f>
         <v>77544.002399999998</v>
       </c>
-      <c r="D182" s="258">
+      <c r="D182" s="165">
         <f>C136</f>
         <v>35067.040000000001</v>
       </c>
-      <c r="E182" s="258">
+      <c r="E182" s="165">
         <f>D136</f>
         <v>35067.040000000001</v>
       </c>
-      <c r="F182" s="258">
-        <f t="shared" ref="F182" si="15">E136</f>
+      <c r="F182" s="165">
+        <f t="shared" ref="F182" si="21">E136</f>
         <v>7409.9224000000004</v>
       </c>
-      <c r="G182" s="258">
-        <v>0</v>
-      </c>
-      <c r="H182" s="258">
-        <v>0</v>
-      </c>
-      <c r="I182" s="258">
-        <v>0</v>
-      </c>
-      <c r="J182" s="258">
-        <v>0</v>
-      </c>
-      <c r="K182" s="258">
-        <v>0</v>
-      </c>
-      <c r="L182" s="258">
-        <v>0</v>
-      </c>
-      <c r="M182" s="258">
-        <v>0</v>
-      </c>
-      <c r="N182" s="258">
-        <v>0</v>
-      </c>
-      <c r="O182" s="258">
-        <v>0</v>
-      </c>
-      <c r="P182" s="258">
-        <v>0</v>
-      </c>
-      <c r="Q182" s="258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="259" t="s">
+      <c r="G182" s="165">
+        <v>0</v>
+      </c>
+      <c r="H182" s="165">
+        <v>0</v>
+      </c>
+      <c r="I182" s="165">
+        <v>0</v>
+      </c>
+      <c r="J182" s="165">
+        <v>0</v>
+      </c>
+      <c r="K182" s="165">
+        <v>0</v>
+      </c>
+      <c r="L182" s="165">
+        <v>0</v>
+      </c>
+      <c r="M182" s="165">
+        <v>0</v>
+      </c>
+      <c r="N182" s="165">
+        <v>0</v>
+      </c>
+      <c r="O182" s="165">
+        <v>0</v>
+      </c>
+      <c r="P182" s="165">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="166"/>
+      <c r="B183" s="165"/>
+      <c r="C183" s="165"/>
+      <c r="D183" s="165"/>
+      <c r="E183" s="165"/>
+      <c r="F183" s="165"/>
+      <c r="G183" s="165"/>
+      <c r="H183" s="165"/>
+      <c r="I183" s="165"/>
+      <c r="J183" s="165"/>
+      <c r="K183" s="165"/>
+      <c r="L183" s="165"/>
+      <c r="M183" s="165"/>
+      <c r="N183" s="165"/>
+      <c r="O183" s="165"/>
+      <c r="P183" s="165"/>
+      <c r="Q183" s="165"/>
+    </row>
+    <row r="184" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="166"/>
+      <c r="B184" s="165"/>
+      <c r="C184" s="165"/>
+      <c r="D184" s="165"/>
+      <c r="E184" s="165"/>
+      <c r="F184" s="165"/>
+      <c r="G184" s="165"/>
+      <c r="H184" s="165"/>
+      <c r="I184" s="165"/>
+      <c r="J184" s="165"/>
+      <c r="K184" s="165"/>
+      <c r="L184" s="165"/>
+      <c r="M184" s="165"/>
+      <c r="N184" s="165"/>
+      <c r="O184" s="165"/>
+      <c r="P184" s="165"/>
+      <c r="Q184" s="165"/>
+    </row>
+    <row r="185" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="166"/>
+      <c r="B185" s="165"/>
+      <c r="C185" s="165"/>
+      <c r="D185" s="165"/>
+      <c r="E185" s="165"/>
+      <c r="F185" s="165"/>
+      <c r="G185" s="165"/>
+      <c r="H185" s="165"/>
+      <c r="I185" s="165"/>
+      <c r="J185" s="165"/>
+      <c r="K185" s="165"/>
+      <c r="L185" s="165"/>
+      <c r="M185" s="165"/>
+      <c r="N185" s="165"/>
+      <c r="O185" s="165"/>
+      <c r="P185" s="165"/>
+      <c r="Q185" s="165"/>
+    </row>
+    <row r="186" spans="1:17" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="166"/>
+      <c r="B186" s="165"/>
+      <c r="C186" s="165"/>
+      <c r="D186" s="165"/>
+      <c r="E186" s="165"/>
+      <c r="F186" s="165"/>
+      <c r="G186" s="165"/>
+      <c r="H186" s="165"/>
+      <c r="I186" s="165"/>
+      <c r="J186" s="165"/>
+      <c r="K186" s="165"/>
+      <c r="L186" s="165"/>
+      <c r="M186" s="165"/>
+      <c r="N186" s="165"/>
+      <c r="O186" s="165"/>
+      <c r="P186" s="165"/>
+      <c r="Q186" s="165"/>
+    </row>
+    <row r="187" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="188" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="158" t="s">
         <v>176</v>
       </c>
-      <c r="B183" s="258">
-        <f>SUM(C183,P183:Q183)</f>
-        <v>8052.0960000000005</v>
-      </c>
-      <c r="C183" s="258">
-        <f>SUM(D183:F183)</f>
-        <v>8052.0960000000005</v>
-      </c>
-      <c r="D183" s="258">
-        <f>C137</f>
-        <v>2756.6080000000002</v>
-      </c>
-      <c r="E183" s="258">
-        <f>D137</f>
-        <v>2756.6080000000002</v>
-      </c>
-      <c r="F183" s="258">
-        <f t="shared" ref="F183" si="16">E137</f>
-        <v>2538.88</v>
-      </c>
-      <c r="G183" s="258">
-        <v>0</v>
-      </c>
-      <c r="H183" s="258">
-        <v>0</v>
-      </c>
-      <c r="I183" s="258">
-        <v>0</v>
-      </c>
-      <c r="J183" s="258">
-        <v>0</v>
-      </c>
-      <c r="K183" s="258">
-        <v>0</v>
-      </c>
-      <c r="L183" s="258">
-        <v>0</v>
-      </c>
-      <c r="M183" s="258">
-        <v>0</v>
-      </c>
-      <c r="N183" s="258">
-        <v>0</v>
-      </c>
-      <c r="O183" s="258">
-        <v>0</v>
-      </c>
-      <c r="P183" s="258">
-        <v>0</v>
-      </c>
-      <c r="Q183" s="258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="259" t="s">
-        <v>248</v>
-      </c>
-      <c r="B184" s="258">
-        <f>SUM(C184,P184:Q184)</f>
-        <v>0</v>
-      </c>
-      <c r="C184" s="258">
-        <f>SUM(D184:F184)</f>
-        <v>0</v>
-      </c>
-      <c r="D184" s="258">
-        <f>C141</f>
-        <v>0</v>
-      </c>
-      <c r="E184" s="258">
-        <f>D141</f>
-        <v>0</v>
-      </c>
-      <c r="F184" s="258">
-        <f>E141</f>
-        <v>0</v>
-      </c>
-      <c r="G184" s="258">
-        <v>0</v>
-      </c>
-      <c r="H184" s="258">
-        <v>0</v>
-      </c>
-      <c r="I184" s="258">
-        <v>0</v>
-      </c>
-      <c r="J184" s="258">
-        <v>0</v>
-      </c>
-      <c r="K184" s="258">
-        <v>0</v>
-      </c>
-      <c r="L184" s="258">
-        <v>0</v>
-      </c>
-      <c r="M184" s="258">
-        <v>0</v>
-      </c>
-      <c r="N184" s="258">
-        <v>0</v>
-      </c>
-      <c r="O184" s="258">
-        <v>0</v>
-      </c>
-      <c r="P184" s="258">
-        <v>0</v>
-      </c>
-      <c r="Q184" s="258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="259" t="s">
+      <c r="B188" s="165">
+        <f t="shared" si="19"/>
+        <v>986028.1181983999</v>
+      </c>
+      <c r="C188" s="165">
+        <f>SUM(G188:O188)</f>
+        <v>269038.54625454539</v>
+      </c>
+      <c r="D188" s="167">
+        <f ca="1">SUM(D189:D194)</f>
+        <v>0</v>
+      </c>
+      <c r="E188" s="167">
+        <f>SUM(E189:E190)</f>
+        <v>0</v>
+      </c>
+      <c r="F188" s="167">
+        <f ca="1">SUM(F189:F194)</f>
+        <v>0</v>
+      </c>
+      <c r="G188" s="167">
+        <f>SUM(G189:G190)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="H188" s="167">
+        <f>SUM(H189:H190)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="I188" s="167">
+        <f t="shared" ref="I188:P188" si="22">SUM(I189:I190)</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="J188" s="167">
+        <f t="shared" si="22"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="K188" s="167">
+        <f t="shared" si="22"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="L188" s="167">
+        <f t="shared" si="22"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="M188" s="167">
+        <f t="shared" si="22"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="N188" s="167">
+        <f t="shared" si="22"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="O188" s="167">
+        <f t="shared" si="22"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="P188" s="167">
+        <f t="shared" si="22"/>
+        <v>358718.06167272729</v>
+      </c>
+      <c r="Q188" s="167">
+        <f>SUM(Q189:Q190)</f>
+        <v>358271.51027112728</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="158" t="s">
         <v>177</v>
       </c>
-      <c r="B185" s="258">
-        <f>SUM(C185,P185:Q185)</f>
-        <v>0</v>
-      </c>
-      <c r="C185" s="258">
-        <f>SUM(D185:F185)</f>
-        <v>0</v>
-      </c>
-      <c r="D185" s="258">
-        <f t="shared" ref="D185:Q187" si="17">C144</f>
-        <v>0</v>
-      </c>
-      <c r="E185" s="258">
-        <f>D144</f>
-        <v>0</v>
-      </c>
-      <c r="F185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q185" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="259" t="s">
-        <v>178</v>
-      </c>
-      <c r="B186" s="258">
-        <f>SUM(C186,P186:Q186)</f>
-        <v>69491.906400000007</v>
-      </c>
-      <c r="C186" s="258">
-        <f>SUM(D186:F186)</f>
-        <v>69491.906400000007</v>
-      </c>
-      <c r="D186" s="258">
-        <f>C146</f>
-        <v>32310.432000000001</v>
-      </c>
-      <c r="E186" s="258">
-        <f>D146</f>
-        <v>32310.432000000001</v>
-      </c>
-      <c r="F186" s="258">
-        <f t="shared" ref="F186" si="18">E146</f>
-        <v>4871.0424000000003</v>
-      </c>
-      <c r="G186" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H186" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I186" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J186" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K186" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L186" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M186" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N186" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O186" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P186" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q186" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="259" t="s">
-        <v>179</v>
-      </c>
-      <c r="B187" s="258">
-        <f>SUM(C187,P187:Q187)</f>
-        <v>1800</v>
-      </c>
-      <c r="C187" s="258">
-        <f>SUM(D187:F187)</f>
-        <v>1800</v>
-      </c>
-      <c r="D187" s="258">
-        <f>C148</f>
-        <v>600</v>
-      </c>
-      <c r="E187" s="258">
-        <f>D148</f>
-        <v>600</v>
-      </c>
-      <c r="F187" s="258">
-        <f t="shared" ref="F187" si="19">E148</f>
-        <v>600</v>
-      </c>
-      <c r="G187" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H187" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I187" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J187" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K187" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L187" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M187" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N187" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O187" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P187" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q187" s="258">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="250" t="s">
-        <v>180</v>
-      </c>
-      <c r="B188" s="258">
-        <f>SUM(C188,P188:Q188)</f>
-        <v>985345.65324559994</v>
-      </c>
-      <c r="C188" s="258">
-        <f>SUM(G188:O188)</f>
-        <v>268730.63270334544</v>
-      </c>
-      <c r="D188" s="260">
-        <f>SUM(D189:D194)</f>
-        <v>0</v>
-      </c>
-      <c r="E188" s="260">
-        <f>SUM(E189:E194)</f>
-        <v>0</v>
-      </c>
-      <c r="F188" s="260">
-        <f>SUM(F189:F194)</f>
-        <v>0</v>
-      </c>
-      <c r="G188" s="260">
-        <f>SUM(G189:G190)</f>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="H188" s="260">
-        <f>SUM(H189:H190)</f>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="I188" s="260">
-        <f t="shared" ref="I188:P188" si="20">SUM(I189:I190)</f>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="J188" s="260">
-        <f t="shared" si="20"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="K188" s="260">
-        <f t="shared" si="20"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="L188" s="260">
-        <f t="shared" si="20"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="M188" s="260">
-        <f t="shared" si="20"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="N188" s="260">
-        <f t="shared" si="20"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="O188" s="260">
-        <f t="shared" si="20"/>
-        <v>29858.959189260608</v>
-      </c>
-      <c r="P188" s="260">
-        <f t="shared" si="20"/>
-        <v>358307.51027112728</v>
-      </c>
-      <c r="Q188" s="260">
-        <f>SUM(Q189:Q190)</f>
-        <v>358307.51027112728</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="250" t="s">
-        <v>181</v>
-      </c>
-      <c r="B189" s="258">
-        <f>SUM(C189,P189:Q189)</f>
+      <c r="B189" s="165">
+        <f t="shared" si="19"/>
         <v>985245.42400000012</v>
       </c>
-      <c r="C189" s="258">
+      <c r="C189" s="165">
         <f>SUM(G189:O189)</f>
         <v>268703.29745454551</v>
       </c>
-      <c r="D189" s="258">
-        <v>0</v>
-      </c>
-      <c r="E189" s="258">
-        <v>0</v>
-      </c>
-      <c r="F189" s="258">
-        <v>0</v>
-      </c>
-      <c r="G189" s="260">
+      <c r="D189" s="165">
+        <v>0</v>
+      </c>
+      <c r="E189" s="165">
+        <v>0</v>
+      </c>
+      <c r="F189" s="165">
+        <v>0</v>
+      </c>
+      <c r="G189" s="167">
         <f>D154</f>
         <v>29855.921939393942</v>
       </c>
-      <c r="H189" s="260">
+      <c r="H189" s="167">
         <f>E154</f>
         <v>29855.921939393942</v>
       </c>
-      <c r="I189" s="260">
-        <f t="shared" ref="I189:O189" si="21">F154</f>
+      <c r="I189" s="167">
+        <f>F154</f>
         <v>29855.921939393942</v>
       </c>
-      <c r="J189" s="260">
-        <f t="shared" si="21"/>
+      <c r="J189" s="167">
+        <f>G154</f>
         <v>29855.921939393942</v>
       </c>
-      <c r="K189" s="260">
-        <f t="shared" si="21"/>
+      <c r="K189" s="167">
+        <f>H154</f>
         <v>29855.921939393942</v>
       </c>
-      <c r="L189" s="260">
-        <f t="shared" si="21"/>
+      <c r="L189" s="167">
+        <f>I154</f>
         <v>29855.921939393942</v>
       </c>
-      <c r="M189" s="260">
-        <f t="shared" si="21"/>
+      <c r="M189" s="167">
+        <f>J154</f>
         <v>29855.921939393942</v>
       </c>
-      <c r="N189" s="260">
-        <f t="shared" si="21"/>
+      <c r="N189" s="167">
+        <f>K154</f>
         <v>29855.921939393942</v>
       </c>
-      <c r="O189" s="260">
-        <f t="shared" si="21"/>
+      <c r="O189" s="167">
+        <f>L154</f>
         <v>29855.921939393942</v>
       </c>
-      <c r="P189" s="260">
+      <c r="P189" s="167">
         <f>M154</f>
         <v>358271.0632727273</v>
       </c>
-      <c r="Q189" s="260">
+      <c r="Q189" s="167">
         <f>N154</f>
         <v>358271.0632727273</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="250" t="s">
-        <v>182</v>
-      </c>
-      <c r="B190" s="258">
-        <f>SUM(C190,P190:Q190)</f>
-        <v>100.2292456</v>
-      </c>
-      <c r="C190" s="258">
+    <row r="190" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="158" t="s">
+        <v>178</v>
+      </c>
+      <c r="B190" s="165">
+        <f t="shared" si="19"/>
+        <v>782.6941984</v>
+      </c>
+      <c r="C190" s="165">
         <f>SUM(D190:O190)</f>
-        <v>27.335248799999999</v>
-      </c>
-      <c r="D190" s="258">
-        <v>0</v>
-      </c>
-      <c r="E190" s="258">
-        <v>0</v>
-      </c>
-      <c r="F190" s="258">
-        <v>0</v>
-      </c>
-      <c r="G190" s="260">
-        <f>D168</f>
-        <v>3.0372498666666665</v>
-      </c>
-      <c r="H190" s="260">
-        <f>E168</f>
-        <v>3.0372498666666665</v>
-      </c>
-      <c r="I190" s="260">
-        <f t="shared" ref="I190:Q190" si="22">F168</f>
-        <v>3.0372498666666665</v>
-      </c>
-      <c r="J190" s="260">
-        <f t="shared" si="22"/>
-        <v>3.0372498666666665</v>
-      </c>
-      <c r="K190" s="260">
-        <f t="shared" si="22"/>
-        <v>3.0372498666666665</v>
-      </c>
-      <c r="L190" s="260">
-        <f t="shared" si="22"/>
-        <v>3.0372498666666665</v>
-      </c>
-      <c r="M190" s="260">
-        <f t="shared" si="22"/>
-        <v>3.0372498666666665</v>
-      </c>
-      <c r="N190" s="260">
-        <f t="shared" si="22"/>
-        <v>3.0372498666666665</v>
-      </c>
-      <c r="O190" s="260">
-        <f t="shared" si="22"/>
-        <v>3.0372498666666665</v>
-      </c>
-      <c r="P190" s="260">
-        <f>M168</f>
-        <v>36.446998399999998</v>
-      </c>
-      <c r="Q190" s="260">
-        <f t="shared" si="22"/>
-        <v>36.446998399999998</v>
+        <v>335.24879999999996</v>
+      </c>
+      <c r="D190" s="165">
+        <v>0</v>
+      </c>
+      <c r="E190" s="165">
+        <v>0</v>
+      </c>
+      <c r="F190" s="165">
+        <v>0</v>
+      </c>
+      <c r="G190" s="167">
+        <f>D169</f>
+        <v>37.249866666666662</v>
+      </c>
+      <c r="H190" s="167">
+        <f t="shared" ref="H190:P190" si="23">E169</f>
+        <v>37.249866666666662</v>
+      </c>
+      <c r="I190" s="167">
+        <f t="shared" si="23"/>
+        <v>37.249866666666662</v>
+      </c>
+      <c r="J190" s="167">
+        <f t="shared" si="23"/>
+        <v>37.249866666666662</v>
+      </c>
+      <c r="K190" s="167">
+        <f t="shared" si="23"/>
+        <v>37.249866666666662</v>
+      </c>
+      <c r="L190" s="167">
+        <f t="shared" si="23"/>
+        <v>37.249866666666662</v>
+      </c>
+      <c r="M190" s="167">
+        <f t="shared" si="23"/>
+        <v>37.249866666666662</v>
+      </c>
+      <c r="N190" s="167">
+        <f t="shared" si="23"/>
+        <v>37.249866666666662</v>
+      </c>
+      <c r="O190" s="167">
+        <f t="shared" si="23"/>
+        <v>37.249866666666662</v>
+      </c>
+      <c r="P190" s="167">
+        <f t="shared" si="23"/>
+        <v>446.9984</v>
+      </c>
+      <c r="Q190" s="167">
+        <f>N168</f>
+        <v>0.44699840000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="166" t="s">
+        <v>245</v>
+      </c>
+      <c r="B191" s="165">
+        <f>B181/10</f>
+        <v>106357.21205984001</v>
+      </c>
+      <c r="C191" s="165">
+        <f t="shared" ref="C191:H191" si="24">C181/10</f>
+        <v>34658.254865454539</v>
+      </c>
+      <c r="D191" s="165">
+        <f t="shared" ca="1" si="24"/>
+        <v>3506.7040000000002</v>
+      </c>
+      <c r="E191" s="165">
+        <f t="shared" si="24"/>
+        <v>3506.7040000000002</v>
+      </c>
+      <c r="F191" s="165">
+        <f t="shared" ca="1" si="24"/>
+        <v>740.99224000000004</v>
+      </c>
+      <c r="G191" s="165">
+        <f t="shared" si="24"/>
+        <v>2989.3171806060609</v>
+      </c>
+      <c r="H191" s="165">
+        <f t="shared" si="24"/>
+        <v>2989.3171806060609</v>
+      </c>
+      <c r="I191" s="165">
+        <f t="shared" ref="I191" si="25">I181/10</f>
+        <v>2989.3171806060609</v>
+      </c>
+      <c r="J191" s="165">
+        <f>J181/10</f>
+        <v>2989.3171806060609</v>
+      </c>
+      <c r="K191" s="165">
+        <f>K181/10</f>
+        <v>2989.3171806060609</v>
+      </c>
+      <c r="L191" s="165">
+        <f>L181/10</f>
+        <v>2989.3171806060609</v>
+      </c>
+      <c r="M191" s="165">
+        <f>M181/10</f>
+        <v>2989.3171806060609</v>
+      </c>
+      <c r="N191" s="165">
+        <f>N181/10</f>
+        <v>2989.3171806060609</v>
+      </c>
+      <c r="O191" s="165">
+        <f>O181/10</f>
+        <v>2989.3171806060609</v>
+      </c>
+      <c r="P191" s="165">
+        <f>P181/10</f>
+        <v>35871.806167272727</v>
+      </c>
+      <c r="Q191" s="165">
+        <f>Q181/10</f>
+        <v>35827.151027112726</v>
       </c>
     </row>
     <row r="192" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="188" t="s">
-        <v>244</v>
-      </c>
-      <c r="B192" s="188"/>
-      <c r="C192" s="188"/>
-      <c r="D192" s="188"/>
-      <c r="E192" s="188"/>
-      <c r="F192" s="188"/>
-    </row>
-    <row r="194" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="222" t="s">
+        <v>236</v>
+      </c>
+      <c r="B192" s="222"/>
+      <c r="C192" s="222"/>
+      <c r="D192" s="222"/>
+      <c r="E192" s="222"/>
+      <c r="F192" s="222"/>
+    </row>
+    <row r="194" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
@@ -6857,34 +6638,34 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="98"/>
-      <c r="B195" s="189" t="s">
-        <v>184</v>
-      </c>
-      <c r="C195" s="191" t="s">
+      <c r="B195" s="223" t="s">
+        <v>180</v>
+      </c>
+      <c r="C195" s="225" t="s">
         <v>94</v>
       </c>
-      <c r="D195" s="192"/>
-      <c r="E195" s="193"/>
-    </row>
-    <row r="196" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D195" s="226"/>
+      <c r="E195" s="227"/>
+    </row>
+    <row r="196" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="99"/>
-      <c r="B196" s="190"/>
+      <c r="B196" s="224"/>
       <c r="C196" s="74" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D196" s="74" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E196" s="100" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="101" t="s">
-        <v>188</v>
-      </c>
-      <c r="B197" s="189" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="B197" s="223" t="s">
+        <v>187</v>
       </c>
       <c r="C197" s="97">
         <v>16</v>
@@ -6898,11 +6679,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="B198" s="190"/>
+        <v>185</v>
+      </c>
+      <c r="B198" s="224"/>
       <c r="C198" s="74">
         <f>C197*C109</f>
         <v>160</v>
@@ -6917,85 +6698,85 @@
       </c>
     </row>
     <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="188" t="s">
-        <v>223</v>
-      </c>
-      <c r="B199" s="188"/>
-      <c r="C199" s="188"/>
-      <c r="D199" s="188"/>
-      <c r="E199" s="188"/>
-      <c r="F199" s="188"/>
-      <c r="G199" s="188"/>
-      <c r="H199" s="188"/>
-      <c r="I199" s="188"/>
+      <c r="A199" s="222" t="s">
+        <v>215</v>
+      </c>
+      <c r="B199" s="222"/>
+      <c r="C199" s="222"/>
+      <c r="D199" s="222"/>
+      <c r="E199" s="222"/>
+      <c r="F199" s="222"/>
+      <c r="G199" s="222"/>
+      <c r="H199" s="222"/>
+      <c r="I199" s="222"/>
     </row>
     <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="188"/>
-      <c r="B200" s="188"/>
-      <c r="C200" s="188"/>
-      <c r="D200" s="188"/>
-      <c r="E200" s="188"/>
-      <c r="F200" s="188"/>
-      <c r="G200" s="188"/>
-      <c r="H200" s="188"/>
-      <c r="I200" s="188"/>
+      <c r="A200" s="222"/>
+      <c r="B200" s="222"/>
+      <c r="C200" s="222"/>
+      <c r="D200" s="222"/>
+      <c r="E200" s="222"/>
+      <c r="F200" s="222"/>
+      <c r="G200" s="222"/>
+      <c r="H200" s="222"/>
+      <c r="I200" s="222"/>
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="188"/>
-      <c r="B201" s="188"/>
-      <c r="C201" s="188"/>
-      <c r="D201" s="188"/>
-      <c r="E201" s="188"/>
-      <c r="F201" s="188"/>
-      <c r="G201" s="188"/>
-      <c r="H201" s="188"/>
-      <c r="I201" s="188"/>
+      <c r="A201" s="222"/>
+      <c r="B201" s="222"/>
+      <c r="C201" s="222"/>
+      <c r="D201" s="222"/>
+      <c r="E201" s="222"/>
+      <c r="F201" s="222"/>
+      <c r="G201" s="222"/>
+      <c r="H201" s="222"/>
+      <c r="I201" s="222"/>
     </row>
     <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="188"/>
-      <c r="B202" s="188"/>
-      <c r="C202" s="188"/>
-      <c r="D202" s="188"/>
-      <c r="E202" s="188"/>
-      <c r="F202" s="188"/>
-      <c r="G202" s="188"/>
-      <c r="H202" s="188"/>
-      <c r="I202" s="188"/>
+      <c r="A202" s="222"/>
+      <c r="B202" s="222"/>
+      <c r="C202" s="222"/>
+      <c r="D202" s="222"/>
+      <c r="E202" s="222"/>
+      <c r="F202" s="222"/>
+      <c r="G202" s="222"/>
+      <c r="H202" s="222"/>
+      <c r="I202" s="222"/>
     </row>
     <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="188"/>
-      <c r="B203" s="188"/>
-      <c r="C203" s="188"/>
-      <c r="D203" s="188"/>
-      <c r="E203" s="188"/>
-      <c r="F203" s="188"/>
-      <c r="G203" s="188"/>
-      <c r="H203" s="188"/>
-      <c r="I203" s="188"/>
-    </row>
-    <row r="205" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="222"/>
+      <c r="B203" s="222"/>
+      <c r="C203" s="222"/>
+      <c r="D203" s="222"/>
+      <c r="E203" s="222"/>
+      <c r="F203" s="222"/>
+      <c r="G203" s="222"/>
+      <c r="H203" s="222"/>
+      <c r="I203" s="222"/>
+    </row>
+    <row r="205" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="104" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B206" s="105" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C206" s="106" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D206" s="106" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E206" s="107" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="108">
         <f>E198</f>
         <v>80</v>
@@ -7017,156 +6798,150 @@
         <v>18181.818181818184</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="27" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
       <c r="D209" s="28"/>
     </row>
-    <row r="210" spans="1:18" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="111" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B210" s="112" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C210" s="76" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D210" s="77" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="101" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B211" s="113">
         <f>G217</f>
-        <v>4200</v>
+        <v>8136.3636363636369</v>
       </c>
       <c r="C211" s="114">
         <f xml:space="preserve"> B211 * 0.5</f>
-        <v>2100</v>
+        <v>4068.1818181818185</v>
       </c>
       <c r="D211" s="115">
         <f>C211-B211</f>
-        <v>-2100</v>
+        <v>-4068.1818181818185</v>
       </c>
       <c r="F211" s="151" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="G211" s="116" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="103" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B212" s="117">
         <f>B211*10</f>
-        <v>42000</v>
+        <v>81363.636363636368</v>
       </c>
       <c r="C212" s="117">
         <f>ROUND(C211 * 10, 12)</f>
-        <v>21000</v>
+        <v>40681.818181818198</v>
       </c>
       <c r="D212" s="118">
         <f>C212-B212</f>
-        <v>-21000</v>
-      </c>
-      <c r="F212" s="151" t="s">
+        <v>-40681.818181818169</v>
+      </c>
+      <c r="F212" s="151"/>
+      <c r="G212" s="116"/>
+    </row>
+    <row r="213" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="G212" s="116">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="85" t="s">
+      <c r="B213" s="228">
+        <f>D212*12</f>
+        <v>-488181.818181818</v>
+      </c>
+      <c r="C213" s="229"/>
+      <c r="D213" s="230"/>
+      <c r="F213" s="151" t="s">
         <v>203</v>
       </c>
-      <c r="B213" s="179">
-        <f>D212*12</f>
-        <v>-252000</v>
-      </c>
-      <c r="C213" s="180"/>
-      <c r="D213" s="181"/>
-      <c r="F213" s="151" t="s">
-        <v>209</v>
-      </c>
       <c r="G213" s="116">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" ht="41.4" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="F214" s="151" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G214" s="116">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+        <f>C207 *27</f>
+        <v>6136.3636363636369</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="27" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
       <c r="F215" s="151" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="G215" s="116">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> 0.5 * 4  * 500</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="119" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B216" s="120" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C216" s="121" t="s">
-        <v>196</v>
-      </c>
-      <c r="F216" s="151" t="s">
-        <v>212</v>
-      </c>
-      <c r="G216" s="116">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="F216" s="151"/>
+      <c r="G216" s="116"/>
+    </row>
+    <row r="217" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="122">
         <f>D207</f>
         <v>218181.81818181821</v>
       </c>
       <c r="B217" s="123">
         <f>-B213</f>
-        <v>252000</v>
+        <v>488181.818181818</v>
       </c>
       <c r="C217" s="124">
         <f>A217+B217</f>
-        <v>470181.81818181823</v>
+        <v>706363.63636363624</v>
       </c>
       <c r="F217" s="25" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G217" s="26">
         <f>SUM(G212:G216)</f>
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8136.3636363636369</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="125" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B220" s="126"/>
       <c r="C220" s="126"/>
@@ -7187,39 +6962,39 @@
       <c r="R220" s="126"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" s="182" t="s">
+      <c r="A221" s="231" t="s">
         <v>126</v>
       </c>
-      <c r="B221" s="166"/>
-      <c r="C221" s="152" t="s">
+      <c r="B221" s="232"/>
+      <c r="C221" s="235" t="s">
         <v>108</v>
       </c>
-      <c r="D221" s="185" t="s">
+      <c r="D221" s="237" t="s">
         <v>149</v>
       </c>
-      <c r="E221" s="186"/>
-      <c r="F221" s="186"/>
-      <c r="G221" s="186"/>
-      <c r="H221" s="186"/>
-      <c r="I221" s="186"/>
-      <c r="J221" s="186"/>
-      <c r="K221" s="186"/>
-      <c r="L221" s="186"/>
-      <c r="M221" s="186"/>
-      <c r="N221" s="186"/>
-      <c r="O221" s="186"/>
-      <c r="P221" s="187"/>
-      <c r="Q221" s="152" t="s">
+      <c r="E221" s="238"/>
+      <c r="F221" s="238"/>
+      <c r="G221" s="238"/>
+      <c r="H221" s="238"/>
+      <c r="I221" s="238"/>
+      <c r="J221" s="238"/>
+      <c r="K221" s="238"/>
+      <c r="L221" s="238"/>
+      <c r="M221" s="238"/>
+      <c r="N221" s="238"/>
+      <c r="O221" s="238"/>
+      <c r="P221" s="239"/>
+      <c r="Q221" s="235" t="s">
         <v>150</v>
       </c>
-      <c r="R221" s="155" t="s">
+      <c r="R221" s="240" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="183"/>
-      <c r="B222" s="184"/>
-      <c r="C222" s="161"/>
+    <row r="222" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="233"/>
+      <c r="B222" s="234"/>
+      <c r="C222" s="236"/>
       <c r="D222" s="127" t="s">
         <v>170</v>
       </c>
@@ -7259,21 +7034,21 @@
       <c r="P222" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="Q222" s="161"/>
-      <c r="R222" s="176"/>
+      <c r="Q222" s="236"/>
+      <c r="R222" s="241"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A223" s="177" t="s">
-        <v>216</v>
-      </c>
-      <c r="B223" s="178"/>
+      <c r="A223" s="170" t="s">
+        <v>208</v>
+      </c>
+      <c r="B223" s="171"/>
       <c r="C223" s="128">
         <f>SUM(D223,Q223,R223)</f>
-        <v>1293000</v>
+        <v>1942499.9999999995</v>
       </c>
       <c r="D223" s="128">
-        <f t="shared" ref="D223:D229" si="23">SUM(E223:P223)</f>
-        <v>352636.36363636365</v>
+        <f t="shared" ref="D223:D229" si="26">SUM(E223:P223)</f>
+        <v>529772.72727272718</v>
       </c>
       <c r="E223" s="128">
         <v>0</v>
@@ -7286,60 +7061,60 @@
       </c>
       <c r="H223" s="128">
         <f>SUM(H224:H225)</f>
-        <v>39181.818181818184</v>
+        <v>58863.636363636353</v>
       </c>
       <c r="I223" s="128">
-        <f t="shared" ref="I223:N223" si="24">SUM(I224:I225)</f>
-        <v>39181.818181818184</v>
+        <f t="shared" ref="I223:N223" si="27">SUM(I224:I225)</f>
+        <v>58863.636363636353</v>
       </c>
       <c r="J223" s="128">
-        <f t="shared" si="24"/>
-        <v>39181.818181818184</v>
+        <f t="shared" si="27"/>
+        <v>58863.636363636353</v>
       </c>
       <c r="K223" s="128">
         <f>SUM(K224:K225)</f>
-        <v>39181.818181818184</v>
+        <v>58863.636363636353</v>
       </c>
       <c r="L223" s="128">
-        <f t="shared" si="24"/>
-        <v>39181.818181818184</v>
+        <f t="shared" si="27"/>
+        <v>58863.636363636353</v>
       </c>
       <c r="M223" s="128">
-        <f t="shared" si="24"/>
-        <v>39181.818181818184</v>
+        <f t="shared" si="27"/>
+        <v>58863.636363636353</v>
       </c>
       <c r="N223" s="128">
-        <f t="shared" si="24"/>
-        <v>39181.818181818184</v>
+        <f t="shared" si="27"/>
+        <v>58863.636363636353</v>
       </c>
       <c r="O223" s="128">
         <f>SUM(O224:O225)</f>
-        <v>39181.818181818184</v>
+        <v>58863.636363636353</v>
       </c>
       <c r="P223" s="128">
         <f>SUM(P224:P225)</f>
-        <v>39181.818181818184</v>
+        <v>58863.636363636353</v>
       </c>
       <c r="Q223" s="128">
         <f>SUM(Q224:Q225)</f>
-        <v>470181.81818181823</v>
+        <v>706363.63636363624</v>
       </c>
       <c r="R223" s="129">
         <f>SUM(R224:R225)</f>
-        <v>470181.81818181823</v>
+        <v>706363.63636363624</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A224" s="170" t="s">
-        <v>217</v>
-      </c>
-      <c r="B224" s="171"/>
+      <c r="A224" s="168" t="s">
+        <v>209</v>
+      </c>
+      <c r="B224" s="169"/>
       <c r="C224" s="130">
         <f>SUM(D224,Q224,R224)</f>
         <v>600000</v>
       </c>
       <c r="D224" s="130">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>163636.36363636362</v>
       </c>
       <c r="E224" s="131">
@@ -7356,35 +7131,35 @@
         <v>18181.818181818184</v>
       </c>
       <c r="I224" s="131">
-        <f t="shared" ref="I224:P224" si="25">$E$207</f>
+        <f t="shared" ref="I224:P224" si="28">$E$207</f>
         <v>18181.818181818184</v>
       </c>
       <c r="J224" s="131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18181.818181818184</v>
       </c>
       <c r="K224" s="131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18181.818181818184</v>
       </c>
       <c r="L224" s="131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18181.818181818184</v>
       </c>
       <c r="M224" s="131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18181.818181818184</v>
       </c>
       <c r="N224" s="131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18181.818181818184</v>
       </c>
       <c r="O224" s="131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18181.818181818184</v>
       </c>
       <c r="P224" s="131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18181.818181818184</v>
       </c>
       <c r="Q224" s="1">
@@ -7397,17 +7172,17 @@
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A225" s="170" t="s">
-        <v>218</v>
-      </c>
-      <c r="B225" s="171"/>
+      <c r="A225" s="168" t="s">
+        <v>210</v>
+      </c>
+      <c r="B225" s="169"/>
       <c r="C225" s="130">
         <f>SUM(D225,Q225,R225)</f>
-        <v>693000</v>
+        <v>1342499.9999999995</v>
       </c>
       <c r="D225" s="130">
-        <f t="shared" si="23"/>
-        <v>189000</v>
+        <f t="shared" si="26"/>
+        <v>366136.36363636353</v>
       </c>
       <c r="E225" s="131">
         <v>0</v>
@@ -7420,124 +7195,124 @@
       </c>
       <c r="H225" s="1">
         <f>-$D$212</f>
-        <v>21000</v>
+        <v>40681.818181818169</v>
       </c>
       <c r="I225" s="1">
-        <f t="shared" ref="I225:P225" si="26">-$D$212</f>
-        <v>21000</v>
+        <f t="shared" ref="I225:P225" si="29">-$D$212</f>
+        <v>40681.818181818169</v>
       </c>
       <c r="J225" s="1">
-        <f t="shared" si="26"/>
-        <v>21000</v>
+        <f t="shared" si="29"/>
+        <v>40681.818181818169</v>
       </c>
       <c r="K225" s="1">
-        <f t="shared" si="26"/>
-        <v>21000</v>
+        <f t="shared" si="29"/>
+        <v>40681.818181818169</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="26"/>
-        <v>21000</v>
+        <f t="shared" si="29"/>
+        <v>40681.818181818169</v>
       </c>
       <c r="M225" s="1">
-        <f t="shared" si="26"/>
-        <v>21000</v>
+        <f t="shared" si="29"/>
+        <v>40681.818181818169</v>
       </c>
       <c r="N225" s="1">
-        <f t="shared" si="26"/>
-        <v>21000</v>
+        <f t="shared" si="29"/>
+        <v>40681.818181818169</v>
       </c>
       <c r="O225" s="1">
-        <f t="shared" si="26"/>
-        <v>21000</v>
+        <f t="shared" si="29"/>
+        <v>40681.818181818169</v>
       </c>
       <c r="P225" s="1">
-        <f t="shared" si="26"/>
-        <v>21000</v>
+        <f t="shared" si="29"/>
+        <v>40681.818181818169</v>
       </c>
       <c r="Q225" s="1">
         <f>B217</f>
-        <v>252000</v>
+        <v>488181.818181818</v>
       </c>
       <c r="R225" s="1">
         <f>B217</f>
-        <v>252000</v>
+        <v>488181.818181818</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A226" s="170" t="s">
-        <v>219</v>
-      </c>
-      <c r="B226" s="171"/>
+      <c r="A226" s="168" t="s">
+        <v>211</v>
+      </c>
+      <c r="B226" s="169"/>
       <c r="C226" s="130">
-        <f>SUM(D226,Q226,R226)</f>
-        <v>1062889.6556456001</v>
+        <f ca="1">SUM(D226,Q226,R226)</f>
+        <v>1064018.672</v>
       </c>
       <c r="D226" s="130">
-        <f>SUM(E226:P226)</f>
-        <v>346274.6351033455</v>
+        <f ca="1">SUM(E226:P226)</f>
+        <v>346582.54865454539</v>
       </c>
       <c r="E226" s="131">
-        <f>SUM(E227:E228)</f>
+        <f ca="1">SUM(E227:E228)</f>
         <v>35067.040000000001</v>
       </c>
       <c r="F226" s="131">
-        <f t="shared" ref="F226:R226" si="27">SUM(F227:F228)</f>
+        <f t="shared" ref="F226:R226" si="30">SUM(F227:F228)</f>
         <v>35067.040000000001</v>
       </c>
       <c r="G226" s="131">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="30"/>
         <v>7409.9224000000004</v>
       </c>
       <c r="H226" s="131">
-        <f t="shared" si="27"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="30"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="I226" s="131">
-        <f t="shared" si="27"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="30"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="J226" s="131">
-        <f t="shared" si="27"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="30"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="K226" s="131">
-        <f t="shared" si="27"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="30"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="L226" s="131">
-        <f t="shared" si="27"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="30"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="M226" s="131">
-        <f t="shared" si="27"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="30"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="N226" s="131">
-        <f t="shared" si="27"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="30"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="O226" s="131">
-        <f t="shared" si="27"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="30"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="P226" s="131">
-        <f t="shared" si="27"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="30"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="Q226" s="131">
         <f>SUM(Q227:Q228)</f>
-        <v>358307.51027112728</v>
+        <v>358718.06167272729</v>
       </c>
       <c r="R226" s="132">
-        <f t="shared" si="27"/>
-        <v>358307.51027112728</v>
+        <f t="shared" si="30"/>
+        <v>358271.51027112728</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A227" s="170" t="s">
-        <v>220</v>
-      </c>
-      <c r="B227" s="171"/>
+      <c r="A227" s="168" t="s">
+        <v>212</v>
+      </c>
+      <c r="B227" s="169"/>
       <c r="C227" s="130">
         <f>SUM(D227,Q227,R227)</f>
         <v>77544.002399999998</v>
@@ -7551,201 +7326,201 @@
         <v>35067.040000000001</v>
       </c>
       <c r="F227" s="131">
-        <f t="shared" ref="F227:G227" si="28">E182</f>
+        <f>E182</f>
         <v>35067.040000000001</v>
       </c>
       <c r="G227" s="131">
-        <f t="shared" si="28"/>
+        <f>F182</f>
         <v>7409.9224000000004</v>
       </c>
       <c r="H227" s="131">
-        <f t="shared" ref="H227:R227" si="29">G186</f>
+        <f>G186</f>
         <v>0</v>
       </c>
       <c r="I227" s="131">
-        <f t="shared" si="29"/>
+        <f>H186</f>
         <v>0</v>
       </c>
       <c r="J227" s="131">
-        <f t="shared" si="29"/>
+        <f>I186</f>
         <v>0</v>
       </c>
       <c r="K227" s="131">
-        <f t="shared" si="29"/>
+        <f>J186</f>
         <v>0</v>
       </c>
       <c r="L227" s="131">
-        <f t="shared" si="29"/>
+        <f>K186</f>
         <v>0</v>
       </c>
       <c r="M227" s="131">
-        <f t="shared" si="29"/>
+        <f>L186</f>
         <v>0</v>
       </c>
       <c r="N227" s="131">
-        <f t="shared" si="29"/>
+        <f>M186</f>
         <v>0</v>
       </c>
       <c r="O227" s="131">
-        <f t="shared" si="29"/>
+        <f>N186</f>
         <v>0</v>
       </c>
       <c r="P227" s="131">
-        <f t="shared" si="29"/>
+        <f>O186</f>
         <v>0</v>
       </c>
       <c r="Q227" s="131">
-        <f t="shared" si="29"/>
+        <f>P186</f>
         <v>0</v>
       </c>
       <c r="R227" s="131">
-        <f t="shared" si="29"/>
+        <f>Q186</f>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A228" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="B228" s="171"/>
+      <c r="A228" s="168" t="s">
+        <v>213</v>
+      </c>
+      <c r="B228" s="169"/>
       <c r="C228" s="130">
-        <f>SUM(D228,Q228,R228)</f>
-        <v>985345.65324559994</v>
+        <f ca="1">SUM(D228,Q228,R228)</f>
+        <v>986474.66959999991</v>
       </c>
       <c r="D228" s="130">
-        <f t="shared" si="23"/>
-        <v>268730.63270334544</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>269038.54625454539</v>
       </c>
       <c r="E228" s="133">
-        <f>D188</f>
+        <f ca="1">D188</f>
         <v>0</v>
       </c>
       <c r="F228" s="133">
-        <f t="shared" ref="F228:R228" si="30">E188</f>
+        <f>E188</f>
         <v>0</v>
       </c>
       <c r="G228" s="133">
-        <f t="shared" si="30"/>
+        <f ca="1">F188</f>
         <v>0</v>
       </c>
       <c r="H228" s="133">
-        <f t="shared" si="30"/>
-        <v>29858.959189260608</v>
+        <f t="shared" ref="H228:Q228" si="31">G188</f>
+        <v>29893.171806060607</v>
       </c>
       <c r="I228" s="133">
-        <f t="shared" si="30"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="31"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="J228" s="133">
-        <f t="shared" si="30"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="31"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="K228" s="133">
-        <f t="shared" si="30"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="31"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="L228" s="133">
-        <f t="shared" si="30"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="31"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="M228" s="133">
-        <f t="shared" si="30"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="31"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="N228" s="133">
-        <f t="shared" si="30"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="31"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="O228" s="133">
-        <f t="shared" si="30"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="31"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="P228" s="133">
-        <f t="shared" si="30"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="31"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="Q228" s="133">
-        <f t="shared" si="30"/>
-        <v>358307.51027112728</v>
+        <f t="shared" si="31"/>
+        <v>358718.06167272729</v>
       </c>
       <c r="R228" s="133">
-        <f t="shared" si="30"/>
-        <v>358307.51027112728</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="172" t="s">
-        <v>222</v>
-      </c>
-      <c r="B229" s="173"/>
+        <f>Q188</f>
+        <v>358271.51027112728</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="242" t="s">
+        <v>214</v>
+      </c>
+      <c r="B229" s="243"/>
       <c r="C229" s="134">
-        <f>SUM(D229,Q229,R229)</f>
-        <v>230110.34435440012</v>
+        <f ca="1">SUM(D229,Q229,R229)</f>
+        <v>878481.32799999951</v>
       </c>
       <c r="D229" s="134">
-        <f t="shared" si="23"/>
-        <v>6361.7285330182021</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>183190.17861818173</v>
       </c>
       <c r="E229" s="135">
-        <f>E223-E226</f>
+        <f ca="1">E223-E226</f>
         <v>-35067.040000000001</v>
       </c>
       <c r="F229" s="135">
-        <f t="shared" ref="F229:R229" si="31">F223-F226</f>
+        <f t="shared" ref="F229:R229" si="32">F223-F226</f>
         <v>-35067.040000000001</v>
       </c>
       <c r="G229" s="135">
-        <f t="shared" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>-7409.9224000000004</v>
       </c>
       <c r="H229" s="135">
         <f>H223-H226</f>
-        <v>9322.8589925575761</v>
+        <v>28970.464557575746</v>
       </c>
       <c r="I229" s="135">
-        <f t="shared" si="31"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="32"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="J229" s="135">
-        <f t="shared" si="31"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="32"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="K229" s="135">
-        <f t="shared" si="31"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="32"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="L229" s="135">
-        <f t="shared" si="31"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="32"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="M229" s="135">
-        <f t="shared" si="31"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="32"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="N229" s="135">
-        <f t="shared" si="31"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="32"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="O229" s="135">
-        <f t="shared" si="31"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="32"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="P229" s="135">
-        <f t="shared" si="31"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="32"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="Q229" s="135">
-        <f t="shared" si="31"/>
-        <v>111874.30791069096</v>
+        <f t="shared" si="32"/>
+        <v>347645.57469090895</v>
       </c>
       <c r="R229" s="135">
-        <f t="shared" si="31"/>
-        <v>111874.30791069096</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v>348092.12609250896</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="136" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B231" s="137"/>
       <c r="C231" s="137"/>
@@ -7765,56 +7540,56 @@
       <c r="Q231" s="137"/>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A232" s="159" t="s">
+      <c r="A232" s="244" t="s">
         <v>126</v>
       </c>
-      <c r="B232" s="152" t="s">
+      <c r="B232" s="235" t="s">
         <v>108</v>
       </c>
-      <c r="C232" s="164" t="s">
+      <c r="C232" s="255" t="s">
         <v>149</v>
       </c>
-      <c r="D232" s="165"/>
-      <c r="E232" s="165"/>
-      <c r="F232" s="165"/>
-      <c r="G232" s="165"/>
-      <c r="H232" s="165"/>
-      <c r="I232" s="165"/>
-      <c r="J232" s="165"/>
-      <c r="K232" s="165"/>
-      <c r="L232" s="165"/>
-      <c r="M232" s="165"/>
-      <c r="N232" s="165"/>
-      <c r="O232" s="166"/>
-      <c r="P232" s="152" t="s">
+      <c r="D232" s="256"/>
+      <c r="E232" s="256"/>
+      <c r="F232" s="256"/>
+      <c r="G232" s="256"/>
+      <c r="H232" s="256"/>
+      <c r="I232" s="256"/>
+      <c r="J232" s="256"/>
+      <c r="K232" s="256"/>
+      <c r="L232" s="256"/>
+      <c r="M232" s="256"/>
+      <c r="N232" s="256"/>
+      <c r="O232" s="232"/>
+      <c r="P232" s="235" t="s">
         <v>150</v>
       </c>
-      <c r="Q232" s="155" t="s">
+      <c r="Q232" s="240" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A233" s="174"/>
-      <c r="B233" s="153"/>
-      <c r="C233" s="167"/>
-      <c r="D233" s="168"/>
-      <c r="E233" s="168"/>
-      <c r="F233" s="168"/>
-      <c r="G233" s="168"/>
-      <c r="H233" s="168"/>
-      <c r="I233" s="168"/>
-      <c r="J233" s="168"/>
-      <c r="K233" s="168"/>
-      <c r="L233" s="168"/>
-      <c r="M233" s="168"/>
-      <c r="N233" s="168"/>
-      <c r="O233" s="169"/>
-      <c r="P233" s="153"/>
-      <c r="Q233" s="156"/>
+      <c r="A233" s="245"/>
+      <c r="B233" s="247"/>
+      <c r="C233" s="257"/>
+      <c r="D233" s="258"/>
+      <c r="E233" s="258"/>
+      <c r="F233" s="258"/>
+      <c r="G233" s="258"/>
+      <c r="H233" s="258"/>
+      <c r="I233" s="258"/>
+      <c r="J233" s="258"/>
+      <c r="K233" s="258"/>
+      <c r="L233" s="258"/>
+      <c r="M233" s="258"/>
+      <c r="N233" s="258"/>
+      <c r="O233" s="259"/>
+      <c r="P233" s="247"/>
+      <c r="Q233" s="249"/>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A234" s="175"/>
-      <c r="B234" s="154"/>
+      <c r="A234" s="246"/>
+      <c r="B234" s="248"/>
       <c r="C234" s="138" t="s">
         <v>170</v>
       </c>
@@ -7854,20 +7629,20 @@
       <c r="O234" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="P234" s="154"/>
-      <c r="Q234" s="157"/>
+      <c r="P234" s="248"/>
+      <c r="Q234" s="250"/>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="139" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B235" s="131">
         <f>SUM(C235,P235,Q235)</f>
-        <v>1293000</v>
+        <v>1942499.9999999995</v>
       </c>
       <c r="C235" s="133">
         <f>SUM(D235:O235)</f>
-        <v>352636.36363636365</v>
+        <v>529772.72727272718</v>
       </c>
       <c r="D235" s="131">
         <v>0</v>
@@ -7880,63 +7655,63 @@
       </c>
       <c r="G235" s="131">
         <f>H223</f>
-        <v>39181.818181818184</v>
+        <v>58863.636363636353</v>
       </c>
       <c r="H235" s="131">
-        <f t="shared" ref="H235:O235" si="32">I223</f>
-        <v>39181.818181818184</v>
+        <f t="shared" ref="H235:O235" si="33">I223</f>
+        <v>58863.636363636353</v>
       </c>
       <c r="I235" s="131">
         <f>J223</f>
-        <v>39181.818181818184</v>
+        <v>58863.636363636353</v>
       </c>
       <c r="J235" s="131">
-        <f t="shared" si="32"/>
-        <v>39181.818181818184</v>
+        <f t="shared" si="33"/>
+        <v>58863.636363636353</v>
       </c>
       <c r="K235" s="131">
-        <f t="shared" si="32"/>
-        <v>39181.818181818184</v>
+        <f t="shared" si="33"/>
+        <v>58863.636363636353</v>
       </c>
       <c r="L235" s="131">
-        <f t="shared" si="32"/>
-        <v>39181.818181818184</v>
+        <f t="shared" si="33"/>
+        <v>58863.636363636353</v>
       </c>
       <c r="M235" s="131">
-        <f t="shared" si="32"/>
-        <v>39181.818181818184</v>
+        <f t="shared" si="33"/>
+        <v>58863.636363636353</v>
       </c>
       <c r="N235" s="131">
-        <f t="shared" si="32"/>
-        <v>39181.818181818184</v>
+        <f t="shared" si="33"/>
+        <v>58863.636363636353</v>
       </c>
       <c r="O235" s="131">
-        <f t="shared" si="32"/>
-        <v>39181.818181818184</v>
+        <f t="shared" si="33"/>
+        <v>58863.636363636353</v>
       </c>
       <c r="P235" s="131">
         <f>Q223</f>
-        <v>470181.81818181823</v>
+        <v>706363.63636363624</v>
       </c>
       <c r="Q235" s="131">
         <f>R223</f>
-        <v>470181.81818181823</v>
+        <v>706363.63636363624</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="139" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B236" s="131">
-        <f>SUM(C236,P236,Q236)</f>
-        <v>1062889.6556456001</v>
+        <f ca="1">SUM(C236,P236,Q236)</f>
+        <v>1064018.672</v>
       </c>
       <c r="C236" s="133">
-        <f>SUM(D236:O236)</f>
-        <v>346274.6351033455</v>
+        <f ca="1">SUM(D236:O236)</f>
+        <v>346582.54865454539</v>
       </c>
       <c r="D236" s="131">
-        <f>E226</f>
+        <f ca="1">E226</f>
         <v>35067.040000000001</v>
       </c>
       <c r="E236" s="131">
@@ -7944,195 +7719,195 @@
         <v>35067.040000000001</v>
       </c>
       <c r="F236" s="131">
-        <f t="shared" ref="F236:O236" si="33">G226</f>
+        <f t="shared" ref="F236:O236" ca="1" si="34">G226</f>
         <v>7409.9224000000004</v>
       </c>
       <c r="G236" s="131">
-        <f t="shared" si="33"/>
-        <v>29858.959189260608</v>
+        <f>H226</f>
+        <v>29893.171806060607</v>
       </c>
       <c r="H236" s="131">
-        <f t="shared" si="33"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="I236" s="131">
-        <f t="shared" si="33"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="J236" s="131">
         <f>K226</f>
-        <v>29858.959189260608</v>
+        <v>29893.171806060607</v>
       </c>
       <c r="K236" s="131">
-        <f t="shared" si="33"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="L236" s="131">
-        <f t="shared" si="33"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="M236" s="131">
-        <f t="shared" si="33"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="N236" s="131">
-        <f t="shared" si="33"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="O236" s="131">
-        <f t="shared" si="33"/>
-        <v>29858.959189260608</v>
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
       </c>
       <c r="P236" s="131">
         <f>Q226</f>
-        <v>358307.51027112728</v>
+        <v>358718.06167272729</v>
       </c>
       <c r="Q236" s="131">
         <f>R226</f>
-        <v>358307.51027112728</v>
+        <v>358271.51027112728</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="139" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B237" s="131">
-        <f>SUM(C237,P237,Q237)</f>
-        <v>230110.34435440012</v>
+        <f ca="1">SUM(C237,P237,Q237)</f>
+        <v>878481.32799999951</v>
       </c>
       <c r="C237" s="133">
-        <f>SUM(D237:O237)</f>
-        <v>6361.7285330182021</v>
+        <f ca="1">SUM(D237:O237)</f>
+        <v>183190.17861818173</v>
       </c>
       <c r="D237" s="133">
-        <f t="shared" ref="D237:Q237" si="34">D235-D236</f>
+        <f t="shared" ref="D237:Q237" ca="1" si="35">D235-D236</f>
         <v>-35067.040000000001</v>
       </c>
       <c r="E237" s="133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-35067.040000000001</v>
       </c>
       <c r="F237" s="133">
-        <f t="shared" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>-7409.9224000000004</v>
       </c>
       <c r="G237" s="133">
-        <f t="shared" si="34"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="35"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="H237" s="133">
-        <f t="shared" si="34"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="35"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="I237" s="133">
-        <f t="shared" si="34"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="35"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="J237" s="133">
-        <f t="shared" si="34"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="35"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="K237" s="133">
-        <f t="shared" si="34"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="35"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="L237" s="133">
-        <f t="shared" si="34"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="35"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="M237" s="133">
-        <f t="shared" si="34"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="35"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="N237" s="133">
-        <f t="shared" si="34"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="35"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="O237" s="133">
-        <f t="shared" si="34"/>
-        <v>9322.8589925575761</v>
+        <f t="shared" si="35"/>
+        <v>28970.464557575746</v>
       </c>
       <c r="P237" s="133">
-        <f t="shared" si="34"/>
-        <v>111874.30791069096</v>
+        <f t="shared" si="35"/>
+        <v>347645.57469090895</v>
       </c>
       <c r="Q237" s="133">
-        <f t="shared" si="34"/>
-        <v>111874.30791069096</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18" ht="41.4" x14ac:dyDescent="0.25">
+        <f t="shared" si="35"/>
+        <v>348092.12609250896</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="139" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B238" s="131">
-        <f>Q238</f>
-        <v>230110.34435440012</v>
+        <f ca="1">Q238</f>
+        <v>878481.32799999951</v>
       </c>
       <c r="C238" s="133">
-        <f>O238</f>
-        <v>6361.7285330182021</v>
+        <f ca="1">O238</f>
+        <v>183190.17861818173</v>
       </c>
       <c r="D238" s="131">
-        <f>D237</f>
+        <f ca="1">D237</f>
         <v>-35067.040000000001</v>
       </c>
       <c r="E238" s="131">
-        <f>D238+E237</f>
+        <f ca="1">D238+E237</f>
         <v>-70134.080000000002</v>
       </c>
       <c r="F238" s="131">
-        <f t="shared" ref="F238:O238" si="35">E238+F237</f>
+        <f ca="1">E238+F237</f>
         <v>-77544.002399999998</v>
       </c>
       <c r="G238" s="131">
-        <f t="shared" si="35"/>
-        <v>-68221.143407442418</v>
+        <f t="shared" ref="G238:O238" ca="1" si="36">F238+G237</f>
+        <v>-48573.537842424252</v>
       </c>
       <c r="H238" s="131">
-        <f t="shared" si="35"/>
-        <v>-58898.284414884838</v>
+        <f ca="1">G238+H237</f>
+        <v>-19603.073284848506</v>
       </c>
       <c r="I238" s="131">
-        <f t="shared" si="35"/>
-        <v>-49575.425422327258</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>9367.39127272724</v>
       </c>
       <c r="J238" s="131">
-        <f t="shared" si="35"/>
-        <v>-40252.566429769679</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>38337.855830302986</v>
       </c>
       <c r="K238" s="131">
-        <f t="shared" si="35"/>
-        <v>-30929.707437212102</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>67308.320387878732</v>
       </c>
       <c r="L238" s="131">
-        <f t="shared" si="35"/>
-        <v>-21606.848444654526</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>96278.784945454478</v>
       </c>
       <c r="M238" s="131">
-        <f t="shared" si="35"/>
-        <v>-12283.98945209695</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>125249.24950303022</v>
       </c>
       <c r="N238" s="131">
-        <f t="shared" si="35"/>
-        <v>-2961.130459539374</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>154219.71406060597</v>
       </c>
       <c r="O238" s="131">
-        <f t="shared" si="35"/>
-        <v>6361.7285330182021</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>183190.17861818173</v>
       </c>
       <c r="P238" s="131">
-        <f>P237+C238</f>
-        <v>118236.03644370916</v>
+        <f ca="1">P237+C238</f>
+        <v>530835.75330909062</v>
       </c>
       <c r="Q238" s="131">
-        <f>P238+Q237</f>
-        <v>230110.34435440012</v>
-      </c>
-    </row>
-    <row r="239" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+        <f ca="1">P238+Q237</f>
+        <v>878481.32799999951</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="140" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B239" s="141" t="s">
         <v>43</v>
@@ -8161,17 +7936,17 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="140" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B240" s="131">
-        <f>SUM(C240,P240,Q240)</f>
-        <v>167460.73192441318</v>
+        <f ca="1">SUM(C240,P240,Q240)</f>
+        <v>683799.80617309059</v>
       </c>
       <c r="C240" s="142">
-        <f>C237</f>
-        <v>6361.7285330182021</v>
+        <f ca="1">C237</f>
+        <v>183190.17861818173</v>
       </c>
       <c r="D240" s="141"/>
       <c r="E240" s="141"/>
@@ -8187,211 +7962,177 @@
       <c r="O240" s="141"/>
       <c r="P240" s="142">
         <f>P237/(1+0.25)^1</f>
-        <v>89499.44632855276</v>
+        <v>278116.45975272718</v>
       </c>
       <c r="Q240" s="142">
         <f>Q237/(1+0.25)^2</f>
-        <v>71599.557062842214</v>
-      </c>
-    </row>
-    <row r="241" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+        <v>222778.96069920572</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="140" t="s">
+        <v>224</v>
+      </c>
+      <c r="B241" s="131">
+        <f ca="1">SUM(C241,P241,Q241)</f>
+        <v>1328296.6231621811</v>
+      </c>
+      <c r="C241" s="142">
+        <f ca="1">C237</f>
+        <v>183190.17861818173</v>
+      </c>
+      <c r="D241" s="142">
+        <f ca="1">D237</f>
+        <v>-35067.040000000001</v>
+      </c>
+      <c r="E241" s="142">
+        <f ca="1">E237+D241</f>
+        <v>-70134.080000000002</v>
+      </c>
+      <c r="F241" s="142">
+        <f ca="1">F237+E241</f>
+        <v>-77544.002399999998</v>
+      </c>
+      <c r="G241" s="142">
+        <f t="shared" ref="G241:O241" ca="1" si="37">G237+F241</f>
+        <v>-48573.537842424252</v>
+      </c>
+      <c r="H241" s="142">
+        <f ca="1">H237+G241</f>
+        <v>-19603.073284848506</v>
+      </c>
+      <c r="I241" s="142">
+        <f t="shared" ca="1" si="37"/>
+        <v>9367.39127272724</v>
+      </c>
+      <c r="J241" s="142">
+        <f t="shared" ca="1" si="37"/>
+        <v>38337.855830302986</v>
+      </c>
+      <c r="K241" s="142">
+        <f t="shared" ca="1" si="37"/>
+        <v>67308.320387878732</v>
+      </c>
+      <c r="L241" s="142">
+        <f t="shared" ca="1" si="37"/>
+        <v>96278.784945454478</v>
+      </c>
+      <c r="M241" s="142">
+        <f ca="1">M237+L241</f>
+        <v>125249.24950303022</v>
+      </c>
+      <c r="N241" s="142">
+        <f t="shared" ca="1" si="37"/>
+        <v>154219.71406060597</v>
+      </c>
+      <c r="O241" s="142">
+        <f t="shared" ca="1" si="37"/>
+        <v>183190.17861818173</v>
+      </c>
+      <c r="P241" s="142">
+        <f ca="1">P240+C241</f>
+        <v>461306.63837090891</v>
+      </c>
+      <c r="Q241" s="142">
+        <f ca="1">Q240+P241</f>
+        <v>683799.80617309059</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="251" t="s">
+        <v>225</v>
+      </c>
+      <c r="B243" s="251"/>
+      <c r="C243" s="251"/>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A244" s="244" t="s">
+        <v>126</v>
+      </c>
+      <c r="B244" s="235" t="s">
+        <v>226</v>
+      </c>
+      <c r="C244" s="253" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="252"/>
+      <c r="B245" s="236"/>
+      <c r="C245" s="254"/>
+    </row>
+    <row r="246" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="143" t="s">
+        <v>228</v>
+      </c>
+      <c r="B246" s="144" t="s">
+        <v>229</v>
+      </c>
+      <c r="C246" s="145">
+        <f ca="1">B241</f>
+        <v>1328296.6231621811</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A247" s="146" t="s">
+        <v>230</v>
+      </c>
+      <c r="B247" s="147" t="s">
+        <v>231</v>
+      </c>
+      <c r="C247" s="148">
+        <v>1.2</v>
+      </c>
+      <c r="D247"/>
+    </row>
+    <row r="248" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="B241" s="131">
-        <f>SUM(C241,P241,Q241)</f>
-        <v>269683.63531900232</v>
-      </c>
-      <c r="C241" s="142">
-        <f>C237</f>
-        <v>6361.7285330182021</v>
-      </c>
-      <c r="D241" s="142">
-        <f>D237</f>
-        <v>-35067.040000000001</v>
-      </c>
-      <c r="E241" s="142">
-        <f>E237+D241</f>
-        <v>-70134.080000000002</v>
-      </c>
-      <c r="F241" s="142">
-        <f t="shared" ref="F241:O241" si="36">F237+E241</f>
-        <v>-77544.002399999998</v>
-      </c>
-      <c r="G241" s="142">
-        <f t="shared" si="36"/>
-        <v>-68221.143407442418</v>
-      </c>
-      <c r="H241" s="142">
-        <f t="shared" si="36"/>
-        <v>-58898.284414884838</v>
-      </c>
-      <c r="I241" s="142">
-        <f t="shared" si="36"/>
-        <v>-49575.425422327258</v>
-      </c>
-      <c r="J241" s="142">
-        <f t="shared" si="36"/>
-        <v>-40252.566429769679</v>
-      </c>
-      <c r="K241" s="142">
-        <f t="shared" si="36"/>
-        <v>-30929.707437212102</v>
-      </c>
-      <c r="L241" s="142">
-        <f t="shared" si="36"/>
-        <v>-21606.848444654526</v>
-      </c>
-      <c r="M241" s="142">
-        <f>M237+L241</f>
-        <v>-12283.98945209695</v>
-      </c>
-      <c r="N241" s="142">
-        <f t="shared" si="36"/>
-        <v>-2961.130459539374</v>
-      </c>
-      <c r="O241" s="142">
-        <f t="shared" si="36"/>
-        <v>6361.7285330182021</v>
-      </c>
-      <c r="P241" s="142">
-        <f>P240+C241</f>
-        <v>95861.174861570966</v>
-      </c>
-      <c r="Q241" s="142">
-        <f>Q240+P241</f>
-        <v>167460.73192441318</v>
-      </c>
-    </row>
-    <row r="243" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="158" t="s">
+      <c r="B248" s="147" t="s">
         <v>233</v>
       </c>
-      <c r="B243" s="158"/>
-      <c r="C243" s="158"/>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A244" s="159" t="s">
-        <v>126</v>
-      </c>
-      <c r="B244" s="152" t="s">
+      <c r="C248" s="154">
+        <f ca="1">(C235/C236 + P235/P236 + Q235/ Q236)/3</f>
+        <v>1.8222759385431162</v>
+      </c>
+      <c r="D248" s="152"/>
+    </row>
+    <row r="249" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="150" t="s">
         <v>234</v>
       </c>
-      <c r="C244" s="162" t="s">
+      <c r="B249" s="153" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="160"/>
-      <c r="B245" s="161"/>
-      <c r="C245" s="163"/>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A246" s="143" t="s">
-        <v>236</v>
-      </c>
-      <c r="B246" s="144" t="s">
-        <v>237</v>
-      </c>
-      <c r="C246" s="145">
-        <f>B241</f>
-        <v>269683.63531900232</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A247" s="146" t="s">
-        <v>238</v>
-      </c>
-      <c r="B247" s="147" t="s">
-        <v>239</v>
-      </c>
-      <c r="C247" s="148">
-        <v>0.94</v>
-      </c>
-      <c r="D247"/>
-    </row>
-    <row r="248" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="149" t="s">
-        <v>240</v>
-      </c>
-      <c r="B248" s="147" t="s">
-        <v>241</v>
-      </c>
-      <c r="C248" s="244">
-        <f>(C235/C236 + P235/P236 + Q235/ Q236)/3</f>
-        <v>1.214277219729281</v>
-      </c>
-      <c r="D248" s="241"/>
-    </row>
-    <row r="249" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="150" t="s">
-        <v>242</v>
-      </c>
-      <c r="B249" s="242" t="s">
-        <v>243</v>
-      </c>
-      <c r="C249" s="245" t="s">
-        <v>251</v>
-      </c>
-      <c r="D249" s="243"/>
-      <c r="E249" s="243"/>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D250" s="243"/>
-      <c r="E250" s="243"/>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E251" s="243"/>
+      <c r="C249" s="155" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="E93:E105"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="C232:O233"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="P232:P234"/>
+    <mergeCell ref="Q232:Q234"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="Q221:Q222"/>
+    <mergeCell ref="R221:R222"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="C179:O179"/>
+    <mergeCell ref="P179:P180"/>
+    <mergeCell ref="Q179:Q180"/>
+    <mergeCell ref="A199:I203"/>
+    <mergeCell ref="A192:F192"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:E195"/>
+    <mergeCell ref="B197:B198"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="C152:L152"/>
     <mergeCell ref="M152:M153"/>
@@ -8407,34 +8148,59 @@
     <mergeCell ref="B93:B105"/>
     <mergeCell ref="C93:C105"/>
     <mergeCell ref="D93:D105"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E93:E105"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A71:A80"/>
     <mergeCell ref="A179:A180"/>
     <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:O179"/>
-    <mergeCell ref="P179:P180"/>
-    <mergeCell ref="Q179:Q180"/>
-    <mergeCell ref="A199:I203"/>
-    <mergeCell ref="A192:F192"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:E195"/>
-    <mergeCell ref="B197:B198"/>
     <mergeCell ref="B213:D213"/>
     <mergeCell ref="A221:B222"/>
     <mergeCell ref="C221:C222"/>
     <mergeCell ref="D221:P221"/>
-    <mergeCell ref="Q221:Q222"/>
-    <mergeCell ref="R221:R222"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="P232:P234"/>
-    <mergeCell ref="Q232:Q234"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="C232:O233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Economy/ССВ_.xlsx
+++ b/Economy/ССВ_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikhail\Desktop\Diplom\Diplom\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F400BEA7-81C3-4FBB-A011-FEA28C925C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0C69F8-BBD9-4C78-873B-A74B545BECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{DD22D69B-F449-4465-9E58-C9AF3D6A9AD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD22D69B-F449-4465-9E58-C9AF3D6A9AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="246">
   <si>
     <t>Таблица 1 - Расходы на оборудование</t>
   </si>
@@ -1757,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2130,9 +2130,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2229,7 +2226,236 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2238,251 +2464,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2506,6 +2501,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2824,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216BCC7E-ABEC-4E19-9E5C-E8459FAD83F9}">
   <dimension ref="A1:R249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2839,10 +2840,10 @@
     <col min="7" max="7" width="29.42578125" style="11" customWidth="1"/>
     <col min="8" max="8" width="27.85546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="30.140625" style="11" customWidth="1"/>
-    <col min="10" max="12" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
@@ -2885,28 +2886,28 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="204"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="212"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="186"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="194"/>
     </row>
     <row r="5" spans="1:8" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -2937,28 +2938,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="204"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="212"/>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="186"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="194"/>
     </row>
     <row r="8" spans="1:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
@@ -2992,13 +2993,13 @@
       <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="186"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
     </row>
     <row r="10" spans="1:8" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
@@ -3033,28 +3034,28 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="182" t="s">
+      <c r="C13" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="182" t="s">
+      <c r="D13" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="182" t="s">
+      <c r="E13" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="200"/>
+      <c r="F13" s="208"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="181"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
+      <c r="A14" s="189"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
       <c r="E14" s="15" t="s">
         <v>22</v>
       </c>
@@ -3063,24 +3064,24 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="203"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="204"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="212"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="184"/>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="186"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="194"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
@@ -3105,24 +3106,24 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="203"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="204"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="212"/>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="184"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="186"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="194"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
@@ -3150,11 +3151,11 @@
       <c r="A21" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="184"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="186"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="194"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
@@ -3187,20 +3188,20 @@
       <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="180" t="s">
+      <c r="A25" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="182" t="s">
+      <c r="B25" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="182" t="s">
+      <c r="C25" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="200"/>
+      <c r="D25" s="208"/>
     </row>
     <row r="26" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="181"/>
-      <c r="B26" s="183"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="191"/>
       <c r="C26" s="15" t="s">
         <v>27</v>
       </c>
@@ -3329,24 +3330,24 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="196" t="s">
+      <c r="A36" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="197"/>
-      <c r="C36" s="197"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="198"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="205"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="206"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="184"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="186"/>
+      <c r="B37" s="192"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="193"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="194"/>
     </row>
     <row r="38" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
@@ -3389,24 +3390,24 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="197"/>
-      <c r="C40" s="197"/>
-      <c r="D40" s="197"/>
-      <c r="E40" s="197"/>
-      <c r="F40" s="198"/>
+      <c r="B40" s="205"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="205"/>
+      <c r="F40" s="206"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="184"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="186"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="193"/>
+      <c r="D41" s="193"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="194"/>
     </row>
     <row r="42" spans="1:6" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="s">
@@ -3439,54 +3440,54 @@
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="180" t="s">
+      <c r="A45" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="182" t="s">
+      <c r="B45" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="182" t="s">
+      <c r="C45" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="182"/>
-      <c r="F45" s="200" t="s">
+      <c r="E45" s="190"/>
+      <c r="F45" s="208" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="172"/>
-      <c r="B46" s="199"/>
-      <c r="C46" s="199"/>
+      <c r="A46" s="169"/>
+      <c r="B46" s="207"/>
+      <c r="C46" s="207"/>
       <c r="D46" s="36" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="201"/>
+      <c r="F46" s="209"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="196" t="s">
+      <c r="A47" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="197"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="197"/>
-      <c r="E47" s="197"/>
-      <c r="F47" s="198"/>
+      <c r="B47" s="205"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="206"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="184"/>
-      <c r="C48" s="185"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="185"/>
-      <c r="F48" s="186"/>
+      <c r="B48" s="192"/>
+      <c r="C48" s="193"/>
+      <c r="D48" s="193"/>
+      <c r="E48" s="193"/>
+      <c r="F48" s="194"/>
     </row>
     <row r="49" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
@@ -3537,50 +3538,50 @@
       <c r="D52" s="28"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="180" t="s">
+      <c r="A53" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="182" t="s">
+      <c r="B53" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="182"/>
-      <c r="D53" s="200" t="s">
+      <c r="C53" s="190"/>
+      <c r="D53" s="208" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="181"/>
+      <c r="A54" s="189"/>
       <c r="B54" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="205"/>
+      <c r="D54" s="213"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="196" t="s">
+      <c r="A55" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="197"/>
-      <c r="C55" s="197"/>
-      <c r="D55" s="198"/>
+      <c r="B55" s="205"/>
+      <c r="C55" s="205"/>
+      <c r="D55" s="206"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="184"/>
-      <c r="C56" s="185"/>
-      <c r="D56" s="186"/>
+      <c r="B56" s="192"/>
+      <c r="C56" s="193"/>
+      <c r="D56" s="194"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="196" t="s">
+      <c r="A57" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="197"/>
-      <c r="C57" s="197"/>
-      <c r="D57" s="198"/>
+      <c r="B57" s="205"/>
+      <c r="C57" s="205"/>
+      <c r="D57" s="206"/>
     </row>
     <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
@@ -3620,62 +3621,62 @@
     </row>
     <row r="62" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
     </row>
     <row r="64" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A64" s="156"/>
-      <c r="B64" s="156"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="156"/>
+      <c r="A64" s="155"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="155"/>
+      <c r="D64" s="155"/>
     </row>
     <row r="65" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A65" s="156"/>
-      <c r="B65" s="156"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156"/>
+      <c r="A65" s="155"/>
+      <c r="B65" s="155"/>
+      <c r="C65" s="155"/>
+      <c r="D65" s="155"/>
     </row>
     <row r="66" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A66" s="156"/>
-      <c r="B66" s="156"/>
-      <c r="C66" s="156"/>
-      <c r="D66" s="156"/>
+      <c r="A66" s="155"/>
+      <c r="B66" s="155"/>
+      <c r="C66" s="155"/>
+      <c r="D66" s="155"/>
     </row>
     <row r="67" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A67" s="156"/>
-      <c r="B67" s="156"/>
-      <c r="C67" s="156"/>
-      <c r="D67" s="156"/>
+      <c r="A67" s="155"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="155"/>
     </row>
     <row r="68" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A68" s="156"/>
-      <c r="B68" s="156"/>
-      <c r="C68" s="156"/>
-      <c r="D68" s="156"/>
+      <c r="A68" s="155"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="155"/>
     </row>
     <row r="69" spans="1:4" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A69" s="156"/>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
+      <c r="A69" s="155"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="157" t="s">
+      <c r="A70" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="157" t="s">
+      <c r="B70" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="157" t="s">
+      <c r="C70" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="157" t="s">
+      <c r="D70" s="156" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="172" t="s">
+      <c r="A71" s="169" t="s">
         <v>89</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -3690,7 +3691,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="173"/>
+      <c r="A72" s="170"/>
       <c r="B72" s="3" t="s">
         <v>69</v>
       </c>
@@ -3703,7 +3704,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="173"/>
+      <c r="A73" s="170"/>
       <c r="B73" s="3" t="s">
         <v>70</v>
       </c>
@@ -3716,7 +3717,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="173"/>
+      <c r="A74" s="170"/>
       <c r="B74" s="6" t="s">
         <v>71</v>
       </c>
@@ -3729,7 +3730,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="173"/>
+      <c r="A75" s="170"/>
       <c r="B75" s="7" t="s">
         <v>73</v>
       </c>
@@ -3742,7 +3743,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="173"/>
+      <c r="A76" s="170"/>
       <c r="B76" s="8" t="s">
         <v>72</v>
       </c>
@@ -3755,7 +3756,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="173"/>
+      <c r="A77" s="170"/>
       <c r="B77" s="8" t="s">
         <v>74</v>
       </c>
@@ -3768,7 +3769,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="173"/>
+      <c r="A78" s="170"/>
       <c r="B78" s="9" t="s">
         <v>77</v>
       </c>
@@ -3781,7 +3782,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="173"/>
+      <c r="A79" s="170"/>
       <c r="B79" s="11" t="s">
         <v>78</v>
       </c>
@@ -3794,7 +3795,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="174"/>
+      <c r="A80" s="171"/>
       <c r="B80" s="13" t="s">
         <v>75</v>
       </c>
@@ -3887,10 +3888,10 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="190" t="s">
+      <c r="A88" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="B88" s="192"/>
+      <c r="B88" s="200"/>
       <c r="C88" s="15">
         <v>1</v>
       </c>
@@ -3926,139 +3927,139 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="202" t="s">
+      <c r="A92" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="203"/>
-      <c r="C92" s="203"/>
-      <c r="D92" s="203"/>
-      <c r="E92" s="204"/>
+      <c r="B92" s="211"/>
+      <c r="C92" s="211"/>
+      <c r="D92" s="211"/>
+      <c r="E92" s="212"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="158" t="s">
+      <c r="A93" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="217" t="s">
+      <c r="B93" s="225" t="s">
         <v>62</v>
       </c>
-      <c r="C93" s="219">
+      <c r="C93" s="227">
         <v>1</v>
       </c>
-      <c r="D93" s="219">
+      <c r="D93" s="227">
         <f>E93*132</f>
         <v>24816</v>
       </c>
-      <c r="E93" s="175">
+      <c r="E93" s="229">
         <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="158" t="s">
+      <c r="A94" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="B94" s="218"/>
-      <c r="C94" s="220"/>
-      <c r="D94" s="220"/>
-      <c r="E94" s="176"/>
+      <c r="B94" s="226"/>
+      <c r="C94" s="228"/>
+      <c r="D94" s="228"/>
+      <c r="E94" s="230"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="158" t="s">
+      <c r="A95" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="218"/>
-      <c r="C95" s="220"/>
-      <c r="D95" s="220"/>
-      <c r="E95" s="176"/>
+      <c r="B95" s="226"/>
+      <c r="C95" s="228"/>
+      <c r="D95" s="228"/>
+      <c r="E95" s="230"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="159" t="s">
+      <c r="A96" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="B96" s="218"/>
-      <c r="C96" s="220"/>
-      <c r="D96" s="220"/>
-      <c r="E96" s="176"/>
+      <c r="B96" s="226"/>
+      <c r="C96" s="228"/>
+      <c r="D96" s="228"/>
+      <c r="E96" s="230"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="160" t="s">
+      <c r="A97" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="B97" s="218"/>
-      <c r="C97" s="220"/>
-      <c r="D97" s="220"/>
-      <c r="E97" s="176"/>
+      <c r="B97" s="226"/>
+      <c r="C97" s="228"/>
+      <c r="D97" s="228"/>
+      <c r="E97" s="230"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="161" t="s">
+      <c r="A98" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="B98" s="218"/>
-      <c r="C98" s="220"/>
-      <c r="D98" s="220"/>
-      <c r="E98" s="176"/>
+      <c r="B98" s="226"/>
+      <c r="C98" s="228"/>
+      <c r="D98" s="228"/>
+      <c r="E98" s="230"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="161" t="s">
+      <c r="A99" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="218"/>
-      <c r="C99" s="220"/>
-      <c r="D99" s="220"/>
-      <c r="E99" s="176"/>
+      <c r="B99" s="226"/>
+      <c r="C99" s="228"/>
+      <c r="D99" s="228"/>
+      <c r="E99" s="230"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="162" t="s">
+      <c r="A100" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="B100" s="218"/>
-      <c r="C100" s="220"/>
-      <c r="D100" s="220"/>
-      <c r="E100" s="176"/>
+      <c r="B100" s="226"/>
+      <c r="C100" s="228"/>
+      <c r="D100" s="228"/>
+      <c r="E100" s="230"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="163" t="s">
+      <c r="A101" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B101" s="218"/>
-      <c r="C101" s="220"/>
-      <c r="D101" s="220"/>
-      <c r="E101" s="176"/>
+      <c r="B101" s="226"/>
+      <c r="C101" s="228"/>
+      <c r="D101" s="228"/>
+      <c r="E101" s="230"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="164" t="s">
+      <c r="A102" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="B102" s="218"/>
-      <c r="C102" s="220"/>
-      <c r="D102" s="220"/>
-      <c r="E102" s="176"/>
+      <c r="B102" s="226"/>
+      <c r="C102" s="228"/>
+      <c r="D102" s="228"/>
+      <c r="E102" s="230"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="163" t="s">
+      <c r="A103" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="B103" s="218"/>
-      <c r="C103" s="220"/>
-      <c r="D103" s="220"/>
-      <c r="E103" s="176"/>
+      <c r="B103" s="226"/>
+      <c r="C103" s="228"/>
+      <c r="D103" s="228"/>
+      <c r="E103" s="230"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="163" t="s">
+      <c r="A104" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="218"/>
-      <c r="C104" s="220"/>
-      <c r="D104" s="220"/>
-      <c r="E104" s="176"/>
+      <c r="B104" s="226"/>
+      <c r="C104" s="228"/>
+      <c r="D104" s="228"/>
+      <c r="E104" s="230"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="164" t="s">
+      <c r="A105" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="B105" s="218"/>
-      <c r="C105" s="220"/>
-      <c r="D105" s="220"/>
-      <c r="E105" s="176"/>
+      <c r="B105" s="226"/>
+      <c r="C105" s="228"/>
+      <c r="D105" s="228"/>
+      <c r="E105" s="230"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
@@ -4070,22 +4071,22 @@
       <c r="E106" s="31"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="202" t="s">
+      <c r="A107" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="203"/>
-      <c r="C107" s="203"/>
-      <c r="D107" s="203"/>
-      <c r="E107" s="204"/>
+      <c r="B107" s="211"/>
+      <c r="C107" s="211"/>
+      <c r="D107" s="211"/>
+      <c r="E107" s="212"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="184"/>
-      <c r="C108" s="185"/>
-      <c r="D108" s="185"/>
-      <c r="E108" s="186"/>
+      <c r="B108" s="192"/>
+      <c r="C108" s="193"/>
+      <c r="D108" s="193"/>
+      <c r="E108" s="194"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
@@ -4128,10 +4129,10 @@
       <c r="A111" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="187"/>
-      <c r="C111" s="188"/>
-      <c r="D111" s="188"/>
-      <c r="E111" s="189"/>
+      <c r="B111" s="195"/>
+      <c r="C111" s="196"/>
+      <c r="D111" s="196"/>
+      <c r="E111" s="197"/>
     </row>
     <row r="112" spans="1:5" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="40" t="s">
@@ -4232,12 +4233,12 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="190" t="s">
+      <c r="A118" s="198" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="191"/>
-      <c r="C118" s="191"/>
-      <c r="D118" s="192"/>
+      <c r="B118" s="199"/>
+      <c r="C118" s="199"/>
+      <c r="D118" s="200"/>
       <c r="E118" s="36">
         <f>SUM(E117:E117)</f>
         <v>132</v>
@@ -4299,12 +4300,12 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="177" t="s">
+      <c r="A121" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="B121" s="178"/>
-      <c r="C121" s="178"/>
-      <c r="D121" s="179"/>
+      <c r="B121" s="186"/>
+      <c r="C121" s="186"/>
+      <c r="D121" s="187"/>
       <c r="E121" s="36">
         <f>SUM(E120:E120)</f>
         <v>132</v>
@@ -4366,12 +4367,12 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="193" t="s">
+      <c r="A124" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="B124" s="194"/>
-      <c r="C124" s="194"/>
-      <c r="D124" s="195"/>
+      <c r="B124" s="202"/>
+      <c r="C124" s="202"/>
+      <c r="D124" s="203"/>
       <c r="E124" s="4">
         <f>SUM(E123:E123)</f>
         <v>19.899999999999999</v>
@@ -4390,13 +4391,13 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="177" t="s">
+      <c r="A125" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="B125" s="178"/>
-      <c r="C125" s="178"/>
-      <c r="D125" s="178"/>
-      <c r="E125" s="179"/>
+      <c r="B125" s="186"/>
+      <c r="C125" s="186"/>
+      <c r="D125" s="186"/>
+      <c r="E125" s="187"/>
       <c r="F125" s="36">
         <f>F118+F121+F124</f>
         <v>53373.2</v>
@@ -4534,21 +4535,21 @@
       <c r="E133" s="28"/>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="180" t="s">
+      <c r="A134" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="B134" s="182" t="s">
+      <c r="B134" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="C134" s="184" t="s">
+      <c r="C134" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="D134" s="185"/>
-      <c r="E134" s="186"/>
+      <c r="D134" s="193"/>
+      <c r="E134" s="194"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="181"/>
-      <c r="B135" s="183"/>
+      <c r="A135" s="189"/>
+      <c r="B135" s="191"/>
       <c r="C135" s="15" t="s">
         <v>110</v>
       </c>
@@ -4875,22 +4876,22 @@
       <c r="B152" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="C152" s="206" t="s">
+      <c r="C152" s="214" t="s">
         <v>127</v>
       </c>
-      <c r="D152" s="207"/>
-      <c r="E152" s="207"/>
-      <c r="F152" s="207"/>
-      <c r="G152" s="207"/>
-      <c r="H152" s="207"/>
-      <c r="I152" s="207"/>
-      <c r="J152" s="207"/>
-      <c r="K152" s="207"/>
-      <c r="L152" s="208"/>
-      <c r="M152" s="209" t="s">
+      <c r="D152" s="215"/>
+      <c r="E152" s="215"/>
+      <c r="F152" s="215"/>
+      <c r="G152" s="215"/>
+      <c r="H152" s="215"/>
+      <c r="I152" s="215"/>
+      <c r="J152" s="215"/>
+      <c r="K152" s="215"/>
+      <c r="L152" s="216"/>
+      <c r="M152" s="217" t="s">
         <v>128</v>
       </c>
-      <c r="N152" s="211" t="s">
+      <c r="N152" s="219" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4927,8 +4928,8 @@
       <c r="L153" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="M153" s="210"/>
-      <c r="N153" s="212"/>
+      <c r="M153" s="218"/>
+      <c r="N153" s="220"/>
     </row>
     <row r="154" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="85" t="s">
@@ -5385,7 +5386,7 @@
         <v>25630.935272727274</v>
       </c>
       <c r="F162" s="74">
-        <f t="shared" si="10"/>
+        <f>$H$131</f>
         <v>25630.935272727274</v>
       </c>
       <c r="G162" s="74">
@@ -5495,21 +5496,21 @@
       <c r="C166" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="D166" s="206" t="s">
+      <c r="D166" s="214" t="s">
         <v>149</v>
       </c>
-      <c r="E166" s="207"/>
-      <c r="F166" s="207"/>
-      <c r="G166" s="207"/>
-      <c r="H166" s="207"/>
-      <c r="I166" s="207"/>
-      <c r="J166" s="207"/>
-      <c r="K166" s="207"/>
-      <c r="L166" s="208"/>
-      <c r="M166" s="213" t="s">
+      <c r="E166" s="215"/>
+      <c r="F166" s="215"/>
+      <c r="G166" s="215"/>
+      <c r="H166" s="215"/>
+      <c r="I166" s="215"/>
+      <c r="J166" s="215"/>
+      <c r="K166" s="215"/>
+      <c r="L166" s="216"/>
+      <c r="M166" s="221" t="s">
         <v>150</v>
       </c>
-      <c r="N166" s="215" t="s">
+      <c r="N166" s="223" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5544,8 +5545,8 @@
       <c r="L167" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="M167" s="214"/>
-      <c r="N167" s="216"/>
+      <c r="M167" s="222"/>
+      <c r="N167" s="224"/>
     </row>
     <row r="168" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="93" t="s">
@@ -6070,562 +6071,579 @@
       <c r="Q178" s="28"/>
     </row>
     <row r="179" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="221" t="s">
+      <c r="A179" s="172" t="s">
         <v>126</v>
       </c>
-      <c r="B179" s="221" t="s">
+      <c r="B179" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="C179" s="221" t="s">
+      <c r="C179" s="172" t="s">
         <v>149</v>
       </c>
-      <c r="D179" s="221"/>
-      <c r="E179" s="221"/>
-      <c r="F179" s="221"/>
-      <c r="G179" s="221"/>
-      <c r="H179" s="221"/>
-      <c r="I179" s="221"/>
-      <c r="J179" s="221"/>
-      <c r="K179" s="221"/>
-      <c r="L179" s="221"/>
-      <c r="M179" s="221"/>
-      <c r="N179" s="221"/>
-      <c r="O179" s="221"/>
-      <c r="P179" s="221" t="s">
+      <c r="D179" s="172"/>
+      <c r="E179" s="172"/>
+      <c r="F179" s="172"/>
+      <c r="G179" s="172"/>
+      <c r="H179" s="172"/>
+      <c r="I179" s="172"/>
+      <c r="J179" s="172"/>
+      <c r="K179" s="172"/>
+      <c r="L179" s="172"/>
+      <c r="M179" s="172"/>
+      <c r="N179" s="172"/>
+      <c r="O179" s="172"/>
+      <c r="P179" s="172" t="s">
         <v>150</v>
       </c>
-      <c r="Q179" s="221" t="s">
+      <c r="Q179" s="172" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="221"/>
-      <c r="B180" s="221"/>
-      <c r="C180" s="165" t="s">
+      <c r="A180" s="172"/>
+      <c r="B180" s="172"/>
+      <c r="C180" s="164" t="s">
         <v>170</v>
       </c>
-      <c r="D180" s="165" t="s">
+      <c r="D180" s="164" t="s">
         <v>171</v>
       </c>
-      <c r="E180" s="165" t="s">
+      <c r="E180" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="F180" s="165" t="s">
+      <c r="F180" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="G180" s="165" t="s">
+      <c r="G180" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="H180" s="165" t="s">
+      <c r="H180" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="I180" s="165" t="s">
+      <c r="I180" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="J180" s="165" t="s">
+      <c r="J180" s="164" t="s">
         <v>154</v>
       </c>
-      <c r="K180" s="165" t="s">
+      <c r="K180" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="L180" s="165" t="s">
+      <c r="L180" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="M180" s="165" t="s">
+      <c r="M180" s="164" t="s">
         <v>157</v>
       </c>
-      <c r="N180" s="165" t="s">
+      <c r="N180" s="164" t="s">
         <v>158</v>
       </c>
-      <c r="O180" s="165" t="s">
+      <c r="O180" s="164" t="s">
         <v>159</v>
       </c>
-      <c r="P180" s="221"/>
-      <c r="Q180" s="221"/>
+      <c r="P180" s="172"/>
+      <c r="Q180" s="172"/>
     </row>
     <row r="181" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="158" t="s">
+      <c r="A181" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="B181" s="165">
+      <c r="B181" s="166">
         <f t="shared" ref="B181:B190" si="19">SUM(C181,P181:Q181)</f>
         <v>1063572.1205984</v>
       </c>
-      <c r="C181" s="165">
-        <f>SUM(C182,C188)</f>
+      <c r="C181" s="166">
+        <f t="shared" ref="C181:Q181" si="20">SUM(C182,C188)</f>
         <v>346582.54865454539</v>
       </c>
-      <c r="D181" s="165">
-        <f ca="1">SUM(D182,D188)</f>
+      <c r="D181" s="166">
+        <f t="shared" si="20"/>
         <v>35067.040000000001</v>
       </c>
-      <c r="E181" s="165">
-        <f>SUM(E182,E188)</f>
+      <c r="E181" s="166">
+        <f t="shared" si="20"/>
         <v>35067.040000000001</v>
       </c>
-      <c r="F181" s="165">
-        <f ca="1">SUM(F182,F188)</f>
+      <c r="F181" s="166">
+        <f t="shared" si="20"/>
         <v>7409.9224000000004</v>
       </c>
-      <c r="G181" s="165">
-        <f>SUM(G182,G188)</f>
+      <c r="G181" s="166">
+        <f t="shared" si="20"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="H181" s="165">
-        <f>SUM(H182,H188)</f>
+      <c r="H181" s="166">
+        <f t="shared" si="20"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="I181" s="165">
-        <f>SUM(I182,I188)</f>
+      <c r="I181" s="166">
+        <f t="shared" si="20"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="J181" s="165">
-        <f>SUM(J182,J188)</f>
+      <c r="J181" s="166">
+        <f t="shared" si="20"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="K181" s="165">
-        <f>SUM(K182,K188)</f>
+      <c r="K181" s="166">
+        <f t="shared" si="20"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="L181" s="165">
-        <f>SUM(L182,L188)</f>
+      <c r="L181" s="166">
+        <f t="shared" si="20"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="M181" s="165">
-        <f>SUM(M182,M188)</f>
+      <c r="M181" s="166">
+        <f t="shared" si="20"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="N181" s="165">
-        <f>SUM(N182,N188)</f>
+      <c r="N181" s="166">
+        <f t="shared" si="20"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="O181" s="165">
-        <f>SUM(O182,O188)</f>
+      <c r="O181" s="166">
+        <f t="shared" si="20"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="P181" s="165">
-        <f>SUM(P182,P188)</f>
+      <c r="P181" s="166">
+        <f t="shared" si="20"/>
         <v>358718.06167272729</v>
       </c>
-      <c r="Q181" s="165">
-        <f>SUM(Q182,Q188)</f>
+      <c r="Q181" s="166">
+        <f t="shared" si="20"/>
         <v>358271.51027112728</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="158" t="s">
+      <c r="A182" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="B182" s="165">
+      <c r="B182" s="166">
         <f t="shared" si="19"/>
         <v>77544.002399999998</v>
       </c>
-      <c r="C182" s="165">
-        <f t="shared" ref="C182" si="20">SUM(D182:F182)</f>
+      <c r="C182" s="166">
+        <f t="shared" ref="C182" si="21">SUM(D182:F182)</f>
         <v>77544.002399999998</v>
       </c>
-      <c r="D182" s="165">
+      <c r="D182" s="166">
         <f>C136</f>
         <v>35067.040000000001</v>
       </c>
-      <c r="E182" s="165">
+      <c r="E182" s="166">
         <f>D136</f>
         <v>35067.040000000001</v>
       </c>
-      <c r="F182" s="165">
-        <f t="shared" ref="F182" si="21">E136</f>
+      <c r="F182" s="166">
+        <f t="shared" ref="F182" si="22">E136</f>
         <v>7409.9224000000004</v>
       </c>
-      <c r="G182" s="165">
-        <v>0</v>
-      </c>
-      <c r="H182" s="165">
-        <v>0</v>
-      </c>
-      <c r="I182" s="165">
-        <v>0</v>
-      </c>
-      <c r="J182" s="165">
-        <v>0</v>
-      </c>
-      <c r="K182" s="165">
-        <v>0</v>
-      </c>
-      <c r="L182" s="165">
-        <v>0</v>
-      </c>
-      <c r="M182" s="165">
-        <v>0</v>
-      </c>
-      <c r="N182" s="165">
-        <v>0</v>
-      </c>
-      <c r="O182" s="165">
-        <v>0</v>
-      </c>
-      <c r="P182" s="165">
-        <v>0</v>
-      </c>
-      <c r="Q182" s="165">
+      <c r="G182" s="166">
+        <v>0</v>
+      </c>
+      <c r="H182" s="166">
+        <v>0</v>
+      </c>
+      <c r="I182" s="166">
+        <v>0</v>
+      </c>
+      <c r="J182" s="166">
+        <v>0</v>
+      </c>
+      <c r="K182" s="166">
+        <v>0</v>
+      </c>
+      <c r="L182" s="166">
+        <v>0</v>
+      </c>
+      <c r="M182" s="166">
+        <v>0</v>
+      </c>
+      <c r="N182" s="166">
+        <v>0</v>
+      </c>
+      <c r="O182" s="166">
+        <v>0</v>
+      </c>
+      <c r="P182" s="166">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="166">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="166"/>
-      <c r="B183" s="165"/>
-      <c r="C183" s="165"/>
-      <c r="D183" s="165"/>
-      <c r="E183" s="165"/>
-      <c r="F183" s="165"/>
-      <c r="G183" s="165"/>
-      <c r="H183" s="165"/>
-      <c r="I183" s="165"/>
-      <c r="J183" s="165"/>
-      <c r="K183" s="165"/>
-      <c r="L183" s="165"/>
-      <c r="M183" s="165"/>
-      <c r="N183" s="165"/>
-      <c r="O183" s="165"/>
-      <c r="P183" s="165"/>
-      <c r="Q183" s="165"/>
+      <c r="A183" s="165"/>
+      <c r="B183" s="166"/>
+      <c r="C183" s="166"/>
+      <c r="D183" s="166"/>
+      <c r="E183" s="166"/>
+      <c r="F183" s="166"/>
+      <c r="G183" s="166"/>
+      <c r="H183" s="166"/>
+      <c r="I183" s="166"/>
+      <c r="J183" s="166"/>
+      <c r="K183" s="166"/>
+      <c r="L183" s="166"/>
+      <c r="M183" s="166"/>
+      <c r="N183" s="166"/>
+      <c r="O183" s="166"/>
+      <c r="P183" s="166"/>
+      <c r="Q183" s="166"/>
     </row>
     <row r="184" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="166"/>
-      <c r="B184" s="165"/>
-      <c r="C184" s="165"/>
-      <c r="D184" s="165"/>
-      <c r="E184" s="165"/>
-      <c r="F184" s="165"/>
-      <c r="G184" s="165"/>
-      <c r="H184" s="165"/>
-      <c r="I184" s="165"/>
-      <c r="J184" s="165"/>
-      <c r="K184" s="165"/>
-      <c r="L184" s="165"/>
-      <c r="M184" s="165"/>
-      <c r="N184" s="165"/>
-      <c r="O184" s="165"/>
-      <c r="P184" s="165"/>
-      <c r="Q184" s="165"/>
+      <c r="A184" s="165"/>
+      <c r="B184" s="166"/>
+      <c r="C184" s="166"/>
+      <c r="D184" s="166"/>
+      <c r="E184" s="166"/>
+      <c r="F184" s="166"/>
+      <c r="G184" s="166"/>
+      <c r="H184" s="166"/>
+      <c r="I184" s="166"/>
+      <c r="J184" s="166"/>
+      <c r="K184" s="166"/>
+      <c r="L184" s="166"/>
+      <c r="M184" s="166"/>
+      <c r="N184" s="166"/>
+      <c r="O184" s="166"/>
+      <c r="P184" s="166"/>
+      <c r="Q184" s="166"/>
     </row>
     <row r="185" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="166"/>
-      <c r="B185" s="165"/>
-      <c r="C185" s="165"/>
-      <c r="D185" s="165"/>
-      <c r="E185" s="165"/>
-      <c r="F185" s="165"/>
-      <c r="G185" s="165"/>
-      <c r="H185" s="165"/>
-      <c r="I185" s="165"/>
-      <c r="J185" s="165"/>
-      <c r="K185" s="165"/>
-      <c r="L185" s="165"/>
-      <c r="M185" s="165"/>
-      <c r="N185" s="165"/>
-      <c r="O185" s="165"/>
-      <c r="P185" s="165"/>
-      <c r="Q185" s="165"/>
+      <c r="A185" s="165"/>
+      <c r="B185" s="166"/>
+      <c r="C185" s="166"/>
+      <c r="D185" s="166"/>
+      <c r="E185" s="166"/>
+      <c r="F185" s="166"/>
+      <c r="G185" s="166"/>
+      <c r="H185" s="166"/>
+      <c r="I185" s="166"/>
+      <c r="J185" s="166"/>
+      <c r="K185" s="166"/>
+      <c r="L185" s="166"/>
+      <c r="M185" s="166"/>
+      <c r="N185" s="166"/>
+      <c r="O185" s="166"/>
+      <c r="P185" s="166"/>
+      <c r="Q185" s="166"/>
     </row>
     <row r="186" spans="1:17" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="166"/>
-      <c r="B186" s="165"/>
-      <c r="C186" s="165"/>
-      <c r="D186" s="165"/>
-      <c r="E186" s="165"/>
-      <c r="F186" s="165"/>
-      <c r="G186" s="165"/>
-      <c r="H186" s="165"/>
-      <c r="I186" s="165"/>
-      <c r="J186" s="165"/>
-      <c r="K186" s="165"/>
-      <c r="L186" s="165"/>
-      <c r="M186" s="165"/>
-      <c r="N186" s="165"/>
-      <c r="O186" s="165"/>
-      <c r="P186" s="165"/>
-      <c r="Q186" s="165"/>
-    </row>
-    <row r="187" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A186" s="165"/>
+      <c r="B186" s="166"/>
+      <c r="C186" s="166"/>
+      <c r="D186" s="166"/>
+      <c r="E186" s="166"/>
+      <c r="F186" s="166"/>
+      <c r="G186" s="166"/>
+      <c r="H186" s="166"/>
+      <c r="I186" s="166"/>
+      <c r="J186" s="166"/>
+      <c r="K186" s="166"/>
+      <c r="L186" s="166"/>
+      <c r="M186" s="166"/>
+      <c r="N186" s="166"/>
+      <c r="O186" s="166"/>
+      <c r="P186" s="166"/>
+      <c r="Q186" s="166"/>
+    </row>
+    <row r="187" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="167"/>
+      <c r="C187" s="167"/>
+      <c r="D187" s="167"/>
+      <c r="E187" s="167"/>
+      <c r="F187" s="167"/>
+      <c r="G187" s="167"/>
+      <c r="H187" s="167"/>
+      <c r="I187" s="167"/>
+      <c r="J187" s="167"/>
+      <c r="K187" s="167"/>
+      <c r="L187" s="167"/>
+      <c r="M187" s="167"/>
+      <c r="N187" s="167"/>
+      <c r="O187" s="167"/>
+      <c r="P187" s="167"/>
+      <c r="Q187" s="167"/>
+    </row>
     <row r="188" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="158" t="s">
+      <c r="A188" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="B188" s="165">
+      <c r="B188" s="166">
         <f t="shared" si="19"/>
         <v>986028.1181983999</v>
       </c>
-      <c r="C188" s="165">
+      <c r="C188" s="166">
         <f>SUM(G188:O188)</f>
         <v>269038.54625454539</v>
       </c>
-      <c r="D188" s="167">
-        <f ca="1">SUM(D189:D194)</f>
-        <v>0</v>
-      </c>
-      <c r="E188" s="167">
-        <f>SUM(E189:E190)</f>
-        <v>0</v>
-      </c>
-      <c r="F188" s="167">
-        <f ca="1">SUM(F189:F194)</f>
-        <v>0</v>
-      </c>
-      <c r="G188" s="167">
-        <f>SUM(G189:G190)</f>
+      <c r="D188" s="168">
+        <f>SUM(D189:D190)</f>
+        <v>0</v>
+      </c>
+      <c r="E188" s="168">
+        <f t="shared" ref="E188:Q188" si="23">SUM(E189:E190)</f>
+        <v>0</v>
+      </c>
+      <c r="F188" s="168">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G188" s="168">
+        <f t="shared" si="23"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="H188" s="167">
-        <f>SUM(H189:H190)</f>
+      <c r="H188" s="168">
+        <f t="shared" si="23"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="I188" s="167">
-        <f t="shared" ref="I188:P188" si="22">SUM(I189:I190)</f>
+      <c r="I188" s="168">
+        <f t="shared" si="23"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="J188" s="167">
-        <f t="shared" si="22"/>
+      <c r="J188" s="168">
+        <f t="shared" si="23"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="K188" s="167">
-        <f t="shared" si="22"/>
+      <c r="K188" s="168">
+        <f t="shared" si="23"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="L188" s="167">
-        <f t="shared" si="22"/>
+      <c r="L188" s="168">
+        <f t="shared" si="23"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="M188" s="167">
-        <f t="shared" si="22"/>
+      <c r="M188" s="168">
+        <f t="shared" si="23"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="N188" s="167">
-        <f t="shared" si="22"/>
+      <c r="N188" s="168">
+        <f t="shared" si="23"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="O188" s="167">
-        <f t="shared" si="22"/>
+      <c r="O188" s="168">
+        <f t="shared" si="23"/>
         <v>29893.171806060607</v>
       </c>
-      <c r="P188" s="167">
-        <f t="shared" si="22"/>
+      <c r="P188" s="168">
+        <f t="shared" si="23"/>
         <v>358718.06167272729</v>
       </c>
-      <c r="Q188" s="167">
-        <f>SUM(Q189:Q190)</f>
+      <c r="Q188" s="168">
+        <f t="shared" si="23"/>
         <v>358271.51027112728</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="158" t="s">
+      <c r="A189" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="B189" s="165">
+      <c r="B189" s="166">
         <f t="shared" si="19"/>
         <v>985245.42400000012</v>
       </c>
-      <c r="C189" s="165">
+      <c r="C189" s="166">
         <f>SUM(G189:O189)</f>
         <v>268703.29745454551</v>
       </c>
-      <c r="D189" s="165">
-        <v>0</v>
-      </c>
-      <c r="E189" s="165">
-        <v>0</v>
-      </c>
-      <c r="F189" s="165">
-        <v>0</v>
-      </c>
-      <c r="G189" s="167">
-        <f>D154</f>
+      <c r="D189" s="166">
+        <v>0</v>
+      </c>
+      <c r="E189" s="166">
+        <v>0</v>
+      </c>
+      <c r="F189" s="166">
+        <v>0</v>
+      </c>
+      <c r="G189" s="168">
+        <f t="shared" ref="G189:Q189" si="24">D154</f>
         <v>29855.921939393942</v>
       </c>
-      <c r="H189" s="167">
-        <f>E154</f>
+      <c r="H189" s="168">
+        <f t="shared" si="24"/>
         <v>29855.921939393942</v>
       </c>
-      <c r="I189" s="167">
-        <f>F154</f>
+      <c r="I189" s="168">
+        <f t="shared" si="24"/>
         <v>29855.921939393942</v>
       </c>
-      <c r="J189" s="167">
-        <f>G154</f>
+      <c r="J189" s="168">
+        <f t="shared" si="24"/>
         <v>29855.921939393942</v>
       </c>
-      <c r="K189" s="167">
-        <f>H154</f>
+      <c r="K189" s="168">
+        <f t="shared" si="24"/>
         <v>29855.921939393942</v>
       </c>
-      <c r="L189" s="167">
-        <f>I154</f>
+      <c r="L189" s="168">
+        <f t="shared" si="24"/>
         <v>29855.921939393942</v>
       </c>
-      <c r="M189" s="167">
-        <f>J154</f>
+      <c r="M189" s="168">
+        <f t="shared" si="24"/>
         <v>29855.921939393942</v>
       </c>
-      <c r="N189" s="167">
-        <f>K154</f>
+      <c r="N189" s="168">
+        <f t="shared" si="24"/>
         <v>29855.921939393942</v>
       </c>
-      <c r="O189" s="167">
-        <f>L154</f>
+      <c r="O189" s="168">
+        <f t="shared" si="24"/>
         <v>29855.921939393942</v>
       </c>
-      <c r="P189" s="167">
-        <f>M154</f>
+      <c r="P189" s="168">
+        <f t="shared" si="24"/>
         <v>358271.0632727273</v>
       </c>
-      <c r="Q189" s="167">
-        <f>N154</f>
+      <c r="Q189" s="168">
+        <f t="shared" si="24"/>
         <v>358271.0632727273</v>
       </c>
     </row>
     <row r="190" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="158" t="s">
+      <c r="A190" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="B190" s="165">
+      <c r="B190" s="166">
         <f t="shared" si="19"/>
         <v>782.6941984</v>
       </c>
-      <c r="C190" s="165">
+      <c r="C190" s="166">
         <f>SUM(D190:O190)</f>
         <v>335.24879999999996</v>
       </c>
-      <c r="D190" s="165">
-        <v>0</v>
-      </c>
-      <c r="E190" s="165">
-        <v>0</v>
-      </c>
-      <c r="F190" s="165">
-        <v>0</v>
-      </c>
-      <c r="G190" s="167">
+      <c r="D190" s="166">
+        <v>0</v>
+      </c>
+      <c r="E190" s="166">
+        <v>0</v>
+      </c>
+      <c r="F190" s="166">
+        <v>0</v>
+      </c>
+      <c r="G190" s="168">
         <f>D169</f>
         <v>37.249866666666662</v>
       </c>
-      <c r="H190" s="167">
-        <f t="shared" ref="H190:P190" si="23">E169</f>
+      <c r="H190" s="168">
+        <f t="shared" ref="H190:P190" si="25">E169</f>
         <v>37.249866666666662</v>
       </c>
-      <c r="I190" s="167">
-        <f t="shared" si="23"/>
+      <c r="I190" s="168">
+        <f t="shared" si="25"/>
         <v>37.249866666666662</v>
       </c>
-      <c r="J190" s="167">
-        <f t="shared" si="23"/>
+      <c r="J190" s="168">
+        <f t="shared" si="25"/>
         <v>37.249866666666662</v>
       </c>
-      <c r="K190" s="167">
-        <f t="shared" si="23"/>
+      <c r="K190" s="168">
+        <f t="shared" si="25"/>
         <v>37.249866666666662</v>
       </c>
-      <c r="L190" s="167">
-        <f t="shared" si="23"/>
+      <c r="L190" s="168">
+        <f t="shared" si="25"/>
         <v>37.249866666666662</v>
       </c>
-      <c r="M190" s="167">
-        <f t="shared" si="23"/>
+      <c r="M190" s="168">
+        <f t="shared" si="25"/>
         <v>37.249866666666662</v>
       </c>
-      <c r="N190" s="167">
-        <f t="shared" si="23"/>
+      <c r="N190" s="168">
+        <f t="shared" si="25"/>
         <v>37.249866666666662</v>
       </c>
-      <c r="O190" s="167">
-        <f t="shared" si="23"/>
+      <c r="O190" s="168">
+        <f t="shared" si="25"/>
         <v>37.249866666666662</v>
       </c>
-      <c r="P190" s="167">
-        <f t="shared" si="23"/>
+      <c r="P190" s="168">
+        <f t="shared" si="25"/>
         <v>446.9984</v>
       </c>
-      <c r="Q190" s="167">
+      <c r="Q190" s="168">
         <f>N168</f>
         <v>0.44699840000000002</v>
       </c>
     </row>
     <row r="191" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="166" t="s">
+      <c r="A191" s="165" t="s">
         <v>245</v>
       </c>
-      <c r="B191" s="165">
+      <c r="B191" s="166">
         <f>B181/10</f>
         <v>106357.21205984001</v>
       </c>
-      <c r="C191" s="165">
-        <f t="shared" ref="C191:H191" si="24">C181/10</f>
+      <c r="C191" s="166">
+        <f t="shared" ref="C191:H191" si="26">C181/10</f>
         <v>34658.254865454539</v>
       </c>
-      <c r="D191" s="165">
-        <f t="shared" ca="1" si="24"/>
+      <c r="D191" s="166">
+        <f t="shared" si="26"/>
         <v>3506.7040000000002</v>
       </c>
-      <c r="E191" s="165">
-        <f t="shared" si="24"/>
+      <c r="E191" s="166">
+        <f t="shared" si="26"/>
         <v>3506.7040000000002</v>
       </c>
-      <c r="F191" s="165">
-        <f t="shared" ca="1" si="24"/>
+      <c r="F191" s="166">
+        <f t="shared" si="26"/>
         <v>740.99224000000004</v>
       </c>
-      <c r="G191" s="165">
-        <f t="shared" si="24"/>
+      <c r="G191" s="166">
+        <f t="shared" si="26"/>
         <v>2989.3171806060609</v>
       </c>
-      <c r="H191" s="165">
-        <f t="shared" si="24"/>
+      <c r="H191" s="166">
+        <f t="shared" si="26"/>
         <v>2989.3171806060609</v>
       </c>
-      <c r="I191" s="165">
-        <f t="shared" ref="I191" si="25">I181/10</f>
+      <c r="I191" s="166">
+        <f t="shared" ref="I191" si="27">I181/10</f>
         <v>2989.3171806060609</v>
       </c>
-      <c r="J191" s="165">
-        <f>J181/10</f>
+      <c r="J191" s="166">
+        <f t="shared" ref="J191:Q191" si="28">J181/10</f>
         <v>2989.3171806060609</v>
       </c>
-      <c r="K191" s="165">
-        <f>K181/10</f>
+      <c r="K191" s="166">
+        <f t="shared" si="28"/>
         <v>2989.3171806060609</v>
       </c>
-      <c r="L191" s="165">
-        <f>L181/10</f>
+      <c r="L191" s="166">
+        <f t="shared" si="28"/>
         <v>2989.3171806060609</v>
       </c>
-      <c r="M191" s="165">
-        <f>M181/10</f>
+      <c r="M191" s="166">
+        <f t="shared" si="28"/>
         <v>2989.3171806060609</v>
       </c>
-      <c r="N191" s="165">
-        <f>N181/10</f>
+      <c r="N191" s="166">
+        <f t="shared" si="28"/>
         <v>2989.3171806060609</v>
       </c>
-      <c r="O191" s="165">
-        <f>O181/10</f>
+      <c r="O191" s="166">
+        <f t="shared" si="28"/>
         <v>2989.3171806060609</v>
       </c>
-      <c r="P191" s="165">
-        <f>P181/10</f>
+      <c r="P191" s="166">
+        <f t="shared" si="28"/>
         <v>35871.806167272727</v>
       </c>
-      <c r="Q191" s="165">
-        <f>Q181/10</f>
+      <c r="Q191" s="166">
+        <f t="shared" si="28"/>
         <v>35827.151027112726</v>
       </c>
     </row>
     <row r="192" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="222" t="s">
+      <c r="A192" s="231" t="s">
         <v>236</v>
       </c>
-      <c r="B192" s="222"/>
-      <c r="C192" s="222"/>
-      <c r="D192" s="222"/>
-      <c r="E192" s="222"/>
-      <c r="F192" s="222"/>
+      <c r="B192" s="231"/>
+      <c r="C192" s="231"/>
+      <c r="D192" s="231"/>
+      <c r="E192" s="231"/>
+      <c r="F192" s="231"/>
     </row>
     <row r="194" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="27" t="s">
@@ -6638,18 +6656,18 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="98"/>
-      <c r="B195" s="223" t="s">
+      <c r="B195" s="232" t="s">
         <v>180</v>
       </c>
-      <c r="C195" s="225" t="s">
+      <c r="C195" s="234" t="s">
         <v>94</v>
       </c>
-      <c r="D195" s="226"/>
-      <c r="E195" s="227"/>
+      <c r="D195" s="235"/>
+      <c r="E195" s="236"/>
     </row>
     <row r="196" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="99"/>
-      <c r="B196" s="224"/>
+      <c r="B196" s="233"/>
       <c r="C196" s="74" t="s">
         <v>181</v>
       </c>
@@ -6664,7 +6682,7 @@
       <c r="A197" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="B197" s="223" t="s">
+      <c r="B197" s="232" t="s">
         <v>187</v>
       </c>
       <c r="C197" s="97">
@@ -6683,7 +6701,7 @@
       <c r="A198" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="B198" s="224"/>
+      <c r="B198" s="233"/>
       <c r="C198" s="74">
         <f>C197*C109</f>
         <v>160</v>
@@ -6698,61 +6716,61 @@
       </c>
     </row>
     <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="222" t="s">
+      <c r="A199" s="231" t="s">
         <v>215</v>
       </c>
-      <c r="B199" s="222"/>
-      <c r="C199" s="222"/>
-      <c r="D199" s="222"/>
-      <c r="E199" s="222"/>
-      <c r="F199" s="222"/>
-      <c r="G199" s="222"/>
-      <c r="H199" s="222"/>
-      <c r="I199" s="222"/>
+      <c r="B199" s="231"/>
+      <c r="C199" s="231"/>
+      <c r="D199" s="231"/>
+      <c r="E199" s="231"/>
+      <c r="F199" s="231"/>
+      <c r="G199" s="231"/>
+      <c r="H199" s="231"/>
+      <c r="I199" s="231"/>
     </row>
     <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="222"/>
-      <c r="B200" s="222"/>
-      <c r="C200" s="222"/>
-      <c r="D200" s="222"/>
-      <c r="E200" s="222"/>
-      <c r="F200" s="222"/>
-      <c r="G200" s="222"/>
-      <c r="H200" s="222"/>
-      <c r="I200" s="222"/>
+      <c r="A200" s="231"/>
+      <c r="B200" s="231"/>
+      <c r="C200" s="231"/>
+      <c r="D200" s="231"/>
+      <c r="E200" s="231"/>
+      <c r="F200" s="231"/>
+      <c r="G200" s="231"/>
+      <c r="H200" s="231"/>
+      <c r="I200" s="231"/>
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="222"/>
-      <c r="B201" s="222"/>
-      <c r="C201" s="222"/>
-      <c r="D201" s="222"/>
-      <c r="E201" s="222"/>
-      <c r="F201" s="222"/>
-      <c r="G201" s="222"/>
-      <c r="H201" s="222"/>
-      <c r="I201" s="222"/>
+      <c r="A201" s="231"/>
+      <c r="B201" s="231"/>
+      <c r="C201" s="231"/>
+      <c r="D201" s="231"/>
+      <c r="E201" s="231"/>
+      <c r="F201" s="231"/>
+      <c r="G201" s="231"/>
+      <c r="H201" s="231"/>
+      <c r="I201" s="231"/>
     </row>
     <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="222"/>
-      <c r="B202" s="222"/>
-      <c r="C202" s="222"/>
-      <c r="D202" s="222"/>
-      <c r="E202" s="222"/>
-      <c r="F202" s="222"/>
-      <c r="G202" s="222"/>
-      <c r="H202" s="222"/>
-      <c r="I202" s="222"/>
+      <c r="A202" s="231"/>
+      <c r="B202" s="231"/>
+      <c r="C202" s="231"/>
+      <c r="D202" s="231"/>
+      <c r="E202" s="231"/>
+      <c r="F202" s="231"/>
+      <c r="G202" s="231"/>
+      <c r="H202" s="231"/>
+      <c r="I202" s="231"/>
     </row>
     <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="222"/>
-      <c r="B203" s="222"/>
-      <c r="C203" s="222"/>
-      <c r="D203" s="222"/>
-      <c r="E203" s="222"/>
-      <c r="F203" s="222"/>
-      <c r="G203" s="222"/>
-      <c r="H203" s="222"/>
-      <c r="I203" s="222"/>
+      <c r="A203" s="231"/>
+      <c r="B203" s="231"/>
+      <c r="C203" s="231"/>
+      <c r="D203" s="231"/>
+      <c r="E203" s="231"/>
+      <c r="F203" s="231"/>
+      <c r="G203" s="231"/>
+      <c r="H203" s="231"/>
+      <c r="I203" s="231"/>
     </row>
     <row r="205" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
@@ -6839,7 +6857,7 @@
         <f>C211-B211</f>
         <v>-4068.1818181818185</v>
       </c>
-      <c r="F211" s="151" t="s">
+      <c r="F211" s="150" t="s">
         <v>243</v>
       </c>
       <c r="G211" s="116" t="s">
@@ -6862,20 +6880,20 @@
         <f>C212-B212</f>
         <v>-40681.818181818169</v>
       </c>
-      <c r="F212" s="151"/>
+      <c r="F212" s="150"/>
       <c r="G212" s="116"/>
     </row>
     <row r="213" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="B213" s="228">
+      <c r="B213" s="173">
         <f>D212*12</f>
         <v>-488181.818181818</v>
       </c>
-      <c r="C213" s="229"/>
-      <c r="D213" s="230"/>
-      <c r="F213" s="151" t="s">
+      <c r="C213" s="174"/>
+      <c r="D213" s="175"/>
+      <c r="F213" s="150" t="s">
         <v>203</v>
       </c>
       <c r="G213" s="116">
@@ -6883,7 +6901,7 @@
       </c>
     </row>
     <row r="214" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="F214" s="151" t="s">
+      <c r="F214" s="150" t="s">
         <v>204</v>
       </c>
       <c r="G214" s="116">
@@ -6897,7 +6915,7 @@
       </c>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
-      <c r="F215" s="151" t="s">
+      <c r="F215" s="150" t="s">
         <v>242</v>
       </c>
       <c r="G215" s="116">
@@ -6915,7 +6933,7 @@
       <c r="C216" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="F216" s="151"/>
+      <c r="F216" s="150"/>
       <c r="G216" s="116"/>
     </row>
     <row r="217" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6962,39 +6980,39 @@
       <c r="R220" s="126"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" s="231" t="s">
+      <c r="A221" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="B221" s="232"/>
-      <c r="C221" s="235" t="s">
+      <c r="B221" s="177"/>
+      <c r="C221" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="D221" s="237" t="s">
+      <c r="D221" s="182" t="s">
         <v>149</v>
       </c>
-      <c r="E221" s="238"/>
-      <c r="F221" s="238"/>
-      <c r="G221" s="238"/>
-      <c r="H221" s="238"/>
-      <c r="I221" s="238"/>
-      <c r="J221" s="238"/>
-      <c r="K221" s="238"/>
-      <c r="L221" s="238"/>
-      <c r="M221" s="238"/>
-      <c r="N221" s="238"/>
-      <c r="O221" s="238"/>
-      <c r="P221" s="239"/>
-      <c r="Q221" s="235" t="s">
+      <c r="E221" s="183"/>
+      <c r="F221" s="183"/>
+      <c r="G221" s="183"/>
+      <c r="H221" s="183"/>
+      <c r="I221" s="183"/>
+      <c r="J221" s="183"/>
+      <c r="K221" s="183"/>
+      <c r="L221" s="183"/>
+      <c r="M221" s="183"/>
+      <c r="N221" s="183"/>
+      <c r="O221" s="183"/>
+      <c r="P221" s="184"/>
+      <c r="Q221" s="180" t="s">
         <v>150</v>
       </c>
-      <c r="R221" s="240" t="s">
+      <c r="R221" s="239" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="222" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="233"/>
-      <c r="B222" s="234"/>
-      <c r="C222" s="236"/>
+      <c r="A222" s="178"/>
+      <c r="B222" s="179"/>
+      <c r="C222" s="181"/>
       <c r="D222" s="127" t="s">
         <v>170</v>
       </c>
@@ -7034,20 +7052,20 @@
       <c r="P222" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="Q222" s="236"/>
-      <c r="R222" s="241"/>
+      <c r="Q222" s="181"/>
+      <c r="R222" s="243"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A223" s="170" t="s">
+      <c r="A223" s="248" t="s">
         <v>208</v>
       </c>
-      <c r="B223" s="171"/>
+      <c r="B223" s="249"/>
       <c r="C223" s="128">
-        <f>SUM(D223,Q223,R223)</f>
+        <f t="shared" ref="C223:C229" si="29">SUM(D223,Q223,R223)</f>
         <v>1942499.9999999995</v>
       </c>
       <c r="D223" s="128">
-        <f t="shared" ref="D223:D229" si="26">SUM(E223:P223)</f>
+        <f t="shared" ref="D223:D229" si="30">SUM(E223:P223)</f>
         <v>529772.72727272718</v>
       </c>
       <c r="E223" s="128">
@@ -7064,11 +7082,11 @@
         <v>58863.636363636353</v>
       </c>
       <c r="I223" s="128">
-        <f t="shared" ref="I223:N223" si="27">SUM(I224:I225)</f>
+        <f t="shared" ref="I223:N223" si="31">SUM(I224:I225)</f>
         <v>58863.636363636353</v>
       </c>
       <c r="J223" s="128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>58863.636363636353</v>
       </c>
       <c r="K223" s="128">
@@ -7076,15 +7094,15 @@
         <v>58863.636363636353</v>
       </c>
       <c r="L223" s="128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>58863.636363636353</v>
       </c>
       <c r="M223" s="128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>58863.636363636353</v>
       </c>
       <c r="N223" s="128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>58863.636363636353</v>
       </c>
       <c r="O223" s="128">
@@ -7105,16 +7123,16 @@
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A224" s="168" t="s">
+      <c r="A224" s="244" t="s">
         <v>209</v>
       </c>
-      <c r="B224" s="169"/>
+      <c r="B224" s="245"/>
       <c r="C224" s="130">
-        <f>SUM(D224,Q224,R224)</f>
+        <f t="shared" si="29"/>
         <v>600000</v>
       </c>
       <c r="D224" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>163636.36363636362</v>
       </c>
       <c r="E224" s="131">
@@ -7131,35 +7149,35 @@
         <v>18181.818181818184</v>
       </c>
       <c r="I224" s="131">
-        <f t="shared" ref="I224:P224" si="28">$E$207</f>
+        <f t="shared" ref="I224:P224" si="32">$E$207</f>
         <v>18181.818181818184</v>
       </c>
       <c r="J224" s="131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>18181.818181818184</v>
       </c>
       <c r="K224" s="131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>18181.818181818184</v>
       </c>
       <c r="L224" s="131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>18181.818181818184</v>
       </c>
       <c r="M224" s="131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>18181.818181818184</v>
       </c>
       <c r="N224" s="131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>18181.818181818184</v>
       </c>
       <c r="O224" s="131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>18181.818181818184</v>
       </c>
       <c r="P224" s="131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>18181.818181818184</v>
       </c>
       <c r="Q224" s="1">
@@ -7172,16 +7190,16 @@
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A225" s="168" t="s">
+      <c r="A225" s="244" t="s">
         <v>210</v>
       </c>
-      <c r="B225" s="169"/>
+      <c r="B225" s="245"/>
       <c r="C225" s="130">
-        <f>SUM(D225,Q225,R225)</f>
+        <f t="shared" si="29"/>
         <v>1342499.9999999995</v>
       </c>
       <c r="D225" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>366136.36363636353</v>
       </c>
       <c r="E225" s="131">
@@ -7198,35 +7216,35 @@
         <v>40681.818181818169</v>
       </c>
       <c r="I225" s="1">
-        <f t="shared" ref="I225:P225" si="29">-$D$212</f>
+        <f t="shared" ref="I225:P225" si="33">-$D$212</f>
         <v>40681.818181818169</v>
       </c>
       <c r="J225" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>40681.818181818169</v>
       </c>
       <c r="K225" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>40681.818181818169</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>40681.818181818169</v>
       </c>
       <c r="M225" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>40681.818181818169</v>
       </c>
       <c r="N225" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>40681.818181818169</v>
       </c>
       <c r="O225" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>40681.818181818169</v>
       </c>
       <c r="P225" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>40681.818181818169</v>
       </c>
       <c r="Q225" s="1">
@@ -7239,873 +7257,875 @@
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A226" s="168" t="s">
+      <c r="A226" s="244" t="s">
         <v>211</v>
       </c>
-      <c r="B226" s="169"/>
+      <c r="B226" s="245"/>
       <c r="C226" s="130">
-        <f ca="1">SUM(D226,Q226,R226)</f>
-        <v>1064018.672</v>
+        <f>B181</f>
+        <v>1063572.1205984</v>
       </c>
       <c r="D226" s="130">
-        <f ca="1">SUM(E226:P226)</f>
+        <f t="shared" ref="D226:R226" si="34">C181</f>
         <v>346582.54865454539</v>
       </c>
-      <c r="E226" s="131">
-        <f ca="1">SUM(E227:E228)</f>
+      <c r="E226" s="130">
+        <f>SUM(E227:E228)</f>
         <v>35067.040000000001</v>
       </c>
-      <c r="F226" s="131">
-        <f t="shared" ref="F226:R226" si="30">SUM(F227:F228)</f>
+      <c r="F226" s="130">
+        <f t="shared" si="34"/>
         <v>35067.040000000001</v>
       </c>
-      <c r="G226" s="131">
-        <f t="shared" ca="1" si="30"/>
+      <c r="G226" s="130">
+        <f t="shared" si="34"/>
         <v>7409.9224000000004</v>
       </c>
-      <c r="H226" s="131">
+      <c r="H226" s="130">
+        <f>G181</f>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="I226" s="130">
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="J226" s="130">
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="K226" s="130">
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="L226" s="130">
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="M226" s="130">
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="N226" s="130">
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="O226" s="130">
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="P226" s="130">
+        <f t="shared" si="34"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="Q226" s="130">
+        <f t="shared" si="34"/>
+        <v>358718.06167272729</v>
+      </c>
+      <c r="R226" s="130">
+        <f t="shared" si="34"/>
+        <v>358271.51027112728</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A227" s="244" t="s">
+        <v>212</v>
+      </c>
+      <c r="B227" s="245"/>
+      <c r="C227" s="130">
+        <f>B182</f>
+        <v>77544.002399999998</v>
+      </c>
+      <c r="D227" s="130">
+        <f t="shared" ref="D227:R227" si="35">C182</f>
+        <v>77544.002399999998</v>
+      </c>
+      <c r="E227" s="130">
+        <f t="shared" si="35"/>
+        <v>35067.040000000001</v>
+      </c>
+      <c r="F227" s="130">
+        <f t="shared" si="35"/>
+        <v>35067.040000000001</v>
+      </c>
+      <c r="G227" s="130">
+        <f t="shared" si="35"/>
+        <v>7409.9224000000004</v>
+      </c>
+      <c r="H227" s="130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I227" s="130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J227" s="130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K227" s="130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="L227" s="130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M227" s="130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N227" s="130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O227" s="130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="P227" s="130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q227" s="130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R227" s="130">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A228" s="244" t="s">
+        <v>213</v>
+      </c>
+      <c r="B228" s="245"/>
+      <c r="C228" s="130">
+        <f>B188</f>
+        <v>986028.1181983999</v>
+      </c>
+      <c r="D228" s="130">
+        <f t="shared" ref="D228:R228" si="36">C188</f>
+        <v>269038.54625454539</v>
+      </c>
+      <c r="E228" s="130">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F228" s="130">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G228" s="130">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H228" s="130" t="s">
+        <v>242</v>
+      </c>
+      <c r="I228" s="130">
+        <f t="shared" si="36"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="J228" s="130">
+        <f t="shared" si="36"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="K228" s="130">
+        <f t="shared" si="36"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="L228" s="130">
+        <f t="shared" si="36"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="M228" s="130">
+        <f t="shared" si="36"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="N228" s="130">
+        <f t="shared" si="36"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="O228" s="130">
+        <f t="shared" si="36"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="P228" s="130">
+        <f t="shared" si="36"/>
+        <v>29893.171806060607</v>
+      </c>
+      <c r="Q228" s="130">
+        <f t="shared" si="36"/>
+        <v>358718.06167272729</v>
+      </c>
+      <c r="R228" s="130">
+        <f t="shared" si="36"/>
+        <v>358271.51027112728</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="246" t="s">
+        <v>214</v>
+      </c>
+      <c r="B229" s="247"/>
+      <c r="C229" s="133">
+        <f t="shared" si="29"/>
+        <v>878927.87940159952</v>
+      </c>
+      <c r="D229" s="133">
         <f t="shared" si="30"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="I226" s="131">
-        <f t="shared" si="30"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="J226" s="131">
-        <f t="shared" si="30"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="K226" s="131">
-        <f t="shared" si="30"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="L226" s="131">
-        <f t="shared" si="30"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="M226" s="131">
-        <f t="shared" si="30"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="N226" s="131">
-        <f t="shared" si="30"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="O226" s="131">
-        <f t="shared" si="30"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="P226" s="131">
-        <f t="shared" si="30"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="Q226" s="131">
-        <f>SUM(Q227:Q228)</f>
-        <v>358718.06167272729</v>
-      </c>
-      <c r="R226" s="132">
-        <f t="shared" si="30"/>
-        <v>358271.51027112728</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A227" s="168" t="s">
-        <v>212</v>
-      </c>
-      <c r="B227" s="169"/>
-      <c r="C227" s="130">
-        <f>SUM(D227,Q227,R227)</f>
-        <v>77544.002399999998</v>
-      </c>
-      <c r="D227" s="130">
-        <f>SUM(E227:P227)</f>
-        <v>77544.002399999998</v>
-      </c>
-      <c r="E227" s="131">
-        <f>D182</f>
-        <v>35067.040000000001</v>
-      </c>
-      <c r="F227" s="131">
-        <f>E182</f>
-        <v>35067.040000000001</v>
-      </c>
-      <c r="G227" s="131">
-        <f>F182</f>
-        <v>7409.9224000000004</v>
-      </c>
-      <c r="H227" s="131">
-        <f>G186</f>
-        <v>0</v>
-      </c>
-      <c r="I227" s="131">
-        <f>H186</f>
-        <v>0</v>
-      </c>
-      <c r="J227" s="131">
-        <f>I186</f>
-        <v>0</v>
-      </c>
-      <c r="K227" s="131">
-        <f>J186</f>
-        <v>0</v>
-      </c>
-      <c r="L227" s="131">
-        <f>K186</f>
-        <v>0</v>
-      </c>
-      <c r="M227" s="131">
-        <f>L186</f>
-        <v>0</v>
-      </c>
-      <c r="N227" s="131">
-        <f>M186</f>
-        <v>0</v>
-      </c>
-      <c r="O227" s="131">
-        <f>N186</f>
-        <v>0</v>
-      </c>
-      <c r="P227" s="131">
-        <f>O186</f>
-        <v>0</v>
-      </c>
-      <c r="Q227" s="131">
-        <f>P186</f>
-        <v>0</v>
-      </c>
-      <c r="R227" s="131">
-        <f>Q186</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A228" s="168" t="s">
-        <v>213</v>
-      </c>
-      <c r="B228" s="169"/>
-      <c r="C228" s="130">
-        <f ca="1">SUM(D228,Q228,R228)</f>
-        <v>986474.66959999991</v>
-      </c>
-      <c r="D228" s="130">
-        <f t="shared" ca="1" si="26"/>
-        <v>269038.54625454539</v>
-      </c>
-      <c r="E228" s="133">
-        <f ca="1">D188</f>
-        <v>0</v>
-      </c>
-      <c r="F228" s="133">
-        <f>E188</f>
-        <v>0</v>
-      </c>
-      <c r="G228" s="133">
-        <f ca="1">F188</f>
-        <v>0</v>
-      </c>
-      <c r="H228" s="133">
-        <f t="shared" ref="H228:Q228" si="31">G188</f>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="I228" s="133">
-        <f t="shared" si="31"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="J228" s="133">
-        <f t="shared" si="31"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="K228" s="133">
-        <f t="shared" si="31"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="L228" s="133">
-        <f t="shared" si="31"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="M228" s="133">
-        <f t="shared" si="31"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="N228" s="133">
-        <f t="shared" si="31"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="O228" s="133">
-        <f t="shared" si="31"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="P228" s="133">
-        <f t="shared" si="31"/>
-        <v>29893.171806060607</v>
-      </c>
-      <c r="Q228" s="133">
-        <f t="shared" si="31"/>
-        <v>358718.06167272729</v>
-      </c>
-      <c r="R228" s="133">
-        <f>Q188</f>
-        <v>358271.51027112728</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="242" t="s">
-        <v>214</v>
-      </c>
-      <c r="B229" s="243"/>
-      <c r="C229" s="134">
-        <f ca="1">SUM(D229,Q229,R229)</f>
-        <v>878481.32799999951</v>
-      </c>
-      <c r="D229" s="134">
-        <f t="shared" ca="1" si="26"/>
         <v>183190.17861818173</v>
       </c>
-      <c r="E229" s="135">
-        <f ca="1">E223-E226</f>
+      <c r="E229" s="134">
+        <f>E223-E226</f>
         <v>-35067.040000000001</v>
       </c>
-      <c r="F229" s="135">
-        <f t="shared" ref="F229:R229" si="32">F223-F226</f>
+      <c r="F229" s="134">
+        <f t="shared" ref="F229:R229" si="37">F223-F226</f>
         <v>-35067.040000000001</v>
       </c>
-      <c r="G229" s="135">
-        <f t="shared" ca="1" si="32"/>
+      <c r="G229" s="134">
+        <f t="shared" si="37"/>
         <v>-7409.9224000000004</v>
       </c>
-      <c r="H229" s="135">
+      <c r="H229" s="134">
         <f>H223-H226</f>
         <v>28970.464557575746</v>
       </c>
-      <c r="I229" s="135">
-        <f t="shared" si="32"/>
+      <c r="I229" s="134">
+        <f t="shared" si="37"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="J229" s="135">
-        <f t="shared" si="32"/>
+      <c r="J229" s="134">
+        <f t="shared" si="37"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="K229" s="135">
-        <f t="shared" si="32"/>
+      <c r="K229" s="134">
+        <f t="shared" si="37"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="L229" s="135">
-        <f t="shared" si="32"/>
+      <c r="L229" s="134">
+        <f t="shared" si="37"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="M229" s="135">
-        <f t="shared" si="32"/>
+      <c r="M229" s="134">
+        <f t="shared" si="37"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="N229" s="135">
-        <f t="shared" si="32"/>
+      <c r="N229" s="134">
+        <f t="shared" si="37"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="O229" s="135">
-        <f t="shared" si="32"/>
+      <c r="O229" s="134">
+        <f t="shared" si="37"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="P229" s="135">
-        <f t="shared" si="32"/>
+      <c r="P229" s="134">
+        <f t="shared" si="37"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="Q229" s="135">
-        <f t="shared" si="32"/>
+      <c r="Q229" s="134">
+        <f t="shared" si="37"/>
         <v>347645.57469090895</v>
       </c>
-      <c r="R229" s="135">
-        <f t="shared" si="32"/>
+      <c r="R229" s="134">
+        <f t="shared" si="37"/>
         <v>348092.12609250896</v>
       </c>
     </row>
     <row r="231" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="136" t="s">
+      <c r="A231" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="B231" s="137"/>
-      <c r="C231" s="137"/>
-      <c r="D231" s="137"/>
-      <c r="E231" s="137"/>
-      <c r="F231" s="137"/>
-      <c r="G231" s="137"/>
-      <c r="H231" s="137"/>
-      <c r="I231" s="137"/>
-      <c r="J231" s="137"/>
-      <c r="K231" s="137"/>
-      <c r="L231" s="137"/>
-      <c r="M231" s="137"/>
-      <c r="N231" s="137"/>
-      <c r="O231" s="137"/>
-      <c r="P231" s="137"/>
-      <c r="Q231" s="137"/>
+      <c r="B231" s="136"/>
+      <c r="C231" s="136"/>
+      <c r="D231" s="136"/>
+      <c r="E231" s="136"/>
+      <c r="F231" s="136"/>
+      <c r="G231" s="136"/>
+      <c r="H231" s="136"/>
+      <c r="I231" s="136"/>
+      <c r="J231" s="136"/>
+      <c r="K231" s="136"/>
+      <c r="L231" s="136"/>
+      <c r="M231" s="136"/>
+      <c r="N231" s="136"/>
+      <c r="O231" s="136"/>
+      <c r="P231" s="136"/>
+      <c r="Q231" s="136"/>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A232" s="244" t="s">
+      <c r="A232" s="250" t="s">
         <v>126</v>
       </c>
-      <c r="B232" s="235" t="s">
+      <c r="B232" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="C232" s="255" t="s">
+      <c r="C232" s="254" t="s">
         <v>149</v>
       </c>
-      <c r="D232" s="256"/>
-      <c r="E232" s="256"/>
-      <c r="F232" s="256"/>
-      <c r="G232" s="256"/>
-      <c r="H232" s="256"/>
-      <c r="I232" s="256"/>
-      <c r="J232" s="256"/>
-      <c r="K232" s="256"/>
-      <c r="L232" s="256"/>
-      <c r="M232" s="256"/>
-      <c r="N232" s="256"/>
-      <c r="O232" s="232"/>
-      <c r="P232" s="235" t="s">
+      <c r="D232" s="255"/>
+      <c r="E232" s="255"/>
+      <c r="F232" s="255"/>
+      <c r="G232" s="255"/>
+      <c r="H232" s="255"/>
+      <c r="I232" s="255"/>
+      <c r="J232" s="255"/>
+      <c r="K232" s="255"/>
+      <c r="L232" s="255"/>
+      <c r="M232" s="255"/>
+      <c r="N232" s="255"/>
+      <c r="O232" s="177"/>
+      <c r="P232" s="180" t="s">
         <v>150</v>
       </c>
-      <c r="Q232" s="240" t="s">
+      <c r="Q232" s="239" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A233" s="245"/>
-      <c r="B233" s="247"/>
-      <c r="C233" s="257"/>
-      <c r="D233" s="258"/>
-      <c r="E233" s="258"/>
-      <c r="F233" s="258"/>
-      <c r="G233" s="258"/>
-      <c r="H233" s="258"/>
-      <c r="I233" s="258"/>
-      <c r="J233" s="258"/>
-      <c r="K233" s="258"/>
-      <c r="L233" s="258"/>
-      <c r="M233" s="258"/>
-      <c r="N233" s="258"/>
-      <c r="O233" s="259"/>
-      <c r="P233" s="247"/>
-      <c r="Q233" s="249"/>
+      <c r="A233" s="259"/>
+      <c r="B233" s="237"/>
+      <c r="C233" s="256"/>
+      <c r="D233" s="257"/>
+      <c r="E233" s="257"/>
+      <c r="F233" s="257"/>
+      <c r="G233" s="257"/>
+      <c r="H233" s="257"/>
+      <c r="I233" s="257"/>
+      <c r="J233" s="257"/>
+      <c r="K233" s="257"/>
+      <c r="L233" s="257"/>
+      <c r="M233" s="257"/>
+      <c r="N233" s="257"/>
+      <c r="O233" s="258"/>
+      <c r="P233" s="237"/>
+      <c r="Q233" s="240"/>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A234" s="246"/>
-      <c r="B234" s="248"/>
-      <c r="C234" s="138" t="s">
+      <c r="A234" s="260"/>
+      <c r="B234" s="238"/>
+      <c r="C234" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="D234" s="138" t="s">
+      <c r="D234" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="E234" s="138" t="s">
+      <c r="E234" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="F234" s="138" t="s">
+      <c r="F234" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="G234" s="138" t="s">
+      <c r="G234" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="H234" s="138" t="s">
+      <c r="H234" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="I234" s="138" t="s">
+      <c r="I234" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="J234" s="138" t="s">
+      <c r="J234" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="K234" s="138" t="s">
+      <c r="K234" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="L234" s="138" t="s">
+      <c r="L234" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="M234" s="138" t="s">
+      <c r="M234" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="N234" s="138" t="s">
+      <c r="N234" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="O234" s="138" t="s">
+      <c r="O234" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="P234" s="248"/>
-      <c r="Q234" s="250"/>
+      <c r="P234" s="238"/>
+      <c r="Q234" s="241"/>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A235" s="139" t="s">
+      <c r="A235" s="138" t="s">
         <v>218</v>
       </c>
       <c r="B235" s="131">
-        <f>SUM(C235,P235,Q235)</f>
+        <f>C223</f>
         <v>1942499.9999999995</v>
       </c>
-      <c r="C235" s="133">
-        <f>SUM(D235:O235)</f>
+      <c r="C235" s="131">
+        <f t="shared" ref="C235:Q235" si="38">D223</f>
         <v>529772.72727272718</v>
       </c>
       <c r="D235" s="131">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E235" s="131">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F235" s="131">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G235" s="131">
-        <f>H223</f>
+        <f t="shared" si="38"/>
         <v>58863.636363636353</v>
       </c>
       <c r="H235" s="131">
-        <f t="shared" ref="H235:O235" si="33">I223</f>
+        <f t="shared" si="38"/>
         <v>58863.636363636353</v>
       </c>
       <c r="I235" s="131">
-        <f>J223</f>
+        <f t="shared" si="38"/>
         <v>58863.636363636353</v>
       </c>
       <c r="J235" s="131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>58863.636363636353</v>
       </c>
       <c r="K235" s="131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>58863.636363636353</v>
       </c>
       <c r="L235" s="131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>58863.636363636353</v>
       </c>
       <c r="M235" s="131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>58863.636363636353</v>
       </c>
       <c r="N235" s="131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>58863.636363636353</v>
       </c>
       <c r="O235" s="131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>58863.636363636353</v>
       </c>
       <c r="P235" s="131">
-        <f>Q223</f>
+        <f t="shared" si="38"/>
         <v>706363.63636363624</v>
       </c>
       <c r="Q235" s="131">
-        <f>R223</f>
+        <f t="shared" si="38"/>
         <v>706363.63636363624</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A236" s="139" t="s">
+      <c r="A236" s="138" t="s">
         <v>219</v>
       </c>
       <c r="B236" s="131">
-        <f ca="1">SUM(C236,P236,Q236)</f>
-        <v>1064018.672</v>
-      </c>
-      <c r="C236" s="133">
-        <f ca="1">SUM(D236:O236)</f>
+        <f>C226</f>
+        <v>1063572.1205984</v>
+      </c>
+      <c r="C236" s="131">
+        <f t="shared" ref="C236:Q236" si="39">D226</f>
         <v>346582.54865454539</v>
       </c>
       <c r="D236" s="131">
-        <f ca="1">E226</f>
+        <f t="shared" si="39"/>
         <v>35067.040000000001</v>
       </c>
       <c r="E236" s="131">
-        <f>F226</f>
+        <f t="shared" si="39"/>
         <v>35067.040000000001</v>
       </c>
       <c r="F236" s="131">
-        <f t="shared" ref="F236:O236" ca="1" si="34">G226</f>
+        <f t="shared" si="39"/>
         <v>7409.9224000000004</v>
       </c>
       <c r="G236" s="131">
-        <f>H226</f>
+        <f t="shared" si="39"/>
         <v>29893.171806060607</v>
       </c>
       <c r="H236" s="131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>29893.171806060607</v>
       </c>
       <c r="I236" s="131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>29893.171806060607</v>
       </c>
       <c r="J236" s="131">
-        <f>K226</f>
+        <f t="shared" si="39"/>
         <v>29893.171806060607</v>
       </c>
       <c r="K236" s="131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>29893.171806060607</v>
       </c>
       <c r="L236" s="131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>29893.171806060607</v>
       </c>
       <c r="M236" s="131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>29893.171806060607</v>
       </c>
       <c r="N236" s="131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>29893.171806060607</v>
       </c>
       <c r="O236" s="131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>29893.171806060607</v>
       </c>
       <c r="P236" s="131">
-        <f>Q226</f>
+        <f t="shared" si="39"/>
         <v>358718.06167272729</v>
       </c>
       <c r="Q236" s="131">
-        <f>R226</f>
+        <f t="shared" si="39"/>
         <v>358271.51027112728</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A237" s="139" t="s">
+      <c r="A237" s="138" t="s">
         <v>220</v>
       </c>
       <c r="B237" s="131">
-        <f ca="1">SUM(C237,P237,Q237)</f>
-        <v>878481.32799999951</v>
-      </c>
-      <c r="C237" s="133">
-        <f ca="1">SUM(D237:O237)</f>
+        <f>SUM(C237,P237,Q237)</f>
+        <v>878927.87940159952</v>
+      </c>
+      <c r="C237" s="132">
+        <f>SUM(D237:O237)</f>
         <v>183190.17861818173</v>
       </c>
-      <c r="D237" s="133">
-        <f t="shared" ref="D237:Q237" ca="1" si="35">D235-D236</f>
+      <c r="D237" s="132">
+        <f>D235-D236</f>
         <v>-35067.040000000001</v>
       </c>
-      <c r="E237" s="133">
-        <f t="shared" si="35"/>
+      <c r="E237" s="132">
+        <f t="shared" ref="D237:Q237" si="40">E235-E236</f>
         <v>-35067.040000000001</v>
       </c>
-      <c r="F237" s="133">
-        <f t="shared" ca="1" si="35"/>
+      <c r="F237" s="132">
+        <f t="shared" si="40"/>
         <v>-7409.9224000000004</v>
       </c>
-      <c r="G237" s="133">
-        <f t="shared" si="35"/>
+      <c r="G237" s="132">
+        <f t="shared" si="40"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="H237" s="133">
-        <f t="shared" si="35"/>
+      <c r="H237" s="132">
+        <f t="shared" si="40"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="I237" s="133">
-        <f t="shared" si="35"/>
+      <c r="I237" s="132">
+        <f t="shared" si="40"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="J237" s="133">
-        <f t="shared" si="35"/>
+      <c r="J237" s="132">
+        <f t="shared" si="40"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="K237" s="133">
-        <f t="shared" si="35"/>
+      <c r="K237" s="132">
+        <f t="shared" si="40"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="L237" s="133">
-        <f t="shared" si="35"/>
+      <c r="L237" s="132">
+        <f t="shared" si="40"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="M237" s="133">
-        <f t="shared" si="35"/>
+      <c r="M237" s="132">
+        <f t="shared" si="40"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="N237" s="133">
-        <f t="shared" si="35"/>
+      <c r="N237" s="132">
+        <f t="shared" si="40"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="O237" s="133">
-        <f t="shared" si="35"/>
+      <c r="O237" s="132">
+        <f t="shared" si="40"/>
         <v>28970.464557575746</v>
       </c>
-      <c r="P237" s="133">
-        <f t="shared" si="35"/>
+      <c r="P237" s="132">
+        <f t="shared" si="40"/>
         <v>347645.57469090895</v>
       </c>
-      <c r="Q237" s="133">
-        <f t="shared" si="35"/>
+      <c r="Q237" s="132">
+        <f t="shared" si="40"/>
         <v>348092.12609250896</v>
       </c>
     </row>
     <row r="238" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A238" s="139" t="s">
+      <c r="A238" s="138" t="s">
         <v>221</v>
       </c>
       <c r="B238" s="131">
-        <f ca="1">Q238</f>
-        <v>878481.32799999951</v>
-      </c>
-      <c r="C238" s="133">
-        <f ca="1">O238</f>
+        <f>Q238</f>
+        <v>878927.87940159952</v>
+      </c>
+      <c r="C238" s="132">
+        <f>O238</f>
         <v>183190.17861818173</v>
       </c>
       <c r="D238" s="131">
-        <f ca="1">D237</f>
+        <f>D237</f>
         <v>-35067.040000000001</v>
       </c>
       <c r="E238" s="131">
-        <f ca="1">D238+E237</f>
+        <f>D238+E237</f>
         <v>-70134.080000000002</v>
       </c>
       <c r="F238" s="131">
-        <f ca="1">E238+F237</f>
+        <f>E238+F237</f>
         <v>-77544.002399999998</v>
       </c>
       <c r="G238" s="131">
-        <f t="shared" ref="G238:O238" ca="1" si="36">F238+G237</f>
+        <f t="shared" ref="G238:O238" si="41">F238+G237</f>
         <v>-48573.537842424252</v>
       </c>
       <c r="H238" s="131">
-        <f ca="1">G238+H237</f>
+        <f>G238+H237</f>
         <v>-19603.073284848506</v>
       </c>
       <c r="I238" s="131">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="41"/>
         <v>9367.39127272724</v>
       </c>
       <c r="J238" s="131">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="41"/>
         <v>38337.855830302986</v>
       </c>
       <c r="K238" s="131">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="41"/>
         <v>67308.320387878732</v>
       </c>
       <c r="L238" s="131">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="41"/>
         <v>96278.784945454478</v>
       </c>
       <c r="M238" s="131">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="41"/>
         <v>125249.24950303022</v>
       </c>
       <c r="N238" s="131">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="41"/>
         <v>154219.71406060597</v>
       </c>
       <c r="O238" s="131">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="41"/>
         <v>183190.17861818173</v>
       </c>
       <c r="P238" s="131">
-        <f ca="1">P237+C238</f>
+        <f>P237+C238</f>
         <v>530835.75330909062</v>
       </c>
       <c r="Q238" s="131">
-        <f ca="1">P238+Q237</f>
-        <v>878481.32799999951</v>
+        <f>P238+Q237</f>
+        <v>878927.87940159952</v>
       </c>
     </row>
     <row r="239" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="140" t="s">
+      <c r="A239" s="139" t="s">
         <v>222</v>
       </c>
-      <c r="B239" s="141" t="s">
+      <c r="B239" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="C239" s="141">
+      <c r="C239" s="140">
         <v>1</v>
       </c>
-      <c r="D239" s="141"/>
-      <c r="E239" s="141"/>
-      <c r="F239" s="141"/>
-      <c r="G239" s="141"/>
-      <c r="H239" s="141"/>
-      <c r="I239" s="141"/>
-      <c r="J239" s="141"/>
-      <c r="K239" s="141"/>
-      <c r="L239" s="141"/>
-      <c r="M239" s="141"/>
-      <c r="N239" s="141"/>
-      <c r="O239" s="141"/>
-      <c r="P239" s="141">
+      <c r="D239" s="140"/>
+      <c r="E239" s="140"/>
+      <c r="F239" s="140"/>
+      <c r="G239" s="140"/>
+      <c r="H239" s="140"/>
+      <c r="I239" s="140"/>
+      <c r="J239" s="140"/>
+      <c r="K239" s="140"/>
+      <c r="L239" s="140"/>
+      <c r="M239" s="140"/>
+      <c r="N239" s="140"/>
+      <c r="O239" s="140"/>
+      <c r="P239" s="140">
         <f>1/(1+0.25)^1</f>
         <v>0.8</v>
       </c>
-      <c r="Q239" s="141">
+      <c r="Q239" s="140">
         <f>1/(1+0.25)^2</f>
         <v>0.64</v>
       </c>
     </row>
     <row r="240" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="140" t="s">
+      <c r="A240" s="139" t="s">
         <v>223</v>
       </c>
       <c r="B240" s="131">
-        <f ca="1">SUM(C240,P240,Q240)</f>
-        <v>683799.80617309059</v>
-      </c>
-      <c r="C240" s="142">
-        <f ca="1">C237</f>
+        <f>SUM(C240,P240,Q240)</f>
+        <v>684085.59907011467</v>
+      </c>
+      <c r="C240" s="141">
+        <f>C237</f>
         <v>183190.17861818173</v>
       </c>
-      <c r="D240" s="141"/>
-      <c r="E240" s="141"/>
-      <c r="F240" s="141"/>
-      <c r="G240" s="141"/>
-      <c r="H240" s="141"/>
-      <c r="I240" s="141"/>
-      <c r="J240" s="141"/>
-      <c r="K240" s="141"/>
-      <c r="L240" s="141"/>
-      <c r="M240" s="141"/>
-      <c r="N240" s="141"/>
-      <c r="O240" s="141"/>
-      <c r="P240" s="142">
+      <c r="D240" s="140"/>
+      <c r="E240" s="140"/>
+      <c r="F240" s="140"/>
+      <c r="G240" s="140"/>
+      <c r="H240" s="140"/>
+      <c r="I240" s="140"/>
+      <c r="J240" s="140"/>
+      <c r="K240" s="140"/>
+      <c r="L240" s="140"/>
+      <c r="M240" s="140"/>
+      <c r="N240" s="140"/>
+      <c r="O240" s="140"/>
+      <c r="P240" s="141">
         <f>P237/(1+0.25)^1</f>
         <v>278116.45975272718</v>
       </c>
-      <c r="Q240" s="142">
+      <c r="Q240" s="141">
         <f>Q237/(1+0.25)^2</f>
         <v>222778.96069920572</v>
       </c>
     </row>
     <row r="241" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A241" s="140" t="s">
+      <c r="A241" s="139" t="s">
         <v>224</v>
       </c>
       <c r="B241" s="131">
-        <f ca="1">SUM(C241,P241,Q241)</f>
-        <v>1328296.6231621811</v>
-      </c>
-      <c r="C241" s="142">
-        <f ca="1">C237</f>
+        <f>SUM(C241,P241,Q241)</f>
+        <v>1328582.4160592053</v>
+      </c>
+      <c r="C241" s="141">
+        <f>C237</f>
         <v>183190.17861818173</v>
       </c>
-      <c r="D241" s="142">
-        <f ca="1">D237</f>
+      <c r="D241" s="141">
+        <f>D237</f>
         <v>-35067.040000000001</v>
       </c>
-      <c r="E241" s="142">
-        <f ca="1">E237+D241</f>
+      <c r="E241" s="141">
+        <f>E237+D241</f>
         <v>-70134.080000000002</v>
       </c>
-      <c r="F241" s="142">
-        <f ca="1">F237+E241</f>
+      <c r="F241" s="141">
+        <f>F237+E241</f>
         <v>-77544.002399999998</v>
       </c>
-      <c r="G241" s="142">
-        <f t="shared" ref="G241:O241" ca="1" si="37">G237+F241</f>
+      <c r="G241" s="141">
+        <f t="shared" ref="G241:O241" si="42">G237+F241</f>
         <v>-48573.537842424252</v>
       </c>
-      <c r="H241" s="142">
-        <f ca="1">H237+G241</f>
+      <c r="H241" s="141">
+        <f>H237+G241</f>
         <v>-19603.073284848506</v>
       </c>
-      <c r="I241" s="142">
-        <f t="shared" ca="1" si="37"/>
+      <c r="I241" s="141">
+        <f t="shared" si="42"/>
         <v>9367.39127272724</v>
       </c>
-      <c r="J241" s="142">
-        <f t="shared" ca="1" si="37"/>
+      <c r="J241" s="141">
+        <f t="shared" si="42"/>
         <v>38337.855830302986</v>
       </c>
-      <c r="K241" s="142">
-        <f t="shared" ca="1" si="37"/>
+      <c r="K241" s="141">
+        <f t="shared" si="42"/>
         <v>67308.320387878732</v>
       </c>
-      <c r="L241" s="142">
-        <f t="shared" ca="1" si="37"/>
+      <c r="L241" s="141">
+        <f t="shared" si="42"/>
         <v>96278.784945454478</v>
       </c>
-      <c r="M241" s="142">
-        <f ca="1">M237+L241</f>
+      <c r="M241" s="141">
+        <f>M237+L241</f>
         <v>125249.24950303022</v>
       </c>
-      <c r="N241" s="142">
-        <f t="shared" ca="1" si="37"/>
+      <c r="N241" s="141">
+        <f t="shared" si="42"/>
         <v>154219.71406060597</v>
       </c>
-      <c r="O241" s="142">
-        <f t="shared" ca="1" si="37"/>
+      <c r="O241" s="141">
+        <f t="shared" si="42"/>
         <v>183190.17861818173</v>
       </c>
-      <c r="P241" s="142">
-        <f ca="1">P240+C241</f>
+      <c r="P241" s="141">
+        <f>P240+C241</f>
         <v>461306.63837090891</v>
       </c>
-      <c r="Q241" s="142">
-        <f ca="1">Q240+P241</f>
-        <v>683799.80617309059</v>
+      <c r="Q241" s="141">
+        <f>Q240+P241</f>
+        <v>684085.59907011467</v>
       </c>
     </row>
     <row r="243" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="251" t="s">
+      <c r="A243" s="242" t="s">
         <v>225</v>
       </c>
-      <c r="B243" s="251"/>
-      <c r="C243" s="251"/>
+      <c r="B243" s="242"/>
+      <c r="C243" s="242"/>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A244" s="244" t="s">
+      <c r="A244" s="250" t="s">
         <v>126</v>
       </c>
-      <c r="B244" s="235" t="s">
+      <c r="B244" s="180" t="s">
         <v>226</v>
       </c>
-      <c r="C244" s="253" t="s">
+      <c r="C244" s="252" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="245" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="252"/>
-      <c r="B245" s="236"/>
-      <c r="C245" s="254"/>
+      <c r="A245" s="251"/>
+      <c r="B245" s="181"/>
+      <c r="C245" s="253"/>
     </row>
     <row r="246" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="143" t="s">
+      <c r="A246" s="142" t="s">
         <v>228</v>
       </c>
-      <c r="B246" s="144" t="s">
+      <c r="B246" s="143" t="s">
         <v>229</v>
       </c>
-      <c r="C246" s="145">
-        <f ca="1">B241</f>
-        <v>1328296.6231621811</v>
+      <c r="C246" s="144">
+        <f>B241</f>
+        <v>1328582.4160592053</v>
       </c>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A247" s="146" t="s">
+      <c r="A247" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="B247" s="147" t="s">
+      <c r="B247" s="146" t="s">
         <v>231</v>
       </c>
-      <c r="C247" s="148">
+      <c r="C247" s="147">
         <v>1.2</v>
       </c>
       <c r="D247"/>
     </row>
     <row r="248" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="149" t="s">
+      <c r="A248" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="B248" s="147" t="s">
+      <c r="B248" s="146" t="s">
         <v>233</v>
       </c>
-      <c r="C248" s="154">
-        <f ca="1">(C235/C236 + P235/P236 + Q235/ Q236)/3</f>
-        <v>1.8222759385431162</v>
-      </c>
-      <c r="D248" s="152"/>
+      <c r="C248" s="153">
+        <f>(C235/C236 + P235/P236 + Q235/ Q236)/3</f>
+        <v>1.8230940510219078</v>
+      </c>
+      <c r="D248" s="151"/>
     </row>
     <row r="249" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="150" t="s">
+      <c r="A249" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="B249" s="153" t="s">
+      <c r="B249" s="152" t="s">
         <v>235</v>
       </c>
-      <c r="C249" s="155" t="s">
+      <c r="C249" s="154" t="s">
         <v>244</v>
       </c>
     </row>
@@ -8125,6 +8145,10 @@
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A228:B228"/>
     <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A223:B223"/>
     <mergeCell ref="C179:O179"/>
     <mergeCell ref="P179:P180"/>
     <mergeCell ref="Q179:Q180"/>
@@ -8148,6 +8172,7 @@
     <mergeCell ref="B93:B105"/>
     <mergeCell ref="C93:C105"/>
     <mergeCell ref="D93:D105"/>
+    <mergeCell ref="E93:E105"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="B48:F48"/>
     <mergeCell ref="A53:A54"/>
@@ -8180,7 +8205,13 @@
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E93:E105"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="A221:B222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:P221"/>
     <mergeCell ref="A125:E125"/>
     <mergeCell ref="A134:A135"/>
     <mergeCell ref="B134:B135"/>
@@ -8190,17 +8221,6 @@
     <mergeCell ref="A118:D118"/>
     <mergeCell ref="A121:D121"/>
     <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="A221:B222"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:P221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
